--- a/efetivo/dados_efetivo/efetivo.xlsx
+++ b/efetivo/dados_efetivo/efetivo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD67A1A-355C-46BD-BB24-731CAD14345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDB0DC8-2C14-4A54-BB2D-67107EE4EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="236">
   <si>
     <t>EQUIPE DE ESTRUTURA - (Setembro)</t>
   </si>
@@ -297,78 +297,72 @@
     <t>Manoel dos Santos de Jesus</t>
   </si>
   <si>
-    <t>Luis Carlos Santos Carvalho</t>
+    <t>Weberton William Justo de Andrade</t>
   </si>
   <si>
     <t>João Marcos Forte Araújo</t>
   </si>
   <si>
-    <t>Weberton William Justo de Andrade</t>
+    <t>Jonatas Porfirio da Silva</t>
   </si>
   <si>
     <t>Maicon Evangelista da Silva</t>
   </si>
   <si>
-    <t>Jonatas Porfirio da Silva</t>
+    <t>Jeferson dos Santos</t>
   </si>
   <si>
     <t xml:space="preserve">Marcelo Cardoso De Paiva </t>
   </si>
   <si>
-    <t>Jeferson dos Santos</t>
+    <t>Robson da Silva</t>
   </si>
   <si>
     <t>Vinicius Mandonça da Silva</t>
   </si>
   <si>
-    <t>Robson da Silva</t>
+    <t>Alexsandro da Silva Marinho</t>
   </si>
   <si>
     <t>Jonathan Allifer Pires</t>
   </si>
   <si>
-    <t>Alexsandro da Silva Marinho</t>
+    <t>Wanderson Antonio Carvalho da Costa</t>
   </si>
   <si>
     <t>Rikelme Borges Santos</t>
   </si>
   <si>
-    <t>Wanderson Antonio Carvalho da Costa</t>
+    <t>Yuri Rafael Radatz</t>
   </si>
   <si>
     <t>Alessandro da Costa Viana</t>
   </si>
   <si>
-    <t>Yuri Rafael Radatz</t>
+    <t>Sidnei Santos da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meio Oficial </t>
   </si>
   <si>
     <t>Darnllei William Azevedo da Rosa</t>
   </si>
   <si>
-    <t>Sidnei Santos da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meio Oficial </t>
+    <t>Rodrigo Santos Rodrigues</t>
+  </si>
+  <si>
+    <t>Meio Oficial</t>
   </si>
   <si>
     <t>Jaison dos Santos</t>
   </si>
   <si>
-    <t>Rodrigo Santos Rodrigues</t>
-  </si>
-  <si>
-    <t>Meio Oficial</t>
+    <t>Elismael Farias de Souza</t>
   </si>
   <si>
     <t>Cristiano Ferreira Dutra</t>
   </si>
   <si>
-    <t>Elismael Farias de Souza</t>
-  </si>
-  <si>
-    <t>Pedro Paulo Balem</t>
-  </si>
-  <si>
     <t>Mayckon Matias</t>
   </si>
   <si>
@@ -438,10 +432,22 @@
     <t>Jose Rogerio dos Santos</t>
   </si>
   <si>
+    <t>Luan Henrique Cadernal Pacheco</t>
+  </si>
+  <si>
+    <t>Carlos Magno Alves Fonseca</t>
+  </si>
+  <si>
+    <t>Gilberson da Costa Conceiçao</t>
+  </si>
+  <si>
+    <t>Samuel Vitor Pacifico</t>
+  </si>
+  <si>
     <t>ANDAIME</t>
   </si>
   <si>
-    <t>Carlos Magno Alves Fonseca</t>
+    <t>Matheus Henrique Lopes</t>
   </si>
   <si>
     <t>Elton Raimundo Ferreira de Santana</t>
@@ -450,7 +456,7 @@
     <t>Encarregado de Andaime III</t>
   </si>
   <si>
-    <t>Samuel Vitor Pacifico</t>
+    <t>Dayvson Andre Pereira da Silva</t>
   </si>
   <si>
     <t>Jadson Andrade de Souza</t>
@@ -459,7 +465,7 @@
     <t>Encarregado de Andaime I</t>
   </si>
   <si>
-    <t>Matheus Henrique Lopes</t>
+    <t>David Henrique da Luz Lopes</t>
   </si>
   <si>
     <t>Eronides Fernandes Pereira</t>
@@ -468,13 +474,13 @@
     <t>Montador de Andaime IV</t>
   </si>
   <si>
-    <t>Dayvson Andre Pereira da Silva</t>
+    <t>Anderson Matheus Cruz de Oliveira</t>
   </si>
   <si>
     <t>Dilso Onei Cachoeira</t>
   </si>
   <si>
-    <t>Cauan Batista da Silva de Melo</t>
+    <t>Thales de Moura Soares</t>
   </si>
   <si>
     <t>Wanderson Bravo Xavier</t>
@@ -483,7 +489,7 @@
     <t>Montador de Andaime III</t>
   </si>
   <si>
-    <t>David Henrique da Luz Lopes</t>
+    <t>Marcos Vincius Barros Silva</t>
   </si>
   <si>
     <t>Mateus dos Santos Andrade</t>
@@ -492,13 +498,13 @@
     <t>Montador de Andaime II</t>
   </si>
   <si>
-    <t>Anderson Matheus Cruz de Oliveira</t>
+    <t>Saulo Rocha Rodrigues Machado</t>
   </si>
   <si>
     <t>João Felipe Sena dos Santos</t>
   </si>
   <si>
-    <t>Thales de Moura Soares</t>
+    <t>Edny Cursino Pinheiro</t>
   </si>
   <si>
     <t>Augusto Carlos da Silva Junior</t>
@@ -507,115 +513,115 @@
     <t>Montador de Andaime I</t>
   </si>
   <si>
-    <t>Marcos Vincius Barros Silva</t>
+    <t>Ivan Teixeira dos Santos</t>
   </si>
   <si>
     <t>Valdir Santos de Santana</t>
   </si>
   <si>
-    <t>Saulo Rocha Rodrigues Machado</t>
+    <t>Pedro Mota Santos</t>
   </si>
   <si>
     <t>Ronicley Santos Santana</t>
   </si>
   <si>
-    <t>Edny Cursino Pinheiro</t>
+    <t>Fabricio Sales de Melo</t>
   </si>
   <si>
     <t>Alef Romário Ramos Silva</t>
   </si>
   <si>
-    <t>Fabio Santos Soares</t>
+    <t>Gilson Silva do Nascimento</t>
   </si>
   <si>
     <t>Moises Santana Vasconcelos</t>
   </si>
   <si>
-    <t>Joao Carlos Santos de Jesus</t>
+    <t>Joao Guilherme Barbosa de Oliveira</t>
   </si>
   <si>
     <t>Sidnei Francisco do Nascimento</t>
   </si>
   <si>
-    <t>Ivan Teixeira dos Santos</t>
+    <t>Kelven Silva Batista</t>
   </si>
   <si>
     <t>Sidcley Francisco do Nascimento</t>
   </si>
   <si>
-    <t>Pedro Mota Santos</t>
+    <t>Kauhe Anilton Ribeiro de Jesus</t>
   </si>
   <si>
     <t>Jose Roberto Menezes Tavares</t>
   </si>
   <si>
-    <t>Fabricio Sales de Melo</t>
+    <t>Wander Kleiton Pinheiro Santos</t>
   </si>
   <si>
     <t>Janderson Menezes de Souza</t>
   </si>
   <si>
-    <t>Gilson Silva do Nascimento</t>
+    <t>Carlos Henrique de Souza Nascimento</t>
   </si>
   <si>
     <t>Sergio Nogueira de Araujo</t>
   </si>
   <si>
-    <t>Joao Guilherme Barbosa de Oliveira</t>
+    <t>Carlos Venancio Pereira dos Santos</t>
   </si>
   <si>
     <t>Iran Carlos Serra das Virgens</t>
   </si>
   <si>
-    <t>Kelven Silva Batista</t>
+    <t>Kassio Neves de Oliveira</t>
   </si>
   <si>
     <t>Moaci Bispo Marques</t>
   </si>
   <si>
-    <t>Kauhe Anilton Ribeiro de Jesus</t>
+    <t>Kaua Santos</t>
   </si>
   <si>
     <t>Wellington Bispo Costa</t>
   </si>
   <si>
-    <t>Wander Kleiton Pinheiro Santos</t>
+    <t>Kaue Barros Oliveira</t>
   </si>
   <si>
     <t>Welton Pacheco dos Santos</t>
   </si>
   <si>
-    <t>Carlos Henrique de Souza Nascimento</t>
+    <t>Kayky Vitor Oliveira de Sousa</t>
   </si>
   <si>
     <t>Paulo Sergio dos Santos Junior</t>
   </si>
   <si>
-    <t>Carlos Venancio Pereira dos Santos</t>
+    <t>Oton Francez Estumano</t>
   </si>
   <si>
     <t>Jonatans Ubiratan Cabral dos Santos</t>
   </si>
   <si>
-    <t>Gilberson da Costa Conceiçao</t>
+    <t>Igor Augusto Lopes Maiberg</t>
   </si>
   <si>
     <t>Marcelo Pereira da Silva</t>
   </si>
   <si>
-    <t>Kassio Neves de Oliveira</t>
+    <t>Marcelo Pedro dos Santos</t>
   </si>
   <si>
     <t>Michael Taizon Felix dos Santos</t>
   </si>
   <si>
-    <t>Kaua Santos</t>
+    <t>Adalberto da Silva Duarte</t>
   </si>
   <si>
     <t>APOIO</t>
   </si>
   <si>
-    <t>Kaue Barros Oliveira</t>
+    <t>Davi Sergio dos Santos Correia</t>
   </si>
   <si>
     <t>Gustavo Carvalho</t>
@@ -624,34 +630,31 @@
     <t>Estagiario</t>
   </si>
   <si>
-    <t>Kayky Vitor Oliveira de Sousa</t>
+    <t>Felipe Serpa de Souza</t>
   </si>
   <si>
     <t>Leonardo Adilson Reinert</t>
   </si>
   <si>
-    <t>Luan Henrique Cadernal Pacheco</t>
+    <t>Fernando Luis da Silva</t>
   </si>
   <si>
     <t>Richard Ferreira</t>
   </si>
   <si>
-    <t>Oton Francez Estumano</t>
+    <t>Marlom Wille Verissimo</t>
   </si>
   <si>
     <t>Valter da Silva Lins Filho</t>
   </si>
   <si>
-    <t>Igor Augusto Lopes Maiberg</t>
+    <t>Michael Reis Lopes</t>
   </si>
   <si>
     <t>Joelson Ricardo Rocha Alves Filho</t>
   </si>
   <si>
-    <t>Marcelo Pedro dos Santos</t>
-  </si>
-  <si>
-    <t>Adalberto da Silva Duarte</t>
+    <t>Sidney de Jesus Serrão</t>
   </si>
   <si>
     <t>Férias</t>
@@ -660,7 +663,7 @@
     <t>Jean</t>
   </si>
   <si>
-    <t>Davi Sergio dos Santos Correia</t>
+    <t>Maxwell da Silva Lima</t>
   </si>
   <si>
     <t>Integração</t>
@@ -669,7 +672,7 @@
     <t>Andre</t>
   </si>
   <si>
-    <t>Felipe Serpa de Souza</t>
+    <t>Renison Fernandes Santos Bezerra</t>
   </si>
   <si>
     <t>Noturno</t>
@@ -678,7 +681,7 @@
     <t>Josias</t>
   </si>
   <si>
-    <t>Fernando Luis da Silva</t>
+    <t>Vilson Vinicius Marcondes de Alencar</t>
   </si>
   <si>
     <t>Trabalho Alternativo/Paiol</t>
@@ -687,70 +690,58 @@
     <t>Marlon</t>
   </si>
   <si>
-    <t>Marlom Wille Verissimo</t>
+    <t>Darllan Lima dos Santos</t>
   </si>
   <si>
     <t>INSS</t>
   </si>
   <si>
-    <t>Michael Reis Lopes</t>
+    <t>Guilherme Krieser da Silva</t>
   </si>
   <si>
     <t>Emprestado Processamento</t>
   </si>
   <si>
-    <t>Sidney de Jesus Serrão</t>
-  </si>
-  <si>
-    <t>Maxwell da Silva Lima</t>
+    <t>Lucas Menezes Duarte</t>
+  </si>
+  <si>
+    <t>Matheus Eduardo de Almeida</t>
+  </si>
+  <si>
+    <t>Mauricio Cardoso Maciel</t>
   </si>
   <si>
     <t>3º TURMA CEFAP</t>
   </si>
   <si>
-    <t>Renison Fernandes Santos Bezerra</t>
+    <t>Michel Tavares de Oliveira</t>
   </si>
   <si>
     <t>Edipo Adrian Damasceno Santos</t>
   </si>
   <si>
-    <t>Vilson Vinicius Marcondes de Alencar</t>
+    <t>Samuel Vitor Tavares Oliveira</t>
   </si>
   <si>
     <t>Eubson Moreira de Oliveira</t>
   </si>
   <si>
-    <t>Darllan Lima dos Santos</t>
+    <t>George Lucas Valasques do Sacramento</t>
   </si>
   <si>
     <t>Adilson Fernando da Silva</t>
   </si>
   <si>
-    <t>Guilherme Krieser da Silva</t>
+    <t>Josivaldo Clarindo Rosas</t>
   </si>
   <si>
     <t>Jean Cezar Rodrigues Cardoso</t>
   </si>
   <si>
-    <t>Lucas Menezes Duarte</t>
-  </si>
-  <si>
     <t>Mateus de Jesus Siqueira</t>
   </si>
   <si>
-    <t>Matheus Eduardo de Almeida</t>
-  </si>
-  <si>
-    <t>Mauricio Cardoso Maciel</t>
-  </si>
-  <si>
     <t>Jonathan Alberto Braz</t>
-  </si>
-  <si>
-    <t>Michel Tavares de Oliveira</t>
-  </si>
-  <si>
-    <t>Samuel Vitor Tavares Oliveira</t>
   </si>
 </sst>
 </file>
@@ -816,14 +807,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1304,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,13 +1352,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1377,12 +1361,6 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,7 +1396,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,7 +1417,7 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1448,43 +1426,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,15 +1459,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,50 +1479,60 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,9 +1552,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,29 +1559,35 @@
     <xf numFmtId="14" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,6 +1636,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,10 +1647,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1693,9 +1676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1704,9 +1684,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1736,14 +1713,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,13 +1734,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,6 +1749,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,11 +1767,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1817,6 +1786,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1828,9 +1800,9 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,14 +1819,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2166,8 +2149,8 @@
   </sheetPr>
   <dimension ref="B1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35:T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -2196,52 +2179,52 @@
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" s="1"/>
-      <c r="C1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="S1" s="135"/>
+      <c r="C1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="131"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="S1" s="133"/>
     </row>
     <row r="2" spans="2:19">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
-      <c r="O2" s="135"/>
-      <c r="S2" s="135"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
+      <c r="O2" s="133"/>
+      <c r="S2" s="133"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="142" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="143"/>
-      <c r="O3" s="135"/>
-      <c r="S3" s="135"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="141"/>
+      <c r="O3" s="133"/>
+      <c r="S3" s="133"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="2">
@@ -2277,23 +2260,23 @@
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="135"/>
-      <c r="S4" s="135"/>
+      <c r="O4" s="133"/>
+      <c r="S4" s="133"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="33">
         <v>2043</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="34">
         <v>41190</v>
       </c>
       <c r="G5" s="6"/>
@@ -2314,115 +2297,115 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="S5" s="135"/>
+      <c r="S5" s="133"/>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="33">
         <v>4200</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="34">
         <v>42044</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="22">
         <v>5358</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="53">
         <v>43227</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="S6" s="135"/>
+      <c r="S6" s="133"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>3310</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="53">
         <v>41822</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="10">
         <v>4</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <v>6036</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="53">
         <v>44613</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="S7" s="135"/>
+      <c r="S7" s="133"/>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>812</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="53">
         <v>40483</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="10">
         <v>5</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="22">
         <v>6453</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="89" t="s">
+      <c r="K8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="53">
         <v>45336</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="S8" s="135"/>
+      <c r="S8" s="133"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="14">
@@ -2431,10 +2414,10 @@
       <c r="C9" s="15">
         <v>3603</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="65" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="16">
@@ -2444,40 +2427,40 @@
       <c r="H9" s="14">
         <v>6</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="64">
         <v>4517</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="66">
         <v>42171</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="S9" s="135"/>
+      <c r="S9" s="133"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="144">
+      <c r="B10" s="142">
         <v>1</v>
       </c>
-      <c r="C10" s="145">
+      <c r="C10" s="143">
         <v>2609</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="144" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="17">
         <v>41407</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="147">
+      <c r="H10" s="145">
         <v>1</v>
       </c>
       <c r="I10" s="18">
@@ -2494,79 +2477,79 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="S10" s="135"/>
+      <c r="S10" s="133"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="103">
         <v>6615</v>
       </c>
-      <c r="D11" s="149" t="s">
+      <c r="D11" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="150">
+      <c r="F11" s="147">
         <v>45488</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="108">
+      <c r="H11" s="102">
         <v>2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
         <v>3051</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="23">
         <v>41751</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="S11" s="135"/>
+      <c r="S11" s="133"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="151">
+      <c r="C12" s="148">
         <v>6596</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="152" t="s">
+      <c r="E12" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="153">
+      <c r="F12" s="149">
         <v>45474</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="147">
+      <c r="H12" s="145">
         <v>3</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="22">
         <v>3068</v>
       </c>
-      <c r="J12" s="89" t="s">
+      <c r="J12" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="23">
         <v>41752</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="S12" s="135"/>
+      <c r="S12" s="133"/>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="2">
@@ -2585,115 +2568,115 @@
         <v>44655</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="108">
+      <c r="H13" s="102">
         <v>4</v>
       </c>
       <c r="I13" s="22">
         <v>3838</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <v>41946</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="S13" s="135"/>
+      <c r="S13" s="133"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" customHeight="1">
       <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="33">
         <v>5455</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="34">
         <v>43563</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="147">
+      <c r="H14" s="145">
         <v>5</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="22">
         <v>4920</v>
       </c>
-      <c r="J14" s="89" t="s">
+      <c r="J14" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="23">
         <v>42471</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="S14" s="135"/>
+      <c r="S14" s="133"/>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="10">
         <v>3</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="33">
         <v>5687</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="34">
         <v>43843</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="108">
+      <c r="H15" s="102">
         <v>6</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <v>5416</v>
       </c>
-      <c r="J15" s="89" t="s">
+      <c r="J15" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="89" t="s">
+      <c r="K15" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="23">
         <v>43514</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="S15" s="135"/>
+      <c r="S15" s="133"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="10">
         <v>4</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="33">
         <v>6007</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="34">
         <v>44599</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="147">
+      <c r="H16" s="145">
         <v>7</v>
       </c>
       <c r="I16" s="11">
@@ -2705,123 +2688,123 @@
       <c r="K16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="24">
         <v>44613</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="S16" s="135"/>
+      <c r="S16" s="133"/>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="10">
         <v>5</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="33">
         <v>5854</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="34">
         <v>44396</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="108">
+      <c r="H17" s="102">
         <v>8</v>
       </c>
       <c r="I17" s="22">
         <v>6121</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>44655</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="S17" s="135"/>
+      <c r="S17" s="133"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="10">
         <v>6</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="33">
         <v>5423</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="34">
         <v>43516</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="147">
+      <c r="H18" s="145">
         <v>9</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>6242</v>
       </c>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="23">
         <v>44830</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="S18" s="135"/>
+      <c r="S18" s="133"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="30">
+      <c r="B19" s="25">
         <v>7</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="26">
         <v>6953</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="29">
         <v>45705</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="108">
+      <c r="H19" s="102">
         <v>10</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="22">
         <v>6462</v>
       </c>
-      <c r="J19" s="89" t="s">
+      <c r="J19" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="89" t="s">
+      <c r="K19" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="23">
         <v>45341</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="S19" s="135"/>
+      <c r="S19" s="133"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="154">
+      <c r="B20" s="150">
         <v>1</v>
       </c>
       <c r="C20" s="3">
@@ -2837,60 +2820,60 @@
         <v>42919</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="147">
+      <c r="H20" s="145">
         <v>11</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="22">
         <v>6468</v>
       </c>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="89" t="s">
+      <c r="K20" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="23">
         <v>45355</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="S20" s="135"/>
+      <c r="S20" s="133"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" customHeight="1">
       <c r="B21" s="14">
         <v>2</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="30">
         <v>5230</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="32">
         <v>42919</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="108">
+      <c r="H21" s="102">
         <v>12</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="22">
         <v>6476</v>
       </c>
-      <c r="J21" s="89" t="s">
+      <c r="J21" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="89" t="s">
+      <c r="K21" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="23">
         <v>45355</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="S21" s="135"/>
+      <c r="S21" s="133"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" customHeight="1">
       <c r="B22" s="2">
@@ -2908,176 +2891,176 @@
       <c r="F22" s="5">
         <v>43563</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="147">
+      <c r="G22" s="132"/>
+      <c r="H22" s="145">
         <v>13</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="22">
         <v>6483</v>
       </c>
-      <c r="J22" s="89" t="s">
+      <c r="J22" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="89" t="s">
+      <c r="K22" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="23">
         <v>45362</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="S22" s="135"/>
+      <c r="S22" s="133"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" customHeight="1">
       <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="33">
         <v>5411</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="34">
         <v>43510</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="108">
+      <c r="H23" s="102">
         <v>14</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="22">
         <v>6488</v>
       </c>
-      <c r="J23" s="89" t="s">
+      <c r="J23" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="89" t="s">
+      <c r="K23" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="23">
         <v>45362</v>
       </c>
       <c r="M23" s="9"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="S23" s="135"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="S23" s="133"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" customHeight="1">
       <c r="B24" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="33">
         <v>5859</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="34">
         <v>44410</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="147">
+      <c r="H24" s="145">
         <v>15</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="22">
         <v>6494</v>
       </c>
-      <c r="J24" s="89" t="s">
+      <c r="J24" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="89" t="s">
+      <c r="K24" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="23">
         <v>45369</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="S24" s="135"/>
+      <c r="S24" s="133"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" customHeight="1">
       <c r="B25" s="10">
         <v>4</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="33">
         <v>5890</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="34">
         <v>44466</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="108">
+      <c r="H25" s="102">
         <v>16</v>
       </c>
-      <c r="I25" s="155">
+      <c r="I25" s="151">
         <v>6534</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="23">
         <v>45425</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="S25" s="135"/>
+      <c r="S25" s="133"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" customHeight="1">
       <c r="B26" s="10">
         <v>5</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="33">
         <v>5958</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="34">
         <v>44571</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="147">
+      <c r="H26" s="145">
         <v>17</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="22">
         <v>6583</v>
       </c>
-      <c r="J26" s="106" t="s">
+      <c r="J26" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="106" t="s">
+      <c r="K26" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="23">
         <v>45467</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="S26" s="135"/>
+      <c r="S26" s="133"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" customHeight="1">
       <c r="B27" s="10">
         <v>6</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="35">
         <v>5959</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -3086,585 +3069,585 @@
       <c r="E27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="36">
         <v>44571</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="108">
+      <c r="H27" s="102">
         <v>18</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="35">
         <v>6665</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="156">
+      <c r="L27" s="152">
         <v>45523</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="S27" s="135"/>
+      <c r="S27" s="133"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1">
       <c r="B28" s="10">
         <v>7</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="33">
         <v>5972</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="34">
         <v>44578</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="147">
+      <c r="H28" s="145">
         <v>19</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="33">
         <v>6684</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="68">
         <v>45537</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="135"/>
-      <c r="S28" s="135"/>
+      <c r="O28" s="133"/>
+      <c r="S28" s="133"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" customHeight="1">
       <c r="B29" s="10">
         <v>8</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="33">
         <v>6064</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="34">
         <v>44622</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="108">
+      <c r="H29" s="102">
         <v>20</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="33">
         <v>6744</v>
       </c>
-      <c r="J29" s="106" t="s">
+      <c r="J29" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="68">
         <v>45579</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="135"/>
-      <c r="S29" s="135"/>
+      <c r="O29" s="133"/>
+      <c r="S29" s="133"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1">
       <c r="B30" s="10">
         <v>9</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="33">
         <v>6495</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="34">
         <v>45369</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="147">
+      <c r="H30" s="145">
         <v>21</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="33">
         <v>6855</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="J30" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="77">
+      <c r="L30" s="68">
         <v>45677</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="135"/>
-      <c r="S30" s="135"/>
+      <c r="O30" s="133"/>
+      <c r="S30" s="133"/>
     </row>
     <row r="31" spans="2:19" ht="15.75" customHeight="1">
       <c r="B31" s="10">
         <v>10</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="33">
         <v>6604</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="34">
         <v>45481</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="108">
+      <c r="H31" s="102">
         <v>22</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="33">
         <v>6874</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="K31" s="45" t="s">
+      <c r="K31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="68">
         <v>45678</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="135"/>
-      <c r="S31" s="135"/>
+      <c r="O31" s="133"/>
+      <c r="S31" s="133"/>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1">
       <c r="B32" s="10">
         <v>11</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="33">
         <v>6626</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="34">
         <v>45495</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="147">
+      <c r="H32" s="145">
         <v>23</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="33">
         <v>6886</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="J32" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="45" t="s">
+      <c r="K32" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="68">
         <v>45684</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="135"/>
-      <c r="S32" s="135"/>
+      <c r="O32" s="133"/>
+      <c r="S32" s="133"/>
     </row>
     <row r="33" spans="2:21" ht="15.75" customHeight="1">
       <c r="B33" s="10">
         <v>12</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="33">
         <v>6507</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="34">
         <v>45383</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="108">
+      <c r="H33" s="102">
         <v>24</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="33">
         <v>6895</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="77">
+      <c r="L33" s="68">
         <v>45684</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="135"/>
-      <c r="S33" s="135"/>
+      <c r="O33" s="133"/>
+      <c r="S33" s="133"/>
     </row>
     <row r="34" spans="2:21" ht="15.75" customHeight="1">
       <c r="B34" s="10">
         <v>13</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="33">
         <v>6937</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="34">
         <v>45698</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="147">
+      <c r="H34" s="145">
         <v>25</v>
       </c>
       <c r="I34" s="11">
         <v>7033</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="46" t="s">
+      <c r="K34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="157">
+      <c r="L34" s="153">
         <v>45733</v>
       </c>
       <c r="M34" s="9"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="158"/>
-      <c r="T34" s="132"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="154"/>
+      <c r="T34" s="130"/>
     </row>
     <row r="35" spans="2:21" ht="15.75" customHeight="1">
       <c r="B35" s="10">
         <v>14</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="33">
         <v>6448</v>
       </c>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="34">
         <v>45327</v>
       </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="108">
+      <c r="H35" s="102">
         <v>26</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I35" s="52">
         <v>7036</v>
       </c>
-      <c r="J35" s="51" t="s">
+      <c r="J35" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="51" t="s">
+      <c r="K35" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="159">
+      <c r="L35" s="155">
         <v>45733</v>
       </c>
-      <c r="M35" s="130"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="161"/>
-      <c r="S35" s="162"/>
-      <c r="T35" s="162"/>
-      <c r="U35" s="132"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="158"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="130"/>
     </row>
     <row r="36" spans="2:21" ht="15.75" customHeight="1">
       <c r="B36" s="10">
         <v>15</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="33">
         <v>6457</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="34">
         <v>45336</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="147">
+      <c r="H36" s="145">
         <v>27</v>
       </c>
-      <c r="I36" s="56">
-        <v>7039</v>
-      </c>
-      <c r="J36" s="51" t="s">
+      <c r="I36" s="33">
+        <v>7069</v>
+      </c>
+      <c r="J36" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="159">
-        <v>45733</v>
-      </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="163"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="163"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="163"/>
-      <c r="U36" s="132"/>
+      <c r="K36" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="68">
+        <v>45748</v>
+      </c>
+      <c r="M36" s="129"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="126"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="130"/>
     </row>
     <row r="37" spans="2:21" ht="15.75" customHeight="1">
       <c r="B37" s="10">
         <v>16</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="33">
         <v>6717</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="34">
         <v>45551</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="108">
+      <c r="H37" s="102">
         <v>28</v>
       </c>
-      <c r="I37" s="38">
-        <v>7069</v>
-      </c>
-      <c r="J37" s="47" t="s">
+      <c r="I37" s="33">
+        <v>7073</v>
+      </c>
+      <c r="J37" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="77">
+      <c r="K37" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="68">
         <v>45748</v>
       </c>
-      <c r="M37" s="131"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="162"/>
-      <c r="P37" s="163"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="163"/>
-      <c r="S37" s="164"/>
-      <c r="T37" s="163"/>
-      <c r="U37" s="132"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="130"/>
     </row>
     <row r="38" spans="2:21" ht="15.75" customHeight="1">
       <c r="B38" s="10">
         <v>17</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="33">
         <v>6788</v>
       </c>
-      <c r="D38" s="89" t="s">
+      <c r="D38" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="34">
         <v>45614</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="147">
+      <c r="H38" s="145">
         <v>29</v>
       </c>
-      <c r="I38" s="38">
-        <v>7073</v>
-      </c>
-      <c r="J38" s="47" t="s">
+      <c r="I38" s="35">
+        <v>7135</v>
+      </c>
+      <c r="J38" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="K38" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="77">
-        <v>45748</v>
-      </c>
-      <c r="M38" s="131"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="163"/>
-      <c r="U38" s="132"/>
+      <c r="K38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="44">
+        <v>45769</v>
+      </c>
+      <c r="M38" s="129"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="126"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="130"/>
     </row>
     <row r="39" spans="2:21" ht="15.75" customHeight="1">
       <c r="B39" s="10">
         <v>18</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="33">
         <v>6551</v>
       </c>
-      <c r="D39" s="106" t="s">
+      <c r="D39" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="34">
         <v>45439</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="108">
+      <c r="H39" s="102">
         <v>30</v>
       </c>
-      <c r="I39" s="40">
-        <v>7135</v>
-      </c>
-      <c r="J39" s="48" t="s">
+      <c r="I39" s="45">
+        <v>7177</v>
+      </c>
+      <c r="J39" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="K39" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="49">
-        <v>45769</v>
-      </c>
-      <c r="M39" s="131"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="164"/>
-      <c r="T39" s="163"/>
-      <c r="U39" s="132"/>
+      <c r="K39" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="68">
+        <v>45789</v>
+      </c>
+      <c r="M39" s="129"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="126"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="130"/>
     </row>
     <row r="40" spans="2:21" ht="15" customHeight="1">
       <c r="B40" s="10">
         <v>19</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="33">
         <v>6894</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="34">
         <v>45684</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="147">
+      <c r="H40" s="145">
         <v>31</v>
       </c>
-      <c r="I40" s="50">
-        <v>7177</v>
-      </c>
-      <c r="J40" s="51" t="s">
+      <c r="I40" s="109">
+        <v>7209</v>
+      </c>
+      <c r="J40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="K40" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="L40" s="77">
-        <v>45789</v>
-      </c>
-      <c r="M40" s="131"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="164"/>
-      <c r="T40" s="163"/>
-      <c r="U40" s="132"/>
+      <c r="K40" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="68">
+        <v>45803</v>
+      </c>
+      <c r="M40" s="129"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="126"/>
+      <c r="T40" s="127"/>
+      <c r="U40" s="130"/>
     </row>
     <row r="41" spans="2:21" ht="16.5" customHeight="1">
       <c r="B41" s="10">
         <v>20</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="48">
         <v>6621</v>
       </c>
-      <c r="D41" s="165" t="s">
+      <c r="D41" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="166">
+      <c r="F41" s="160">
         <v>45488</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="108">
+      <c r="H41" s="102">
         <v>32</v>
       </c>
-      <c r="I41" s="113">
-        <v>7209</v>
-      </c>
-      <c r="J41" s="51" t="s">
+      <c r="I41" s="109">
+        <v>7218</v>
+      </c>
+      <c r="J41" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="K41" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="L41" s="77">
-        <v>45803</v>
-      </c>
-      <c r="M41" s="131"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="121"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="164"/>
-      <c r="T41" s="163"/>
-      <c r="U41" s="132"/>
+      <c r="K41" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="68">
+        <v>45804</v>
+      </c>
+      <c r="M41" s="129"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="126"/>
+      <c r="T41" s="127"/>
+      <c r="U41" s="130"/>
     </row>
     <row r="42" spans="2:21" ht="15.75" customHeight="1">
       <c r="B42" s="10">
@@ -3673,2591 +3656,2579 @@
       <c r="C42" s="11">
         <v>6993</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="36">
         <v>45726</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="147">
+      <c r="H42" s="145">
         <v>33</v>
       </c>
-      <c r="I42" s="113">
-        <v>7218</v>
-      </c>
-      <c r="J42" s="51" t="s">
+      <c r="I42" s="52">
+        <v>7234</v>
+      </c>
+      <c r="J42" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="K42" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="77">
-        <v>45804</v>
-      </c>
-      <c r="M42" s="131"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="164"/>
-      <c r="T42" s="162"/>
-      <c r="U42" s="132"/>
+      <c r="K42" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="155">
+        <v>45810</v>
+      </c>
+      <c r="M42" s="129"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="158"/>
+      <c r="U42" s="130"/>
     </row>
     <row r="43" spans="2:21" ht="15.75" customHeight="1">
       <c r="B43" s="10">
         <v>22</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="35">
         <v>7133</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="36">
         <v>45769</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="108">
+      <c r="H43" s="102">
         <v>34</v>
       </c>
-      <c r="I43" s="56">
-        <v>7234</v>
-      </c>
-      <c r="J43" s="51" t="s">
+      <c r="I43" s="161">
+        <v>7151</v>
+      </c>
+      <c r="J43" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="159">
-        <v>45810</v>
-      </c>
-      <c r="M43" s="131"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="164"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="132"/>
+      <c r="K43" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="51">
+        <v>45775</v>
+      </c>
+      <c r="M43" s="129"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="127"/>
+      <c r="U43" s="130"/>
     </row>
     <row r="44" spans="2:21" ht="15.75" customHeight="1">
       <c r="B44" s="10">
         <v>23</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="33">
         <v>7168</v>
       </c>
-      <c r="D44" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="45" t="s">
+      <c r="D44" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="34">
         <v>45782</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="147">
+      <c r="H44" s="145">
         <v>35</v>
       </c>
-      <c r="I44" s="167">
-        <v>7151</v>
-      </c>
-      <c r="J44" s="168" t="s">
-        <v>103</v>
-      </c>
-      <c r="K44" s="169" t="s">
+      <c r="I44" s="161">
+        <v>7066</v>
+      </c>
+      <c r="J44" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="L44" s="57">
-        <v>45775</v>
-      </c>
-      <c r="M44" s="131"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="163"/>
-      <c r="U44" s="132"/>
+      <c r="K44" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" s="164">
+        <v>45748</v>
+      </c>
+      <c r="M44" s="129"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="126"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="130"/>
     </row>
     <row r="45" spans="2:21" ht="15.75" customHeight="1">
       <c r="B45" s="10">
         <v>24</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="33">
         <v>7182</v>
       </c>
-      <c r="D45" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="52" t="s">
+      <c r="D45" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="34">
         <v>45789</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="108">
+      <c r="H45" s="102">
         <v>36</v>
       </c>
-      <c r="I45" s="167">
-        <v>7066</v>
-      </c>
-      <c r="J45" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45" s="168" t="s">
+      <c r="I45" s="33">
+        <v>7417</v>
+      </c>
+      <c r="J45" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="L45" s="170">
-        <v>45748</v>
-      </c>
-      <c r="M45" s="171"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="127"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="164"/>
-      <c r="T45" s="163"/>
-      <c r="U45" s="132"/>
+      <c r="K45" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="85">
+        <v>45887</v>
+      </c>
+      <c r="M45" s="165"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="123"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="126"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="130"/>
     </row>
     <row r="46" spans="2:21" ht="15.75" customHeight="1">
       <c r="B46" s="10">
         <v>25</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="33">
         <v>7303</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="D46" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="89" t="s">
+      <c r="E46" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="39">
+      <c r="F46" s="34">
         <v>45845</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="147">
+      <c r="H46" s="145">
         <v>37</v>
       </c>
-      <c r="I46" s="38">
-        <v>7417</v>
-      </c>
-      <c r="J46" s="89" t="s">
+      <c r="I46" s="35">
+        <v>7469</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="K46" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="L46" s="172">
-        <v>45887</v>
-      </c>
-      <c r="M46" s="130"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="163"/>
-      <c r="U46" s="132"/>
+      <c r="K46" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="44">
+        <v>45908</v>
+      </c>
+      <c r="M46" s="128"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="123"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="127"/>
+      <c r="U46" s="130"/>
     </row>
     <row r="47" spans="2:21" ht="15.75" customHeight="1">
       <c r="B47" s="10">
         <v>26</v>
       </c>
-      <c r="C47" s="58">
-        <v>7374</v>
-      </c>
-      <c r="D47" s="106" t="s">
+      <c r="C47" s="33">
+        <v>6877</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="39">
-        <v>45866</v>
+      <c r="F47" s="34">
+        <v>45684</v>
       </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="108">
+      <c r="H47" s="102">
         <v>38</v>
       </c>
-      <c r="I47" s="58">
-        <v>7469</v>
-      </c>
-      <c r="J47" s="173" t="s">
+      <c r="I47" s="33">
+        <v>7468</v>
+      </c>
+      <c r="J47" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="K47" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="174">
+      <c r="K47" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="68">
         <v>45908</v>
       </c>
-      <c r="M47" s="130"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="123"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="162"/>
-      <c r="U47" s="132"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="125"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="126"/>
+      <c r="T47" s="158"/>
+      <c r="U47" s="130"/>
     </row>
     <row r="48" spans="2:21" ht="15.75" customHeight="1">
       <c r="B48" s="10">
         <v>27</v>
       </c>
-      <c r="C48" s="38">
-        <v>6877</v>
-      </c>
-      <c r="D48" s="44" t="s">
+      <c r="C48" s="33">
+        <v>6660</v>
+      </c>
+      <c r="D48" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="39">
-        <v>45684</v>
-      </c>
-      <c r="H48" s="147">
-        <v>39</v>
-      </c>
-      <c r="I48" s="58">
-        <v>7468</v>
-      </c>
-      <c r="J48" s="173" t="s">
-        <v>113</v>
-      </c>
-      <c r="K48" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" s="174">
-        <v>45908</v>
-      </c>
-      <c r="M48" s="130"/>
-      <c r="N48" s="116"/>
-      <c r="O48" s="116"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="164"/>
-      <c r="T48" s="162"/>
-      <c r="U48" s="132"/>
+      <c r="F48" s="53">
+        <v>45523</v>
+      </c>
+      <c r="H48" s="166"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="169"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="126"/>
+      <c r="T48" s="158"/>
+      <c r="U48" s="130"/>
     </row>
     <row r="49" spans="2:21" ht="15.75" customHeight="1">
       <c r="B49" s="10">
         <v>28</v>
       </c>
-      <c r="C49" s="38">
-        <v>6660</v>
-      </c>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="35">
+        <v>6820</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="36">
+        <v>45663</v>
+      </c>
+      <c r="H49" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="61">
-        <v>45523</v>
-      </c>
-      <c r="H49" s="175"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="178"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="116"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="164"/>
-      <c r="T49" s="162"/>
-      <c r="U49" s="132"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="172"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="126"/>
+      <c r="T49" s="158"/>
+      <c r="U49" s="130"/>
     </row>
     <row r="50" spans="2:21" ht="15.75" customHeight="1">
       <c r="B50" s="10">
         <v>29</v>
       </c>
-      <c r="C50" s="40">
-        <v>6820</v>
-      </c>
-      <c r="D50" s="42" t="s">
+      <c r="C50" s="52">
+        <v>6905</v>
+      </c>
+      <c r="D50" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="41">
-        <v>45663</v>
-      </c>
-      <c r="G50" s="133"/>
-      <c r="H50" s="179" t="s">
+      <c r="F50" s="34">
+        <v>45691</v>
+      </c>
+      <c r="G50" s="132"/>
+      <c r="H50" s="102">
+        <v>1</v>
+      </c>
+      <c r="I50" s="11">
+        <v>2127</v>
+      </c>
+      <c r="J50" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="180"/>
-      <c r="L50" s="181"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="116"/>
-      <c r="O50" s="116"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="164"/>
-      <c r="T50" s="162"/>
-      <c r="U50" s="132"/>
+      <c r="K50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L50" s="24">
+        <v>41227</v>
+      </c>
+      <c r="M50" s="128"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="126"/>
+      <c r="T50" s="158"/>
+      <c r="U50" s="130"/>
     </row>
     <row r="51" spans="2:21" ht="15.75" customHeight="1">
       <c r="B51" s="10">
         <v>30</v>
       </c>
-      <c r="C51" s="56">
-        <v>6905</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="52" t="s">
+      <c r="C51" s="22">
+        <v>6955</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="39">
-        <v>45691</v>
-      </c>
-      <c r="G51" s="133"/>
-      <c r="H51" s="108">
-        <v>1</v>
-      </c>
-      <c r="I51" s="25">
-        <v>2127</v>
-      </c>
-      <c r="J51" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="K51" s="89" t="s">
+      <c r="F51" s="34">
+        <v>45705</v>
+      </c>
+      <c r="G51" s="132"/>
+      <c r="H51" s="102">
+        <v>2</v>
+      </c>
+      <c r="I51" s="22">
+        <v>5741</v>
+      </c>
+      <c r="J51" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="L51" s="26">
-        <v>41227</v>
-      </c>
-      <c r="M51" s="130"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="121"/>
-      <c r="R51" s="123"/>
-      <c r="S51" s="125"/>
-      <c r="T51" s="162"/>
-      <c r="U51" s="132"/>
+      <c r="K51" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="L51" s="23">
+        <v>44004</v>
+      </c>
+      <c r="M51" s="128"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="125"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="119"/>
+      <c r="S51" s="121"/>
+      <c r="T51" s="158"/>
+      <c r="U51" s="130"/>
     </row>
     <row r="52" spans="2:21" ht="15.75" customHeight="1">
       <c r="B52" s="10">
         <v>31</v>
       </c>
-      <c r="C52" s="25">
-        <v>6955</v>
-      </c>
-      <c r="D52" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="52" t="s">
+      <c r="C52" s="52">
+        <v>7000</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="39">
-        <v>45705</v>
-      </c>
-      <c r="G52" s="133"/>
-      <c r="H52" s="108">
-        <v>2</v>
-      </c>
-      <c r="I52" s="25">
-        <v>5741</v>
-      </c>
-      <c r="J52" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="K52" s="89" t="s">
+      <c r="F52" s="34">
+        <v>45726</v>
+      </c>
+      <c r="G52" s="132"/>
+      <c r="H52" s="102">
+        <v>3</v>
+      </c>
+      <c r="I52" s="11">
+        <v>5970</v>
+      </c>
+      <c r="J52" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L52" s="26">
-        <v>44004</v>
-      </c>
-      <c r="M52" s="171"/>
-      <c r="N52" s="116"/>
-      <c r="O52" s="116"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="121"/>
-      <c r="R52" s="123"/>
-      <c r="S52" s="125"/>
-      <c r="T52" s="162"/>
-      <c r="U52" s="132"/>
+      <c r="K52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" s="24">
+        <v>44571</v>
+      </c>
+      <c r="M52" s="165"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="112"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="119"/>
+      <c r="S52" s="121"/>
+      <c r="T52" s="158"/>
+      <c r="U52" s="130"/>
     </row>
     <row r="53" spans="2:21" ht="15.75" customHeight="1">
       <c r="B53" s="10">
         <v>32</v>
       </c>
-      <c r="C53" s="56">
-        <v>7000</v>
-      </c>
-      <c r="D53" s="51" t="s">
+      <c r="C53" s="52">
+        <v>7010</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="34">
+        <v>45726</v>
+      </c>
+      <c r="G53" s="132"/>
+      <c r="H53" s="102">
+        <v>4</v>
+      </c>
+      <c r="I53" s="22">
+        <v>6440</v>
+      </c>
+      <c r="J53" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="K53" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="39">
-        <v>45726</v>
-      </c>
-      <c r="G53" s="133"/>
-      <c r="H53" s="108">
-        <v>3</v>
-      </c>
-      <c r="I53" s="25">
-        <v>5970</v>
-      </c>
-      <c r="J53" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="K53" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="L53" s="26">
-        <v>44571</v>
-      </c>
-      <c r="M53" s="130"/>
-      <c r="N53" s="116"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="117"/>
-      <c r="Q53" s="117"/>
-      <c r="R53" s="115"/>
-      <c r="S53" s="164"/>
-      <c r="T53" s="162"/>
-      <c r="U53" s="132"/>
+      <c r="L53" s="23">
+        <v>45320</v>
+      </c>
+      <c r="M53" s="128"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="126"/>
+      <c r="T53" s="158"/>
+      <c r="U53" s="130"/>
     </row>
     <row r="54" spans="2:21" ht="15.75" customHeight="1">
       <c r="B54" s="10">
         <v>33</v>
       </c>
-      <c r="C54" s="56">
-        <v>7010</v>
-      </c>
-      <c r="D54" s="51" t="s">
+      <c r="C54" s="52">
+        <v>7022</v>
+      </c>
+      <c r="D54" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="39">
-        <v>45726</v>
-      </c>
-      <c r="G54" s="133"/>
-      <c r="H54" s="108">
-        <v>4</v>
-      </c>
-      <c r="I54" s="25">
-        <v>6440</v>
-      </c>
-      <c r="J54" s="89" t="s">
+      <c r="F54" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G54" s="132"/>
+      <c r="H54" s="102">
+        <v>5</v>
+      </c>
+      <c r="I54" s="33">
+        <v>6455</v>
+      </c>
+      <c r="J54" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="K54" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="L54" s="26">
-        <v>45320</v>
-      </c>
-      <c r="M54" s="130"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="129"/>
-      <c r="Q54" s="117"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="164"/>
-      <c r="T54" s="163"/>
-      <c r="U54" s="132"/>
+      <c r="K54" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="L54" s="68">
+        <v>45336</v>
+      </c>
+      <c r="M54" s="128"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="113"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="126"/>
+      <c r="T54" s="127"/>
+      <c r="U54" s="130"/>
     </row>
     <row r="55" spans="2:21" ht="15.75" customHeight="1">
       <c r="B55" s="10">
         <v>34</v>
       </c>
-      <c r="C55" s="56">
-        <v>7022</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="52" t="s">
+      <c r="C55" s="52">
+        <v>7041</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="34">
         <v>45733</v>
       </c>
-      <c r="G55" s="133"/>
-      <c r="H55" s="108">
-        <v>5</v>
-      </c>
-      <c r="I55" s="38">
-        <v>6455</v>
-      </c>
-      <c r="J55" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="K55" s="89" t="s">
+      <c r="G55" s="132"/>
+      <c r="H55" s="102">
+        <v>6</v>
+      </c>
+      <c r="I55" s="22">
+        <v>6543</v>
+      </c>
+      <c r="J55" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="77">
-        <v>45336</v>
-      </c>
-      <c r="M55" s="130"/>
-      <c r="N55" s="116"/>
-      <c r="O55" s="116"/>
-      <c r="P55" s="127"/>
-      <c r="Q55" s="127"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="164"/>
-      <c r="T55" s="163"/>
-      <c r="U55" s="132"/>
+      <c r="K55" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="L55" s="23">
+        <v>45432</v>
+      </c>
+      <c r="M55" s="128"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="127"/>
+      <c r="U55" s="130"/>
     </row>
     <row r="56" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B56" s="10">
+      <c r="B56" s="25">
         <v>35</v>
       </c>
-      <c r="C56" s="56">
-        <v>7041</v>
-      </c>
-      <c r="D56" s="51" t="s">
+      <c r="C56" s="26">
+        <v>6934</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="39">
-        <v>45733</v>
-      </c>
-      <c r="G56" s="133"/>
-      <c r="H56" s="108">
-        <v>6</v>
-      </c>
-      <c r="I56" s="25">
-        <v>6543</v>
-      </c>
-      <c r="J56" s="89" t="s">
+      <c r="F56" s="29">
+        <v>45705</v>
+      </c>
+      <c r="G56" s="132"/>
+      <c r="H56" s="102">
+        <v>7</v>
+      </c>
+      <c r="I56" s="35">
+        <v>7346</v>
+      </c>
+      <c r="J56" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="K56" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="L56" s="26">
-        <v>45432</v>
-      </c>
-      <c r="M56" s="130"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="115"/>
-      <c r="S56" s="164"/>
-      <c r="T56" s="163"/>
-      <c r="U56" s="132"/>
+      <c r="K56" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L56" s="173">
+        <v>45859</v>
+      </c>
+      <c r="M56" s="128"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="120"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="126"/>
+      <c r="T56" s="127"/>
+      <c r="U56" s="130"/>
     </row>
     <row r="57" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B57" s="10">
-        <v>36</v>
-      </c>
-      <c r="C57" s="63">
-        <v>6934</v>
-      </c>
-      <c r="D57" s="64" t="s">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="56">
+        <v>6913</v>
+      </c>
+      <c r="D57" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="37">
-        <v>45705</v>
-      </c>
-      <c r="G57" s="133"/>
-      <c r="H57" s="182" t="s">
+      <c r="E57" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="5">
+        <v>45691</v>
+      </c>
+      <c r="G57" s="132"/>
+      <c r="H57" s="102">
+        <v>8</v>
+      </c>
+      <c r="I57" s="35">
+        <v>7349</v>
+      </c>
+      <c r="J57" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I57" s="139"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="139"/>
-      <c r="L57" s="140"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="126"/>
-      <c r="S57" s="164"/>
-      <c r="T57" s="162"/>
-      <c r="U57" s="132"/>
+      <c r="K57" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L57" s="173">
+        <v>45859</v>
+      </c>
+      <c r="M57" s="128"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="120"/>
+      <c r="Q57" s="115"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="126"/>
+      <c r="T57" s="158"/>
+      <c r="U57" s="130"/>
     </row>
     <row r="58" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58" s="66">
-        <v>6913</v>
-      </c>
-      <c r="D58" s="67" t="s">
+      <c r="B58" s="10">
+        <v>2</v>
+      </c>
+      <c r="C58" s="33">
+        <v>7141</v>
+      </c>
+      <c r="D58" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="5">
-        <v>45691</v>
-      </c>
-      <c r="G58" s="133"/>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="69">
-        <v>4175</v>
-      </c>
-      <c r="J58" s="70" t="s">
+      <c r="E58" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="108">
+        <v>45769</v>
+      </c>
+      <c r="G58" s="132"/>
+      <c r="H58" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="K58" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="L58" s="71">
-        <v>42037</v>
-      </c>
-      <c r="M58" s="130"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="129"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="126"/>
-      <c r="S58" s="164"/>
-      <c r="T58" s="163"/>
-      <c r="U58" s="132"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="138"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="124"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="126"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="130"/>
     </row>
     <row r="59" spans="2:21" ht="15.75" customHeight="1">
       <c r="B59" s="10">
-        <v>2</v>
-      </c>
-      <c r="C59" s="38">
-        <v>7141</v>
-      </c>
-      <c r="D59" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="52">
+        <v>7024</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G59" s="132"/>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="61">
+        <v>4175</v>
+      </c>
+      <c r="J59" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="110">
-        <v>45769</v>
-      </c>
-      <c r="G59" s="133"/>
-      <c r="H59" s="14">
-        <v>2</v>
-      </c>
-      <c r="I59" s="73">
-        <v>4124</v>
-      </c>
-      <c r="J59" s="74" t="s">
+      <c r="K59" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="K59" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="L59" s="75">
-        <v>42030</v>
-      </c>
-      <c r="M59" s="130"/>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="126"/>
-      <c r="S59" s="164"/>
-      <c r="T59" s="163"/>
-      <c r="U59" s="132"/>
+      <c r="L59" s="63">
+        <v>42037</v>
+      </c>
+      <c r="M59" s="128"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="115"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="126"/>
+      <c r="T59" s="127"/>
+      <c r="U59" s="130"/>
     </row>
     <row r="60" spans="2:21" ht="15.75" customHeight="1">
       <c r="B60" s="10">
-        <v>3</v>
-      </c>
-      <c r="C60" s="56">
-        <v>7024</v>
-      </c>
-      <c r="D60" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="52">
+        <v>7035</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G60" s="132"/>
+      <c r="H60" s="14">
+        <v>2</v>
+      </c>
+      <c r="I60" s="64">
+        <v>4124</v>
+      </c>
+      <c r="J60" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="39">
-        <v>45733</v>
-      </c>
-      <c r="G60" s="133"/>
-      <c r="H60" s="147">
-        <v>1</v>
-      </c>
-      <c r="I60" s="183">
-        <v>574</v>
-      </c>
-      <c r="J60" s="146" t="s">
+      <c r="K60" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="K60" s="146" t="s">
-        <v>143</v>
-      </c>
-      <c r="L60" s="184">
-        <v>40064</v>
-      </c>
-      <c r="M60" s="130"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="124"/>
-      <c r="Q60" s="117"/>
-      <c r="R60" s="123"/>
-      <c r="S60" s="164"/>
-      <c r="T60" s="162"/>
-      <c r="U60" s="132"/>
+      <c r="L60" s="66">
+        <v>42030</v>
+      </c>
+      <c r="M60" s="128"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="120"/>
+      <c r="Q60" s="113"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="126"/>
+      <c r="T60" s="158"/>
+      <c r="U60" s="130"/>
     </row>
     <row r="61" spans="2:21" ht="15" customHeight="1">
       <c r="B61" s="10">
-        <v>4</v>
-      </c>
-      <c r="C61" s="56">
-        <v>7035</v>
-      </c>
-      <c r="D61" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="109">
+        <v>7214</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="108">
+        <v>45803</v>
+      </c>
+      <c r="G61" s="132"/>
+      <c r="H61" s="145">
+        <v>1</v>
+      </c>
+      <c r="I61" s="175">
+        <v>574</v>
+      </c>
+      <c r="J61" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="39">
-        <v>45733</v>
-      </c>
-      <c r="G61" s="133"/>
-      <c r="H61" s="108">
-        <v>2</v>
-      </c>
-      <c r="I61" s="25">
-        <v>1053</v>
-      </c>
-      <c r="J61" s="89" t="s">
+      <c r="K61" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="K61" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="L61" s="26">
-        <v>40667</v>
-      </c>
-      <c r="M61" s="158"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="119"/>
-      <c r="Q61" s="119"/>
-      <c r="R61" s="126"/>
-      <c r="S61" s="164"/>
-      <c r="T61" s="163"/>
-      <c r="U61" s="132"/>
+      <c r="L61" s="176">
+        <v>40064</v>
+      </c>
+      <c r="M61" s="154"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="114"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="126"/>
+      <c r="T61" s="127"/>
+      <c r="U61" s="130"/>
     </row>
     <row r="62" spans="2:21" ht="15.75" customHeight="1">
       <c r="B62" s="10">
-        <v>5</v>
-      </c>
-      <c r="C62" s="38">
-        <v>7090</v>
-      </c>
-      <c r="D62" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="109">
+        <v>7215</v>
+      </c>
+      <c r="D62" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="39">
-        <v>45754</v>
-      </c>
-      <c r="G62" s="133"/>
-      <c r="H62" s="108">
-        <v>3</v>
-      </c>
-      <c r="I62" s="25">
-        <v>5453</v>
-      </c>
-      <c r="J62" s="89" t="s">
+      <c r="E62" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="108">
+        <v>45803</v>
+      </c>
+      <c r="G62" s="132"/>
+      <c r="H62" s="102">
+        <v>2</v>
+      </c>
+      <c r="I62" s="22">
+        <v>1053</v>
+      </c>
+      <c r="J62" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="K62" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="L62" s="26">
-        <v>43558</v>
-      </c>
-      <c r="M62" s="131"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="124"/>
-      <c r="R62" s="126"/>
-      <c r="S62" s="164"/>
-      <c r="T62" s="163"/>
-      <c r="U62" s="132"/>
+      <c r="K62" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="L62" s="23">
+        <v>40667</v>
+      </c>
+      <c r="M62" s="129"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="112"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="122"/>
+      <c r="S62" s="126"/>
+      <c r="T62" s="127"/>
+      <c r="U62" s="130"/>
     </row>
     <row r="63" spans="2:21" ht="15.75" customHeight="1">
       <c r="B63" s="10">
-        <v>6</v>
-      </c>
-      <c r="C63" s="113">
-        <v>7214</v>
-      </c>
-      <c r="D63" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="35">
+        <v>7217</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="173">
+        <v>45803</v>
+      </c>
+      <c r="G63" s="132"/>
+      <c r="H63" s="102">
+        <v>3</v>
+      </c>
+      <c r="I63" s="22">
+        <v>5453</v>
+      </c>
+      <c r="J63" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F63" s="110">
-        <v>45803</v>
-      </c>
-      <c r="G63" s="133"/>
-      <c r="H63" s="108">
-        <v>4</v>
-      </c>
-      <c r="I63" s="185">
-        <v>5873</v>
-      </c>
-      <c r="J63" s="186" t="s">
+      <c r="K63" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="K63" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="L63" s="26">
-        <v>44440</v>
-      </c>
-      <c r="M63" s="130"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="122"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="121"/>
-      <c r="R63" s="126"/>
-      <c r="S63" s="164"/>
-      <c r="T63" s="163"/>
-      <c r="U63" s="132"/>
+      <c r="L63" s="23">
+        <v>43558</v>
+      </c>
+      <c r="M63" s="128"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="118"/>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="117"/>
+      <c r="R63" s="122"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="127"/>
+      <c r="U63" s="130"/>
     </row>
     <row r="64" spans="2:21" ht="15.75" customHeight="1">
       <c r="B64" s="10">
-        <v>7</v>
-      </c>
-      <c r="C64" s="113">
-        <v>7215</v>
-      </c>
-      <c r="D64" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="69">
+        <v>7226</v>
+      </c>
+      <c r="D64" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="72">
+        <v>45810</v>
+      </c>
+      <c r="G64" s="132"/>
+      <c r="H64" s="102">
+        <v>4</v>
+      </c>
+      <c r="I64" s="177">
+        <v>5873</v>
+      </c>
+      <c r="J64" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" s="110">
-        <v>45803</v>
-      </c>
-      <c r="G64" s="133"/>
-      <c r="H64" s="108">
-        <v>5</v>
-      </c>
-      <c r="I64" s="25">
-        <v>6122</v>
-      </c>
-      <c r="J64" s="89" t="s">
+      <c r="K64" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="K64" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="L64" s="26">
-        <v>44655</v>
-      </c>
-      <c r="M64" s="130"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="122"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="115"/>
-      <c r="S64" s="164"/>
-      <c r="T64" s="163"/>
-      <c r="U64" s="132"/>
+      <c r="L64" s="23">
+        <v>44440</v>
+      </c>
+      <c r="M64" s="128"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="118"/>
+      <c r="P64" s="113"/>
+      <c r="Q64" s="113"/>
+      <c r="R64" s="111"/>
+      <c r="S64" s="126"/>
+      <c r="T64" s="127"/>
+      <c r="U64" s="130"/>
     </row>
     <row r="65" spans="2:21" ht="15" customHeight="1">
       <c r="B65" s="10">
-        <v>8</v>
-      </c>
-      <c r="C65" s="40">
-        <v>7217</v>
-      </c>
-      <c r="D65" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="22">
+        <v>7239</v>
+      </c>
+      <c r="D65" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="187">
-        <v>45803</v>
-      </c>
-      <c r="G65" s="133"/>
-      <c r="H65" s="108">
-        <v>6</v>
-      </c>
-      <c r="I65" s="79">
-        <v>6547</v>
-      </c>
-      <c r="J65" s="89" t="s">
+      <c r="E65" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="108">
+        <v>45817</v>
+      </c>
+      <c r="G65" s="132"/>
+      <c r="H65" s="102">
+        <v>5</v>
+      </c>
+      <c r="I65" s="22">
+        <v>6122</v>
+      </c>
+      <c r="J65" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="L65" s="77">
-        <v>45432</v>
-      </c>
-      <c r="M65" s="130"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116"/>
-      <c r="P65" s="127"/>
-      <c r="Q65" s="127"/>
-      <c r="R65" s="126"/>
-      <c r="S65" s="164"/>
-      <c r="T65" s="163"/>
-      <c r="U65" s="132"/>
+      <c r="K65" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="L65" s="23">
+        <v>44655</v>
+      </c>
+      <c r="M65" s="128"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="123"/>
+      <c r="Q65" s="123"/>
+      <c r="R65" s="122"/>
+      <c r="S65" s="126"/>
+      <c r="T65" s="127"/>
+      <c r="U65" s="130"/>
     </row>
     <row r="66" spans="2:21" ht="15" customHeight="1">
       <c r="B66" s="10">
-        <v>9</v>
-      </c>
-      <c r="C66" s="80">
-        <v>7226</v>
-      </c>
-      <c r="D66" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="22">
+        <v>7264</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="108">
+        <v>45824</v>
+      </c>
+      <c r="G66" s="132"/>
+      <c r="H66" s="102">
+        <v>6</v>
+      </c>
+      <c r="I66" s="74">
+        <v>6547</v>
+      </c>
+      <c r="J66" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="83">
-        <v>45810</v>
-      </c>
-      <c r="G66" s="133"/>
-      <c r="H66" s="108">
-        <v>7</v>
-      </c>
-      <c r="I66" s="188">
-        <v>6559</v>
-      </c>
-      <c r="J66" s="23" t="s">
+      <c r="K66" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="K66" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="L66" s="24">
-        <v>45446</v>
-      </c>
-      <c r="M66" s="158"/>
-      <c r="N66" s="116"/>
-      <c r="O66" s="116"/>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="121"/>
-      <c r="R66" s="126"/>
-      <c r="S66" s="164"/>
-      <c r="T66" s="163"/>
-      <c r="U66" s="132"/>
+      <c r="L66" s="68">
+        <v>45432</v>
+      </c>
+      <c r="M66" s="154"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="112"/>
+      <c r="P66" s="116"/>
+      <c r="Q66" s="117"/>
+      <c r="R66" s="122"/>
+      <c r="S66" s="126"/>
+      <c r="T66" s="127"/>
+      <c r="U66" s="130"/>
     </row>
     <row r="67" spans="2:21" ht="15" customHeight="1">
       <c r="B67" s="10">
-        <v>10</v>
-      </c>
-      <c r="C67" s="25">
-        <v>7239</v>
-      </c>
-      <c r="D67" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="75">
+        <v>7273</v>
+      </c>
+      <c r="D67" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="110">
-        <v>45817</v>
-      </c>
-      <c r="G67" s="133"/>
-      <c r="H67" s="108">
-        <v>8</v>
-      </c>
-      <c r="I67" s="38">
-        <v>6659</v>
-      </c>
-      <c r="J67" s="44" t="s">
+      <c r="E67" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="108">
+        <v>45831</v>
+      </c>
+      <c r="G67" s="132"/>
+      <c r="H67" s="102">
+        <v>7</v>
+      </c>
+      <c r="I67" s="179">
+        <v>6559</v>
+      </c>
+      <c r="J67" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="K67" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="L67" s="26">
-        <v>45523</v>
-      </c>
-      <c r="M67" s="158"/>
-      <c r="N67" s="116"/>
-      <c r="O67" s="116"/>
-      <c r="P67" s="129"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="164"/>
-      <c r="T67" s="163"/>
-      <c r="U67" s="132"/>
+      <c r="K67" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="L67" s="78">
+        <v>45446</v>
+      </c>
+      <c r="M67" s="154"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="125"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="119"/>
+      <c r="S67" s="126"/>
+      <c r="T67" s="127"/>
+      <c r="U67" s="130"/>
     </row>
     <row r="68" spans="2:21" ht="15.75" customHeight="1">
       <c r="B68" s="10">
-        <v>11</v>
-      </c>
-      <c r="C68" s="25">
-        <v>7264</v>
-      </c>
-      <c r="D68" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="22">
+        <v>7274</v>
+      </c>
+      <c r="D68" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E68" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="110">
-        <v>45824</v>
-      </c>
-      <c r="H68" s="108">
-        <v>9</v>
-      </c>
-      <c r="I68" s="38">
-        <v>6695</v>
-      </c>
-      <c r="J68" s="45" t="s">
+      <c r="E68" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" s="108">
+        <v>45831</v>
+      </c>
+      <c r="H68" s="102">
+        <v>8</v>
+      </c>
+      <c r="I68" s="33">
+        <v>6659</v>
+      </c>
+      <c r="J68" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="K68" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="L68" s="77">
-        <v>45544</v>
-      </c>
-      <c r="M68" s="158"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="117"/>
-      <c r="Q68" s="124"/>
-      <c r="R68" s="115"/>
-      <c r="S68" s="164"/>
-      <c r="T68" s="163"/>
-      <c r="U68" s="132"/>
+      <c r="K68" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="L68" s="23">
+        <v>45523</v>
+      </c>
+      <c r="M68" s="154"/>
+      <c r="N68" s="112"/>
+      <c r="O68" s="124"/>
+      <c r="P68" s="113"/>
+      <c r="Q68" s="120"/>
+      <c r="R68" s="111"/>
+      <c r="S68" s="126"/>
+      <c r="T68" s="127"/>
+      <c r="U68" s="130"/>
     </row>
     <row r="69" spans="2:21" ht="15.75" customHeight="1">
       <c r="B69" s="10">
-        <v>12</v>
-      </c>
-      <c r="C69" s="25">
-        <v>7261</v>
-      </c>
-      <c r="D69" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="33">
+        <v>7301</v>
+      </c>
+      <c r="D69" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="E69" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="110">
-        <v>45824</v>
-      </c>
-      <c r="H69" s="108">
-        <v>10</v>
-      </c>
-      <c r="I69" s="38">
-        <v>6856</v>
-      </c>
-      <c r="J69" s="44" t="s">
+      <c r="E69" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="108">
+        <v>45839</v>
+      </c>
+      <c r="H69" s="102">
+        <v>9</v>
+      </c>
+      <c r="I69" s="33">
+        <v>6695</v>
+      </c>
+      <c r="J69" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="K69" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="L69" s="26">
-        <v>45677</v>
-      </c>
-      <c r="M69" s="158"/>
-      <c r="N69" s="162"/>
-      <c r="O69" s="116"/>
-      <c r="P69" s="129"/>
-      <c r="Q69" s="117"/>
-      <c r="R69" s="123"/>
-      <c r="S69" s="164"/>
-      <c r="T69" s="163"/>
-      <c r="U69" s="132"/>
+      <c r="K69" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L69" s="68">
+        <v>45544</v>
+      </c>
+      <c r="M69" s="154"/>
+      <c r="N69" s="158"/>
+      <c r="O69" s="112"/>
+      <c r="P69" s="125"/>
+      <c r="Q69" s="113"/>
+      <c r="R69" s="119"/>
+      <c r="S69" s="126"/>
+      <c r="T69" s="127"/>
+      <c r="U69" s="130"/>
     </row>
     <row r="70" spans="2:21" ht="15.75" customHeight="1">
       <c r="B70" s="10">
-        <v>13</v>
-      </c>
-      <c r="C70" s="25">
-        <v>7266</v>
-      </c>
-      <c r="D70" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="33">
+        <v>7286</v>
+      </c>
+      <c r="D70" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="110">
-        <v>45824</v>
-      </c>
-      <c r="H70" s="108">
-        <v>11</v>
-      </c>
-      <c r="I70" s="38">
-        <v>6857</v>
-      </c>
-      <c r="J70" s="44" t="s">
+      <c r="E70" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" s="108">
+        <v>45839</v>
+      </c>
+      <c r="H70" s="102">
+        <v>10</v>
+      </c>
+      <c r="I70" s="33">
+        <v>6856</v>
+      </c>
+      <c r="J70" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="K70" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="L70" s="26">
+      <c r="K70" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L70" s="23">
         <v>45677</v>
       </c>
-      <c r="M70" s="158"/>
-      <c r="N70" s="162"/>
-      <c r="O70" s="116"/>
-      <c r="P70" s="129"/>
-      <c r="Q70" s="117"/>
-      <c r="R70" s="123"/>
-      <c r="S70" s="164"/>
-      <c r="T70" s="163"/>
-      <c r="U70" s="132"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="158"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="125"/>
+      <c r="Q70" s="113"/>
+      <c r="R70" s="119"/>
+      <c r="S70" s="126"/>
+      <c r="T70" s="127"/>
+      <c r="U70" s="130"/>
     </row>
     <row r="71" spans="2:21" ht="15.75" customHeight="1">
       <c r="B71" s="10">
-        <v>14</v>
-      </c>
-      <c r="C71" s="85">
-        <v>7273</v>
-      </c>
-      <c r="D71" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="33">
+        <v>7292</v>
+      </c>
+      <c r="D71" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" s="110">
-        <v>45831</v>
-      </c>
-      <c r="H71" s="108">
-        <v>12</v>
-      </c>
-      <c r="I71" s="38">
-        <v>6858</v>
-      </c>
-      <c r="J71" s="44" t="s">
+      <c r="E71" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="108">
+        <v>45839</v>
+      </c>
+      <c r="H71" s="102">
+        <v>11</v>
+      </c>
+      <c r="I71" s="33">
+        <v>6857</v>
+      </c>
+      <c r="J71" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="K71" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="L71" s="26">
+      <c r="K71" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L71" s="23">
         <v>45677</v>
       </c>
-      <c r="M71" s="158"/>
-      <c r="N71" s="162"/>
-      <c r="O71" s="116"/>
-      <c r="P71" s="127"/>
-      <c r="Q71" s="127"/>
-      <c r="R71" s="126"/>
-      <c r="S71" s="164"/>
-      <c r="T71" s="163"/>
-      <c r="U71" s="132"/>
+      <c r="M71" s="154"/>
+      <c r="N71" s="158"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="123"/>
+      <c r="Q71" s="123"/>
+      <c r="R71" s="122"/>
+      <c r="S71" s="126"/>
+      <c r="T71" s="127"/>
+      <c r="U71" s="130"/>
     </row>
     <row r="72" spans="2:21" ht="15.75" customHeight="1">
       <c r="B72" s="10">
-        <v>15</v>
-      </c>
-      <c r="C72" s="25">
-        <v>7274</v>
-      </c>
-      <c r="D72" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="33">
+        <v>7298</v>
+      </c>
+      <c r="D72" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="110">
-        <v>45831</v>
-      </c>
-      <c r="H72" s="108">
-        <v>13</v>
-      </c>
-      <c r="I72" s="87">
-        <v>6932</v>
-      </c>
-      <c r="J72" s="44" t="s">
+      <c r="E72" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="108">
+        <v>45839</v>
+      </c>
+      <c r="H72" s="102">
+        <v>12</v>
+      </c>
+      <c r="I72" s="33">
+        <v>6858</v>
+      </c>
+      <c r="J72" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="K72" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="L72" s="26">
-        <v>45667</v>
-      </c>
-      <c r="M72" s="158"/>
-      <c r="N72" s="162"/>
-      <c r="O72" s="116"/>
-      <c r="P72" s="129"/>
-      <c r="Q72" s="119"/>
-      <c r="R72" s="126"/>
-      <c r="S72" s="164"/>
-      <c r="T72" s="163"/>
-      <c r="U72" s="132"/>
+      <c r="K72" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L72" s="23">
+        <v>45677</v>
+      </c>
+      <c r="M72" s="154"/>
+      <c r="N72" s="158"/>
+      <c r="O72" s="112"/>
+      <c r="P72" s="125"/>
+      <c r="Q72" s="115"/>
+      <c r="R72" s="122"/>
+      <c r="S72" s="126"/>
+      <c r="T72" s="127"/>
+      <c r="U72" s="130"/>
     </row>
     <row r="73" spans="2:21" ht="15.75" customHeight="1">
       <c r="B73" s="10">
-        <v>16</v>
-      </c>
-      <c r="C73" s="38">
-        <v>7301</v>
-      </c>
-      <c r="D73" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="33">
+        <v>7313</v>
+      </c>
+      <c r="D73" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="110">
-        <v>45839</v>
-      </c>
-      <c r="H73" s="108">
-        <v>14</v>
-      </c>
-      <c r="I73" s="25">
-        <v>6958</v>
-      </c>
-      <c r="J73" s="106" t="s">
+      <c r="E73" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="108">
+        <v>45845</v>
+      </c>
+      <c r="H73" s="102">
+        <v>13</v>
+      </c>
+      <c r="I73" s="81">
+        <v>6932</v>
+      </c>
+      <c r="J73" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="K73" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="L73" s="88">
-        <v>45705</v>
-      </c>
-      <c r="M73" s="158"/>
-      <c r="N73" s="162"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="129"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="123"/>
-      <c r="S73" s="164"/>
-      <c r="T73" s="163"/>
-      <c r="U73" s="132"/>
+      <c r="K73" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L73" s="23">
+        <v>45667</v>
+      </c>
+      <c r="M73" s="154"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="125"/>
+      <c r="Q73" s="113"/>
+      <c r="R73" s="119"/>
+      <c r="S73" s="126"/>
+      <c r="T73" s="127"/>
+      <c r="U73" s="130"/>
     </row>
     <row r="74" spans="2:21" ht="15.75" customHeight="1">
       <c r="B74" s="10">
-        <v>17</v>
-      </c>
-      <c r="C74" s="38">
-        <v>7286</v>
-      </c>
-      <c r="D74" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="180">
+        <v>7328</v>
+      </c>
+      <c r="D74" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="110">
-        <v>45839</v>
-      </c>
-      <c r="H74" s="108">
-        <v>15</v>
-      </c>
-      <c r="I74" s="56">
-        <v>6977</v>
-      </c>
-      <c r="J74" s="51" t="s">
+      <c r="E74" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="108">
+        <v>45852</v>
+      </c>
+      <c r="H74" s="102">
+        <v>14</v>
+      </c>
+      <c r="I74" s="22">
+        <v>6958</v>
+      </c>
+      <c r="J74" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="K74" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="L74" s="26">
-        <v>45712</v>
-      </c>
-      <c r="M74" s="158"/>
-      <c r="N74" s="162"/>
-      <c r="O74" s="116"/>
-      <c r="P74" s="127"/>
-      <c r="Q74" s="121"/>
-      <c r="R74" s="126"/>
-      <c r="S74" s="164"/>
-      <c r="T74" s="163"/>
-      <c r="U74" s="132"/>
+      <c r="K74" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L74" s="82">
+        <v>45705</v>
+      </c>
+      <c r="M74" s="154"/>
+      <c r="N74" s="158"/>
+      <c r="O74" s="112"/>
+      <c r="P74" s="123"/>
+      <c r="Q74" s="117"/>
+      <c r="R74" s="122"/>
+      <c r="S74" s="126"/>
+      <c r="T74" s="127"/>
+      <c r="U74" s="130"/>
     </row>
     <row r="75" spans="2:21" ht="15.75" customHeight="1">
       <c r="B75" s="10">
-        <v>18</v>
-      </c>
-      <c r="C75" s="38">
-        <v>7292</v>
-      </c>
-      <c r="D75" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="33">
+        <v>7338</v>
+      </c>
+      <c r="D75" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="E75" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="110">
-        <v>45839</v>
-      </c>
-      <c r="H75" s="108">
-        <v>16</v>
-      </c>
-      <c r="I75" s="56">
-        <v>7015</v>
-      </c>
-      <c r="J75" s="51" t="s">
+      <c r="E75" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="108">
+        <v>45859</v>
+      </c>
+      <c r="H75" s="102">
+        <v>15</v>
+      </c>
+      <c r="I75" s="52">
+        <v>6977</v>
+      </c>
+      <c r="J75" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="K75" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="L75" s="88">
-        <v>45726</v>
-      </c>
-      <c r="M75" s="158"/>
-      <c r="N75" s="162"/>
-      <c r="O75" s="116"/>
-      <c r="P75" s="127"/>
-      <c r="Q75" s="124"/>
-      <c r="R75" s="123"/>
-      <c r="S75" s="164"/>
-      <c r="T75" s="163"/>
-      <c r="U75" s="132"/>
+      <c r="K75" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="L75" s="23">
+        <v>45712</v>
+      </c>
+      <c r="M75" s="154"/>
+      <c r="N75" s="158"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="123"/>
+      <c r="Q75" s="120"/>
+      <c r="R75" s="119"/>
+      <c r="S75" s="126"/>
+      <c r="T75" s="127"/>
+      <c r="U75" s="130"/>
     </row>
     <row r="76" spans="2:21" ht="15.75" customHeight="1">
       <c r="B76" s="10">
-        <v>19</v>
-      </c>
-      <c r="C76" s="38">
-        <v>7298</v>
-      </c>
-      <c r="D76" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="33">
+        <v>7331</v>
+      </c>
+      <c r="D76" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="E76" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="110">
-        <v>45839</v>
-      </c>
-      <c r="H76" s="108">
-        <v>17</v>
-      </c>
-      <c r="I76" s="56">
-        <v>7128</v>
-      </c>
-      <c r="J76" s="51" t="s">
+      <c r="E76" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="108">
+        <v>45859</v>
+      </c>
+      <c r="H76" s="102">
+        <v>16</v>
+      </c>
+      <c r="I76" s="52">
+        <v>7015</v>
+      </c>
+      <c r="J76" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="K76" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="L76" s="88">
-        <v>45769</v>
-      </c>
-      <c r="M76" s="158"/>
-      <c r="N76" s="162"/>
-      <c r="O76" s="116"/>
-      <c r="P76" s="120"/>
-      <c r="Q76" s="121"/>
-      <c r="R76" s="126"/>
-      <c r="S76" s="164"/>
-      <c r="T76" s="163"/>
-      <c r="U76" s="132"/>
+      <c r="K76" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="L76" s="82">
+        <v>45726</v>
+      </c>
+      <c r="M76" s="154"/>
+      <c r="N76" s="158"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="117"/>
+      <c r="R76" s="122"/>
+      <c r="S76" s="126"/>
+      <c r="T76" s="127"/>
+      <c r="U76" s="130"/>
     </row>
     <row r="77" spans="2:21" ht="15.75" customHeight="1">
       <c r="B77" s="10">
-        <v>20</v>
-      </c>
-      <c r="C77" s="38">
-        <v>7313</v>
-      </c>
-      <c r="D77" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="181">
+        <v>7335</v>
+      </c>
+      <c r="D77" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="E77" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="110">
-        <v>45845</v>
-      </c>
-      <c r="G77" s="133"/>
-      <c r="H77" s="108">
-        <v>18</v>
-      </c>
-      <c r="I77" s="56">
-        <v>7130</v>
-      </c>
-      <c r="J77" s="51" t="s">
+      <c r="E77" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="183">
+        <v>45859</v>
+      </c>
+      <c r="G77" s="132"/>
+      <c r="H77" s="102">
+        <v>17</v>
+      </c>
+      <c r="I77" s="52">
+        <v>7128</v>
+      </c>
+      <c r="J77" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="K77" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L77" s="88">
+      <c r="K77" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="L77" s="82">
         <v>45769</v>
       </c>
-      <c r="M77" s="158"/>
-      <c r="N77" s="162"/>
-      <c r="O77" s="116"/>
-      <c r="P77" s="129"/>
-      <c r="Q77" s="119"/>
-      <c r="R77" s="126"/>
-      <c r="S77" s="164"/>
-      <c r="T77" s="163"/>
-      <c r="U77" s="132"/>
+      <c r="M77" s="154"/>
+      <c r="N77" s="158"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="125"/>
+      <c r="Q77" s="115"/>
+      <c r="R77" s="122"/>
+      <c r="S77" s="126"/>
+      <c r="T77" s="127"/>
+      <c r="U77" s="130"/>
     </row>
     <row r="78" spans="2:21" ht="15.75" customHeight="1">
       <c r="B78" s="10">
-        <v>21</v>
-      </c>
-      <c r="C78" s="58">
-        <v>7328</v>
-      </c>
-      <c r="D78" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="33">
+        <v>7337</v>
+      </c>
+      <c r="D78" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="E78" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="110">
-        <v>45852</v>
-      </c>
-      <c r="G78" s="133"/>
-      <c r="H78" s="108">
-        <v>19</v>
-      </c>
-      <c r="I78" s="56">
-        <v>7299</v>
-      </c>
-      <c r="J78" s="89" t="s">
+      <c r="E78" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="108">
+        <v>45859</v>
+      </c>
+      <c r="G78" s="132"/>
+      <c r="H78" s="102">
+        <v>18</v>
+      </c>
+      <c r="I78" s="52">
+        <v>7130</v>
+      </c>
+      <c r="J78" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="K78" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L78" s="88">
-        <v>45839</v>
-      </c>
-      <c r="M78" s="135"/>
+      <c r="K78" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="L78" s="82">
+        <v>45769</v>
+      </c>
+      <c r="M78" s="154"/>
       <c r="N78" s="158"/>
-      <c r="O78" s="158"/>
-      <c r="P78" s="132"/>
-      <c r="Q78" s="132"/>
-      <c r="R78" s="132"/>
-      <c r="S78" s="158"/>
-      <c r="T78" s="132"/>
+      <c r="O78" s="112"/>
+      <c r="P78" s="125"/>
+      <c r="Q78" s="115"/>
+      <c r="R78" s="122"/>
+      <c r="S78" s="126"/>
+      <c r="T78" s="127"/>
+      <c r="U78" s="130"/>
     </row>
     <row r="79" spans="2:21" ht="15.75" customHeight="1">
       <c r="B79" s="10">
-        <v>22</v>
-      </c>
-      <c r="C79" s="38">
-        <v>7338</v>
-      </c>
-      <c r="D79" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="33">
+        <v>7348</v>
+      </c>
+      <c r="D79" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="E79" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="110">
+      <c r="E79" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="108">
         <v>45859</v>
       </c>
-      <c r="G79" s="133"/>
-      <c r="H79" s="108">
-        <v>20</v>
-      </c>
-      <c r="I79" s="25">
-        <v>7345</v>
-      </c>
-      <c r="J79" s="89" t="s">
+      <c r="G79" s="132"/>
+      <c r="H79" s="102">
+        <v>19</v>
+      </c>
+      <c r="I79" s="52">
+        <v>7299</v>
+      </c>
+      <c r="J79" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="K79" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="L79" s="90">
-        <v>45859</v>
-      </c>
-      <c r="M79" s="135"/>
-      <c r="N79" s="135"/>
-      <c r="O79" s="135"/>
-      <c r="S79" s="135"/>
+      <c r="K79" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="L79" s="82">
+        <v>45839</v>
+      </c>
+      <c r="M79" s="154"/>
+      <c r="N79" s="158"/>
+      <c r="O79" s="124"/>
+      <c r="P79" s="120"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="119"/>
+      <c r="S79" s="126"/>
+      <c r="T79" s="127"/>
+      <c r="U79" s="130"/>
     </row>
     <row r="80" spans="2:21" ht="15.75" customHeight="1">
       <c r="B80" s="10">
+        <v>24</v>
+      </c>
+      <c r="C80" s="33">
+        <v>7332</v>
+      </c>
+      <c r="D80" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="108">
+        <v>45859</v>
+      </c>
+      <c r="G80" s="132"/>
+      <c r="H80" s="102">
+        <v>20</v>
+      </c>
+      <c r="I80" s="22">
+        <v>7345</v>
+      </c>
+      <c r="J80" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="K80" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="L80" s="83">
+        <v>45859</v>
+      </c>
+      <c r="M80" s="154"/>
+      <c r="N80" s="158"/>
+      <c r="O80" s="124"/>
+      <c r="P80" s="120"/>
+      <c r="Q80" s="113"/>
+      <c r="R80" s="119"/>
+      <c r="S80" s="126"/>
+      <c r="T80" s="127"/>
+      <c r="U80" s="130"/>
+    </row>
+    <row r="81" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B81" s="10">
+        <v>25</v>
+      </c>
+      <c r="C81" s="180">
+        <v>7336</v>
+      </c>
+      <c r="D81" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" s="108">
+        <v>45859</v>
+      </c>
+      <c r="G81" s="132"/>
+      <c r="H81" s="102">
+        <v>21</v>
+      </c>
+      <c r="I81" s="33">
+        <v>7412</v>
+      </c>
+      <c r="J81" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="K81" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="L81" s="85">
+        <v>45887</v>
+      </c>
+      <c r="M81" s="154"/>
+      <c r="N81" s="158"/>
+      <c r="O81" s="112"/>
+      <c r="P81" s="123"/>
+      <c r="Q81" s="123"/>
+      <c r="R81" s="122"/>
+      <c r="S81" s="126"/>
+      <c r="T81" s="127"/>
+      <c r="U81" s="130"/>
+    </row>
+    <row r="82" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B82" s="10">
+        <v>26</v>
+      </c>
+      <c r="C82" s="33">
+        <v>7373</v>
+      </c>
+      <c r="D82" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" s="108">
+        <v>45866</v>
+      </c>
+      <c r="G82" s="132"/>
+      <c r="H82" s="102">
+        <v>22</v>
+      </c>
+      <c r="I82" s="33">
+        <v>7446</v>
+      </c>
+      <c r="J82" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="K82" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="L82" s="83">
+        <v>45901</v>
+      </c>
+      <c r="M82" s="154"/>
+      <c r="N82" s="158"/>
+      <c r="O82" s="118"/>
+      <c r="P82" s="113"/>
+      <c r="Q82" s="113"/>
+      <c r="R82" s="122"/>
+      <c r="S82" s="126"/>
+      <c r="T82" s="127"/>
+      <c r="U82" s="130"/>
+    </row>
+    <row r="83" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B83" s="10">
+        <v>27</v>
+      </c>
+      <c r="C83" s="33">
+        <v>7364</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" s="108">
+        <v>45866</v>
+      </c>
+      <c r="H83" s="102">
         <v>23</v>
       </c>
-      <c r="C80" s="38">
-        <v>7331</v>
-      </c>
-      <c r="D80" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="E80" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="110">
-        <v>45859</v>
-      </c>
-      <c r="G80" s="133"/>
-      <c r="H80" s="108">
-        <v>21</v>
-      </c>
-      <c r="I80" s="38">
-        <v>7412</v>
-      </c>
-      <c r="J80" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="K80" s="89" t="s">
-        <v>156</v>
-      </c>
-      <c r="L80" s="172">
+      <c r="I83" s="33">
+        <v>7450</v>
+      </c>
+      <c r="J83" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="K83" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="L83" s="83">
+        <v>45901</v>
+      </c>
+      <c r="M83" s="133"/>
+      <c r="N83" s="154"/>
+      <c r="O83" s="154"/>
+      <c r="P83" s="130"/>
+      <c r="Q83" s="131"/>
+      <c r="R83" s="130"/>
+      <c r="S83" s="154"/>
+      <c r="T83" s="130"/>
+    </row>
+    <row r="84" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B84" s="10">
+        <v>28</v>
+      </c>
+      <c r="C84" s="33">
+        <v>7392</v>
+      </c>
+      <c r="D84" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" s="108">
+        <v>45873</v>
+      </c>
+      <c r="H84" s="184" t="s">
+        <v>194</v>
+      </c>
+      <c r="I84" s="171"/>
+      <c r="J84" s="171"/>
+      <c r="K84" s="171"/>
+      <c r="L84" s="172"/>
+      <c r="M84" s="133"/>
+      <c r="N84" s="133"/>
+      <c r="O84" s="133"/>
+      <c r="S84" s="133"/>
+    </row>
+    <row r="85" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B85" s="10">
+        <v>29</v>
+      </c>
+      <c r="C85" s="33">
+        <v>7383</v>
+      </c>
+      <c r="D85" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" s="108">
+        <v>45873</v>
+      </c>
+      <c r="H85" s="185">
+        <v>1</v>
+      </c>
+      <c r="I85" s="185">
+        <v>6968</v>
+      </c>
+      <c r="J85" s="186" t="s">
+        <v>196</v>
+      </c>
+      <c r="K85" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="L85" s="188">
+        <v>45712</v>
+      </c>
+      <c r="M85" s="133"/>
+      <c r="N85" s="133"/>
+      <c r="O85" s="133"/>
+      <c r="S85" s="133"/>
+    </row>
+    <row r="86" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B86" s="10">
+        <v>30</v>
+      </c>
+      <c r="C86" s="99">
+        <v>7409</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" s="108">
         <v>45887</v>
       </c>
-      <c r="M80" s="135"/>
-      <c r="N80" s="135"/>
-      <c r="O80" s="135"/>
-      <c r="S80" s="135"/>
-    </row>
-    <row r="81" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B81" s="10">
-        <v>24</v>
-      </c>
-      <c r="C81" s="38">
-        <v>7349</v>
-      </c>
-      <c r="D81" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" s="110">
-        <v>45859</v>
-      </c>
-      <c r="G81" s="133"/>
-      <c r="H81" s="108">
-        <v>22</v>
-      </c>
-      <c r="I81" s="38">
-        <v>7446</v>
-      </c>
-      <c r="J81" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="K81" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="L81" s="90">
+      <c r="H86" s="89">
+        <v>1</v>
+      </c>
+      <c r="I86" s="89">
+        <v>6784</v>
+      </c>
+      <c r="J86" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="K86" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="L86" s="92">
+        <v>45614</v>
+      </c>
+      <c r="M86" s="133"/>
+      <c r="N86" s="133"/>
+      <c r="O86" s="133"/>
+      <c r="S86" s="133"/>
+    </row>
+    <row r="87" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B87" s="10">
+        <v>31</v>
+      </c>
+      <c r="C87" s="99">
+        <v>7418</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" s="108">
+        <v>45887</v>
+      </c>
+      <c r="H87" s="89">
+        <v>2</v>
+      </c>
+      <c r="I87" s="89">
+        <v>7456</v>
+      </c>
+      <c r="J87" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="K87" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="L87" s="92">
         <v>45901</v>
       </c>
-      <c r="M81" s="135"/>
-      <c r="N81" s="135"/>
-      <c r="O81" s="135"/>
-      <c r="S81" s="135"/>
-    </row>
-    <row r="82" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B82" s="10">
-        <v>25</v>
-      </c>
-      <c r="C82" s="189">
-        <v>7335</v>
-      </c>
-      <c r="D82" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="E82" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" s="191">
-        <v>45859</v>
-      </c>
-      <c r="G82" s="133"/>
-      <c r="H82" s="108">
-        <v>23</v>
-      </c>
-      <c r="I82" s="38">
-        <v>7450</v>
-      </c>
-      <c r="J82" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="K82" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="L82" s="90">
+      <c r="M87" s="133"/>
+      <c r="N87" s="133"/>
+      <c r="O87" s="133"/>
+      <c r="S87" s="133"/>
+    </row>
+    <row r="88" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B88" s="10">
+        <v>32</v>
+      </c>
+      <c r="C88" s="99">
+        <v>7422</v>
+      </c>
+      <c r="D88" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="108">
+        <v>45887</v>
+      </c>
+      <c r="H88" s="89">
+        <v>3</v>
+      </c>
+      <c r="I88" s="89">
+        <v>6966</v>
+      </c>
+      <c r="J88" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="K88" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="L88" s="92">
+        <v>45712</v>
+      </c>
+      <c r="M88" s="133"/>
+      <c r="N88" s="133"/>
+      <c r="O88" s="133"/>
+      <c r="S88" s="133"/>
+    </row>
+    <row r="89" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B89" s="10">
+        <v>33</v>
+      </c>
+      <c r="C89" s="99">
+        <v>7413</v>
+      </c>
+      <c r="D89" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" s="108">
+        <v>45887</v>
+      </c>
+      <c r="H89" s="189">
+        <v>1</v>
+      </c>
+      <c r="I89" s="96">
+        <v>6059</v>
+      </c>
+      <c r="J89" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="K89" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="L89" s="98">
+        <v>44613</v>
+      </c>
+      <c r="M89" s="133"/>
+      <c r="N89" s="133"/>
+      <c r="O89" s="133"/>
+      <c r="S89" s="133"/>
+    </row>
+    <row r="90" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B90" s="10">
+        <v>34</v>
+      </c>
+      <c r="C90" s="99">
+        <v>7416</v>
+      </c>
+      <c r="D90" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" s="108">
+        <v>45887</v>
+      </c>
+      <c r="H90" s="131"/>
+      <c r="L90" s="133"/>
+      <c r="M90" s="133"/>
+      <c r="N90" s="133"/>
+      <c r="O90" s="133"/>
+      <c r="S90" s="133"/>
+    </row>
+    <row r="91" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B91" s="10">
+        <v>35</v>
+      </c>
+      <c r="C91" s="99">
+        <v>7418</v>
+      </c>
+      <c r="D91" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="108">
+        <v>45894</v>
+      </c>
+      <c r="H91" s="133"/>
+      <c r="I91" s="190"/>
+      <c r="J91" s="191" t="s">
+        <v>207</v>
+      </c>
+      <c r="K91" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="L91" s="133"/>
+      <c r="M91" s="133"/>
+      <c r="N91" s="133"/>
+      <c r="O91" s="133"/>
+      <c r="S91" s="133"/>
+    </row>
+    <row r="92" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B92" s="10">
+        <v>36</v>
+      </c>
+      <c r="C92" s="99">
+        <v>7432</v>
+      </c>
+      <c r="D92" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" s="108">
+        <v>45894</v>
+      </c>
+      <c r="H92" s="133"/>
+      <c r="I92" s="192"/>
+      <c r="J92" s="191" t="s">
+        <v>210</v>
+      </c>
+      <c r="K92" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="L92" s="133"/>
+      <c r="M92" s="133"/>
+      <c r="N92" s="133"/>
+      <c r="O92" s="133"/>
+      <c r="S92" s="133"/>
+    </row>
+    <row r="93" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B93" s="10">
+        <v>37</v>
+      </c>
+      <c r="C93" s="99">
+        <v>7435</v>
+      </c>
+      <c r="D93" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" s="108">
+        <v>45894</v>
+      </c>
+      <c r="H93" s="133"/>
+      <c r="I93" s="194"/>
+      <c r="J93" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="K93" s="195" t="s">
+        <v>214</v>
+      </c>
+      <c r="L93" s="133"/>
+      <c r="M93" s="133"/>
+      <c r="N93" s="133"/>
+      <c r="O93" s="133"/>
+      <c r="S93" s="133"/>
+    </row>
+    <row r="94" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B94" s="10">
+        <v>38</v>
+      </c>
+      <c r="C94" s="99">
+        <v>7434</v>
+      </c>
+      <c r="D94" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="108">
+        <v>45894</v>
+      </c>
+      <c r="H94" s="133"/>
+      <c r="I94" s="196"/>
+      <c r="J94" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L94" s="133"/>
+      <c r="M94" s="133"/>
+      <c r="N94" s="133"/>
+      <c r="O94" s="133"/>
+      <c r="S94" s="133"/>
+    </row>
+    <row r="95" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B95" s="10">
+        <v>39</v>
+      </c>
+      <c r="C95" s="33">
+        <v>7460</v>
+      </c>
+      <c r="D95" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" s="108">
         <v>45901</v>
       </c>
-      <c r="M82" s="135"/>
-      <c r="N82" s="135"/>
-      <c r="O82" s="135"/>
-      <c r="S82" s="135"/>
-    </row>
-    <row r="83" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B83" s="10">
-        <v>26</v>
-      </c>
-      <c r="C83" s="38">
-        <v>7337</v>
-      </c>
-      <c r="D83" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F83" s="110">
-        <v>45859</v>
-      </c>
-      <c r="H83" s="192" t="s">
-        <v>192</v>
-      </c>
-      <c r="I83" s="180"/>
-      <c r="J83" s="180"/>
-      <c r="K83" s="180"/>
-      <c r="L83" s="181"/>
-      <c r="M83" s="135"/>
-      <c r="N83" s="135"/>
-      <c r="O83" s="135"/>
-      <c r="Q83" s="93"/>
-      <c r="S83" s="135"/>
-    </row>
-    <row r="84" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B84" s="10">
-        <v>27</v>
-      </c>
-      <c r="C84" s="38">
-        <v>7348</v>
-      </c>
-      <c r="D84" s="101" t="s">
-        <v>193</v>
-      </c>
-      <c r="E84" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F84" s="110">
-        <v>45859</v>
-      </c>
-      <c r="H84" s="109">
-        <v>1</v>
-      </c>
-      <c r="I84" s="109">
-        <v>6968</v>
-      </c>
-      <c r="J84" s="193" t="s">
-        <v>194</v>
-      </c>
-      <c r="K84" s="194" t="s">
-        <v>195</v>
-      </c>
-      <c r="L84" s="195">
-        <v>45712</v>
-      </c>
-      <c r="M84" s="135"/>
-      <c r="N84" s="135"/>
-      <c r="O84" s="135"/>
-      <c r="S84" s="135"/>
-    </row>
-    <row r="85" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B85" s="10">
-        <v>28</v>
-      </c>
-      <c r="C85" s="38">
-        <v>7332</v>
-      </c>
-      <c r="D85" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="E85" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="110">
-        <v>45859</v>
-      </c>
-      <c r="H85" s="94">
-        <v>1</v>
-      </c>
-      <c r="I85" s="94">
-        <v>6784</v>
-      </c>
-      <c r="J85" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="K85" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="L85" s="97">
-        <v>45614</v>
-      </c>
-      <c r="M85" s="135"/>
-      <c r="N85" s="135"/>
-      <c r="O85" s="135"/>
-      <c r="S85" s="135"/>
-    </row>
-    <row r="86" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B86" s="10">
-        <v>29</v>
-      </c>
-      <c r="C86" s="38">
-        <v>7346</v>
-      </c>
-      <c r="D86" s="106" t="s">
-        <v>198</v>
-      </c>
-      <c r="E86" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F86" s="110">
-        <v>45859</v>
-      </c>
-      <c r="H86" s="94">
-        <v>2</v>
-      </c>
-      <c r="I86" s="94">
-        <v>7456</v>
-      </c>
-      <c r="J86" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="K86" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="L86" s="97">
+      <c r="H95" s="133"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="191" t="s">
+        <v>219</v>
+      </c>
+      <c r="K95" s="133"/>
+      <c r="L95" s="133"/>
+      <c r="M95" s="133"/>
+      <c r="N95" s="133"/>
+      <c r="O95" s="133"/>
+      <c r="S95" s="133"/>
+    </row>
+    <row r="96" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B96" s="10">
+        <v>40</v>
+      </c>
+      <c r="C96" s="33">
+        <v>7444</v>
+      </c>
+      <c r="D96" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="108">
         <v>45901</v>
       </c>
-      <c r="M86" s="135"/>
-      <c r="N86" s="135"/>
-      <c r="O86" s="135"/>
-      <c r="S86" s="135"/>
-    </row>
-    <row r="87" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B87" s="10">
-        <v>30</v>
-      </c>
-      <c r="C87" s="58">
-        <v>7336</v>
-      </c>
-      <c r="D87" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="E87" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F87" s="110">
-        <v>45859</v>
-      </c>
-      <c r="H87" s="94">
-        <v>3</v>
-      </c>
-      <c r="I87" s="94">
-        <v>6966</v>
-      </c>
-      <c r="J87" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="K87" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="L87" s="97">
-        <v>45712</v>
-      </c>
-      <c r="M87" s="135"/>
-      <c r="N87" s="135"/>
-      <c r="O87" s="135"/>
-      <c r="S87" s="135"/>
-    </row>
-    <row r="88" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B88" s="10">
-        <v>31</v>
-      </c>
-      <c r="C88" s="38">
-        <v>7373</v>
-      </c>
-      <c r="D88" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="E88" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="110">
-        <v>45866</v>
-      </c>
-      <c r="H88" s="196">
-        <v>1</v>
-      </c>
-      <c r="I88" s="102">
-        <v>6059</v>
-      </c>
-      <c r="J88" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="K88" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="L88" s="104">
-        <v>44613</v>
-      </c>
-      <c r="M88" s="135"/>
-      <c r="N88" s="135"/>
-      <c r="O88" s="135"/>
-      <c r="S88" s="135"/>
-    </row>
-    <row r="89" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B89" s="10">
-        <v>32</v>
-      </c>
-      <c r="C89" s="38">
-        <v>7364</v>
-      </c>
-      <c r="D89" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="E89" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="110">
-        <v>45866</v>
-      </c>
-      <c r="H89" s="134"/>
-      <c r="L89" s="135"/>
-      <c r="M89" s="135"/>
-      <c r="N89" s="135"/>
-      <c r="O89" s="135"/>
-      <c r="S89" s="135"/>
-    </row>
-    <row r="90" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B90" s="10">
-        <v>33</v>
-      </c>
-      <c r="C90" s="38">
-        <v>7392</v>
-      </c>
-      <c r="D90" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="E90" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F90" s="110">
-        <v>45873</v>
-      </c>
-      <c r="H90" s="135"/>
-      <c r="I90" s="197"/>
-      <c r="J90" s="198" t="s">
-        <v>206</v>
-      </c>
-      <c r="K90" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="L90" s="135"/>
-      <c r="M90" s="135"/>
-      <c r="N90" s="135"/>
-      <c r="O90" s="135"/>
-      <c r="S90" s="135"/>
-    </row>
-    <row r="91" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B91" s="10">
-        <v>34</v>
-      </c>
-      <c r="C91" s="38">
-        <v>7383</v>
-      </c>
-      <c r="D91" s="106" t="s">
-        <v>208</v>
-      </c>
-      <c r="E91" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F91" s="110">
-        <v>45873</v>
-      </c>
-      <c r="H91" s="135"/>
-      <c r="I91" s="199"/>
-      <c r="J91" s="198" t="s">
-        <v>209</v>
-      </c>
-      <c r="K91" s="200" t="s">
-        <v>210</v>
-      </c>
-      <c r="L91" s="135"/>
-      <c r="M91" s="135"/>
-      <c r="N91" s="135"/>
-      <c r="O91" s="135"/>
-      <c r="S91" s="135"/>
-    </row>
-    <row r="92" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B92" s="10">
-        <v>35</v>
-      </c>
-      <c r="C92" s="107">
-        <v>7409</v>
-      </c>
-      <c r="D92" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="110">
-        <v>45887</v>
-      </c>
-      <c r="H92" s="135"/>
-      <c r="I92" s="201"/>
-      <c r="J92" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="K92" s="202" t="s">
-        <v>213</v>
-      </c>
-      <c r="L92" s="135"/>
-      <c r="M92" s="135"/>
-      <c r="N92" s="135"/>
-      <c r="O92" s="135"/>
-      <c r="S92" s="135"/>
-    </row>
-    <row r="93" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B93" s="10">
-        <v>36</v>
-      </c>
-      <c r="C93" s="107">
-        <v>7418</v>
-      </c>
-      <c r="D93" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="E93" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F93" s="110">
-        <v>45887</v>
-      </c>
-      <c r="H93" s="135"/>
-      <c r="I93" s="203"/>
-      <c r="J93" s="198" t="s">
-        <v>215</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L93" s="135"/>
-      <c r="M93" s="135"/>
-      <c r="N93" s="135"/>
-      <c r="O93" s="135"/>
-      <c r="S93" s="135"/>
-    </row>
-    <row r="94" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B94" s="10">
-        <v>37</v>
-      </c>
-      <c r="C94" s="107">
-        <v>7422</v>
-      </c>
-      <c r="D94" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="E94" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F94" s="110">
-        <v>45887</v>
-      </c>
-      <c r="H94" s="135"/>
-      <c r="I94" s="204"/>
-      <c r="J94" s="198" t="s">
-        <v>218</v>
-      </c>
-      <c r="K94" s="135"/>
-      <c r="L94" s="135"/>
-      <c r="M94" s="135"/>
-      <c r="N94" s="135"/>
-      <c r="O94" s="135"/>
-      <c r="S94" s="135"/>
-    </row>
-    <row r="95" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B95" s="10">
-        <v>38</v>
-      </c>
-      <c r="C95" s="107">
-        <v>7413</v>
-      </c>
-      <c r="D95" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="E95" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="110">
-        <v>45887</v>
-      </c>
-      <c r="H95" s="135"/>
-      <c r="I95" s="205"/>
-      <c r="J95" s="206" t="s">
-        <v>220</v>
-      </c>
-      <c r="K95" s="135"/>
-      <c r="L95" s="135"/>
-      <c r="M95" s="135"/>
-      <c r="N95" s="135"/>
-      <c r="O95" s="135"/>
-      <c r="S95" s="135"/>
-    </row>
-    <row r="96" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B96" s="10">
-        <v>39</v>
-      </c>
-      <c r="C96" s="107">
-        <v>7416</v>
-      </c>
-      <c r="D96" s="91" t="s">
+      <c r="H96" s="133"/>
+      <c r="I96" s="198"/>
+      <c r="J96" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="E96" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="110">
-        <v>45887</v>
-      </c>
-      <c r="H96" s="135"/>
-      <c r="K96" s="135"/>
-      <c r="L96" s="135"/>
-      <c r="M96" s="135"/>
-      <c r="N96" s="135"/>
-      <c r="O96" s="135"/>
-      <c r="S96" s="135"/>
+      <c r="K96" s="133"/>
+      <c r="L96" s="133"/>
+      <c r="M96" s="133"/>
+      <c r="N96" s="133"/>
+      <c r="O96" s="133"/>
+      <c r="S96" s="133"/>
     </row>
     <row r="97" spans="2:19" ht="15.75" customHeight="1">
       <c r="B97" s="10">
-        <v>40</v>
-      </c>
-      <c r="C97" s="107">
-        <v>7418</v>
-      </c>
-      <c r="D97" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F97" s="110">
-        <v>45894</v>
-      </c>
-      <c r="H97" s="135"/>
-      <c r="I97" s="135"/>
-      <c r="J97" s="135"/>
-      <c r="K97" s="135"/>
-      <c r="L97" s="135"/>
-      <c r="M97" s="135"/>
-      <c r="N97" s="135"/>
-      <c r="O97" s="135"/>
-      <c r="S97" s="135"/>
+        <v>41</v>
+      </c>
+      <c r="C97" s="35">
+        <v>7438</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F97" s="173">
+        <v>45901</v>
+      </c>
+      <c r="H97" s="133"/>
+      <c r="K97" s="133"/>
+      <c r="L97" s="133"/>
+      <c r="M97" s="133"/>
+      <c r="N97" s="133"/>
+      <c r="O97" s="133"/>
+      <c r="S97" s="133"/>
     </row>
     <row r="98" spans="2:19" ht="15.75" customHeight="1">
       <c r="B98" s="10">
-        <v>41</v>
-      </c>
-      <c r="C98" s="107">
-        <v>7432</v>
-      </c>
-      <c r="D98" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="E98" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="110">
-        <v>45894</v>
-      </c>
-      <c r="H98" s="207" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="35">
+        <v>7452</v>
+      </c>
+      <c r="D98" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="I98" s="180"/>
-      <c r="J98" s="180"/>
-      <c r="K98" s="180"/>
-      <c r="L98" s="181"/>
-      <c r="M98" s="135"/>
-      <c r="N98" s="135"/>
-      <c r="O98" s="135"/>
-      <c r="S98" s="135"/>
+      <c r="E98" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" s="173">
+        <v>45901</v>
+      </c>
+      <c r="H98" s="133"/>
+      <c r="I98" s="133"/>
+      <c r="J98" s="133"/>
+      <c r="K98" s="133"/>
+      <c r="L98" s="133"/>
+      <c r="M98" s="133"/>
+      <c r="N98" s="133"/>
+      <c r="O98" s="133"/>
+      <c r="S98" s="133"/>
     </row>
     <row r="99" spans="2:19" ht="15.75" customHeight="1">
       <c r="B99" s="10">
-        <v>42</v>
-      </c>
-      <c r="C99" s="107">
-        <v>7435</v>
-      </c>
-      <c r="D99" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="33">
+        <v>7458</v>
+      </c>
+      <c r="D99" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="E99" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F99" s="110">
-        <v>45894</v>
-      </c>
-      <c r="H99" s="108">
-        <v>1</v>
-      </c>
-      <c r="I99" s="38">
-        <v>7180</v>
-      </c>
-      <c r="J99" s="106" t="s">
+      <c r="E99" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" s="108">
+        <v>45901</v>
+      </c>
+      <c r="H99" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="K99" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L99" s="90">
-        <v>45789</v>
-      </c>
-      <c r="M99" s="135"/>
-      <c r="N99" s="135"/>
-      <c r="O99" s="135"/>
-      <c r="S99" s="135"/>
+      <c r="I99" s="171"/>
+      <c r="J99" s="171"/>
+      <c r="K99" s="171"/>
+      <c r="L99" s="172"/>
+      <c r="M99" s="133"/>
+      <c r="N99" s="133"/>
+      <c r="O99" s="133"/>
+      <c r="S99" s="133"/>
     </row>
     <row r="100" spans="2:19" ht="15.75" customHeight="1">
       <c r="B100" s="10">
-        <v>43</v>
-      </c>
-      <c r="C100" s="107">
-        <v>7434</v>
-      </c>
-      <c r="D100" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="33">
+        <v>7451</v>
+      </c>
+      <c r="D100" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="E100" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F100" s="110">
-        <v>45894</v>
-      </c>
-      <c r="H100" s="108">
-        <v>2</v>
-      </c>
-      <c r="I100" s="38">
-        <v>7170</v>
-      </c>
-      <c r="J100" s="44" t="s">
+      <c r="E100" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" s="108">
+        <v>45901</v>
+      </c>
+      <c r="H100" s="102">
+        <v>1</v>
+      </c>
+      <c r="I100" s="33">
+        <v>7180</v>
+      </c>
+      <c r="J100" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="K100" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L100" s="90">
-        <v>45782</v>
-      </c>
-      <c r="M100" s="135"/>
-      <c r="N100" s="135"/>
-      <c r="O100" s="135"/>
-      <c r="S100" s="135"/>
+      <c r="K100" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L100" s="83">
+        <v>45789</v>
+      </c>
+      <c r="M100" s="133"/>
+      <c r="N100" s="133"/>
+      <c r="O100" s="133"/>
+      <c r="S100" s="133"/>
     </row>
     <row r="101" spans="2:19" ht="15.75" customHeight="1">
       <c r="B101" s="10">
-        <v>44</v>
-      </c>
-      <c r="C101" s="38">
-        <v>7460</v>
-      </c>
-      <c r="D101" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="103">
+        <v>7445</v>
+      </c>
+      <c r="D101" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="E101" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F101" s="110">
+      <c r="E101" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" s="200">
         <v>45901</v>
       </c>
-      <c r="H101" s="108">
-        <v>3</v>
-      </c>
-      <c r="I101" s="38">
-        <v>7176</v>
-      </c>
-      <c r="J101" s="106" t="s">
+      <c r="H101" s="102">
+        <v>2</v>
+      </c>
+      <c r="I101" s="33">
+        <v>7170</v>
+      </c>
+      <c r="J101" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="K101" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L101" s="90">
-        <v>45789</v>
-      </c>
-      <c r="M101" s="135"/>
-      <c r="N101" s="135"/>
-      <c r="O101" s="135"/>
-      <c r="S101" s="135"/>
+      <c r="K101" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L101" s="83">
+        <v>45782</v>
+      </c>
+      <c r="M101" s="133"/>
+      <c r="N101" s="133"/>
+      <c r="O101" s="133"/>
+      <c r="S101" s="133"/>
     </row>
     <row r="102" spans="2:19" ht="15.75" customHeight="1">
       <c r="B102" s="10">
-        <v>45</v>
-      </c>
-      <c r="C102" s="109">
-        <v>7444</v>
-      </c>
-      <c r="D102" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="180">
+        <v>7476</v>
+      </c>
+      <c r="D102" s="201" t="s">
         <v>230</v>
       </c>
-      <c r="E102" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="F102" s="208">
-        <v>45901</v>
-      </c>
-      <c r="H102" s="108">
-        <v>4</v>
-      </c>
-      <c r="I102" s="38">
-        <v>7175</v>
-      </c>
-      <c r="J102" s="106" t="s">
+      <c r="E102" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="202">
+        <v>45915</v>
+      </c>
+      <c r="H102" s="102">
+        <v>3</v>
+      </c>
+      <c r="I102" s="33">
+        <v>7176</v>
+      </c>
+      <c r="J102" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="K102" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L102" s="90">
+      <c r="K102" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L102" s="83">
         <v>45789</v>
       </c>
-      <c r="M102" s="135"/>
-      <c r="N102" s="135"/>
-      <c r="O102" s="135"/>
-      <c r="S102" s="135"/>
+      <c r="M102" s="133"/>
+      <c r="N102" s="133"/>
+      <c r="O102" s="133"/>
+      <c r="S102" s="133"/>
     </row>
     <row r="103" spans="2:19" ht="15.75" customHeight="1">
       <c r="B103" s="10">
-        <v>46</v>
-      </c>
-      <c r="C103" s="40">
-        <v>7438</v>
-      </c>
-      <c r="D103" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="203">
+        <v>7486</v>
+      </c>
+      <c r="D103" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="E103" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" s="187">
-        <v>45901</v>
-      </c>
-      <c r="H103" s="108">
+      <c r="E103" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" s="205">
+        <v>45915</v>
+      </c>
+      <c r="H103" s="102">
+        <v>4</v>
+      </c>
+      <c r="I103" s="33">
+        <v>7175</v>
+      </c>
+      <c r="J103" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="K103" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L103" s="83">
+        <v>45789</v>
+      </c>
+      <c r="M103" s="133"/>
+      <c r="N103" s="133"/>
+      <c r="O103" s="133"/>
+      <c r="S103" s="133"/>
+    </row>
+    <row r="104" spans="2:19" ht="15.75" customHeight="1">
+      <c r="B104" s="1"/>
+      <c r="C104" s="132"/>
+      <c r="E104" s="132"/>
+      <c r="F104" s="132"/>
+      <c r="H104" s="102">
         <v>5</v>
       </c>
-      <c r="I103" s="25">
+      <c r="I104" s="22">
         <v>7019</v>
       </c>
-      <c r="J103" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="K103" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="L103" s="77">
+      <c r="J104" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="K104" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="L104" s="68">
         <v>45733</v>
       </c>
-      <c r="M103" s="135"/>
-      <c r="N103" s="135"/>
-      <c r="O103" s="135"/>
-      <c r="S103" s="135"/>
-    </row>
-    <row r="104" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B104" s="10">
-        <v>47</v>
-      </c>
-      <c r="C104" s="40">
-        <v>7452</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" s="187">
-        <v>45901</v>
-      </c>
-      <c r="H104" s="1"/>
-      <c r="L104" s="135"/>
-      <c r="M104" s="135"/>
-      <c r="N104" s="135"/>
-      <c r="O104" s="135"/>
-      <c r="S104" s="135"/>
+      <c r="M104" s="133"/>
+      <c r="N104" s="133"/>
+      <c r="O104" s="133"/>
+      <c r="S104" s="133"/>
     </row>
     <row r="105" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B105" s="10">
-        <v>48</v>
-      </c>
-      <c r="C105" s="38">
-        <v>7458</v>
-      </c>
-      <c r="D105" s="106" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="132"/>
+      <c r="E105" s="132"/>
+      <c r="F105" s="132"/>
+      <c r="H105" s="1"/>
+      <c r="L105" s="133"/>
+      <c r="M105" s="133"/>
+      <c r="N105" s="133"/>
+      <c r="O105" s="133"/>
+      <c r="S105" s="133"/>
+    </row>
+    <row r="106" spans="2:19" ht="15.75" customHeight="1">
+      <c r="B106" s="1"/>
+      <c r="C106" s="132"/>
+      <c r="E106" s="132"/>
+      <c r="F106" s="132"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="22">
+        <v>7271</v>
+      </c>
+      <c r="J106" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F105" s="110">
-        <v>45901</v>
-      </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="25">
-        <v>7271</v>
-      </c>
-      <c r="J105" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="K105" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="L105" s="110">
+      <c r="K106" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="L106" s="108">
         <v>45824</v>
       </c>
-      <c r="M105" s="135"/>
-      <c r="N105" s="135"/>
-      <c r="O105" s="135"/>
-      <c r="S105" s="135"/>
-    </row>
-    <row r="106" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B106" s="10">
-        <v>49</v>
-      </c>
-      <c r="C106" s="38">
-        <v>7451</v>
-      </c>
-      <c r="D106" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F106" s="110">
-        <v>45901</v>
-      </c>
-      <c r="H106" s="134"/>
-      <c r="L106" s="135"/>
-      <c r="M106" s="135"/>
-      <c r="N106" s="135"/>
-      <c r="O106" s="135"/>
-      <c r="S106" s="135"/>
+      <c r="M106" s="133"/>
+      <c r="N106" s="133"/>
+      <c r="O106" s="133"/>
+      <c r="S106" s="133"/>
     </row>
     <row r="107" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B107" s="10">
-        <v>50</v>
-      </c>
-      <c r="C107" s="38">
-        <v>7435</v>
-      </c>
-      <c r="D107" s="106" t="s">
-        <v>224</v>
-      </c>
-      <c r="E107" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F107" s="110">
-        <v>45901</v>
-      </c>
-      <c r="H107" s="134"/>
-      <c r="L107" s="135"/>
-      <c r="M107" s="135"/>
-      <c r="N107" s="135"/>
-      <c r="O107" s="135"/>
-      <c r="S107" s="135"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="132"/>
+      <c r="E107" s="132"/>
+      <c r="F107" s="132"/>
+      <c r="H107" s="131"/>
+      <c r="L107" s="133"/>
+      <c r="M107" s="133"/>
+      <c r="N107" s="133"/>
+      <c r="O107" s="133"/>
+      <c r="S107" s="133"/>
     </row>
     <row r="108" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B108" s="14">
-        <v>51</v>
-      </c>
-      <c r="C108" s="15">
-        <v>7445</v>
-      </c>
-      <c r="D108" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" s="112" t="s">
-        <v>107</v>
-      </c>
-      <c r="F108" s="209">
-        <v>45901</v>
-      </c>
-      <c r="H108" s="134"/>
-      <c r="L108" s="135"/>
-      <c r="M108" s="135"/>
-      <c r="N108" s="135"/>
-      <c r="O108" s="135"/>
-      <c r="S108" s="135"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="132"/>
+      <c r="E108" s="132"/>
+      <c r="F108" s="132"/>
+      <c r="H108" s="131"/>
+      <c r="L108" s="133"/>
+      <c r="M108" s="133"/>
+      <c r="N108" s="133"/>
+      <c r="O108" s="133"/>
+      <c r="S108" s="133"/>
     </row>
     <row r="109" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B109" s="133"/>
-      <c r="H109" s="134"/>
-      <c r="L109" s="135"/>
-      <c r="M109" s="135"/>
-      <c r="N109" s="135"/>
-      <c r="O109" s="135"/>
-      <c r="S109" s="135"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="132"/>
+      <c r="E109" s="132"/>
+      <c r="F109" s="132"/>
+      <c r="H109" s="131"/>
+      <c r="L109" s="133"/>
+      <c r="M109" s="133"/>
+      <c r="N109" s="133"/>
+      <c r="O109" s="133"/>
+      <c r="S109" s="133"/>
     </row>
     <row r="110" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B110" s="133"/>
-      <c r="H110" s="134"/>
-      <c r="L110" s="135"/>
-      <c r="M110" s="135"/>
-      <c r="N110" s="135"/>
-      <c r="O110" s="135"/>
-      <c r="S110" s="135"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="132"/>
+      <c r="E110" s="132"/>
+      <c r="F110" s="132"/>
+      <c r="H110" s="131"/>
+      <c r="L110" s="133"/>
+      <c r="M110" s="133"/>
+      <c r="N110" s="133"/>
+      <c r="O110" s="133"/>
+      <c r="S110" s="133"/>
     </row>
     <row r="111" spans="2:19" ht="15.75" customHeight="1">
       <c r="B111" s="1"/>
-      <c r="C111" s="133"/>
-      <c r="E111" s="133"/>
-      <c r="F111" s="133"/>
-      <c r="H111" s="134"/>
-      <c r="L111" s="135"/>
-      <c r="M111" s="135"/>
-      <c r="N111" s="135"/>
-      <c r="O111" s="135"/>
-      <c r="S111" s="135"/>
+      <c r="C111" s="132"/>
+      <c r="E111" s="132"/>
+      <c r="F111" s="132"/>
+      <c r="H111" s="131"/>
+      <c r="L111" s="133"/>
+      <c r="M111" s="133"/>
+      <c r="N111" s="133"/>
+      <c r="O111" s="133"/>
+      <c r="S111" s="133"/>
     </row>
     <row r="112" spans="2:19" ht="15.75" customHeight="1">
       <c r="B112" s="1"/>
-      <c r="C112" s="133"/>
-      <c r="E112" s="133"/>
-      <c r="F112" s="133"/>
-      <c r="H112" s="134"/>
-      <c r="L112" s="135"/>
-      <c r="M112" s="135"/>
-      <c r="N112" s="135"/>
-      <c r="O112" s="135"/>
-      <c r="S112" s="135"/>
+      <c r="C112" s="132"/>
+      <c r="E112" s="132"/>
+      <c r="F112" s="132"/>
+      <c r="H112" s="131"/>
+      <c r="L112" s="133"/>
+      <c r="M112" s="133"/>
+      <c r="N112" s="133"/>
+      <c r="O112" s="133"/>
+      <c r="S112" s="133"/>
     </row>
     <row r="113" spans="2:19" ht="15.75" customHeight="1">
       <c r="B113" s="1"/>
-      <c r="C113" s="133"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="133"/>
-      <c r="H113" s="134"/>
-      <c r="L113" s="135"/>
-      <c r="M113" s="135"/>
-      <c r="N113" s="135"/>
-      <c r="O113" s="135"/>
-      <c r="S113" s="135"/>
+      <c r="C113" s="132"/>
+      <c r="E113" s="132"/>
+      <c r="F113" s="132"/>
+      <c r="H113" s="131"/>
+      <c r="L113" s="133"/>
+      <c r="M113" s="133"/>
+      <c r="N113" s="133"/>
+      <c r="O113" s="133"/>
+      <c r="S113" s="133"/>
     </row>
     <row r="114" spans="2:19" ht="15.75" customHeight="1">
       <c r="B114" s="1"/>
-      <c r="C114" s="133"/>
-      <c r="E114" s="133"/>
-      <c r="F114" s="133"/>
-      <c r="H114" s="134"/>
-      <c r="L114" s="135"/>
-      <c r="M114" s="135"/>
-      <c r="N114" s="135"/>
-      <c r="O114" s="135"/>
-      <c r="S114" s="135"/>
+      <c r="C114" s="132"/>
+      <c r="E114" s="132"/>
+      <c r="F114" s="132"/>
+      <c r="H114" s="131"/>
+      <c r="L114" s="133"/>
+      <c r="M114" s="133"/>
+      <c r="N114" s="133"/>
+      <c r="O114" s="133"/>
+      <c r="S114" s="133"/>
     </row>
     <row r="115" spans="2:19" ht="15.75" customHeight="1">
       <c r="B115" s="1"/>
-      <c r="C115" s="133"/>
-      <c r="E115" s="133"/>
-      <c r="F115" s="133"/>
-      <c r="H115" s="134"/>
-      <c r="L115" s="135"/>
-      <c r="M115" s="135"/>
-      <c r="N115" s="135"/>
-      <c r="O115" s="135"/>
-      <c r="S115" s="135"/>
+      <c r="C115" s="132"/>
+      <c r="E115" s="132"/>
+      <c r="F115" s="132"/>
+      <c r="H115" s="131"/>
+      <c r="L115" s="133"/>
+      <c r="M115" s="133"/>
+      <c r="N115" s="133"/>
+      <c r="O115" s="133"/>
+      <c r="S115" s="133"/>
     </row>
     <row r="116" spans="2:19" ht="15.75" customHeight="1">
       <c r="B116" s="1"/>
-      <c r="C116" s="133"/>
-      <c r="E116" s="133"/>
-      <c r="F116" s="133"/>
-      <c r="H116" s="134"/>
-      <c r="L116" s="135"/>
-      <c r="M116" s="135"/>
-      <c r="N116" s="135"/>
-      <c r="O116" s="135"/>
-      <c r="S116" s="135"/>
+      <c r="C116" s="132"/>
+      <c r="E116" s="132"/>
+      <c r="F116" s="132"/>
+      <c r="H116" s="131"/>
+      <c r="L116" s="133"/>
+      <c r="M116" s="133"/>
+      <c r="N116" s="133"/>
+      <c r="O116" s="133"/>
+      <c r="S116" s="133"/>
     </row>
     <row r="117" spans="2:19" ht="15.75" customHeight="1">
       <c r="B117" s="1"/>
-      <c r="C117" s="133"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="133"/>
-      <c r="H117" s="134"/>
-      <c r="L117" s="135"/>
-      <c r="M117" s="135"/>
-      <c r="N117" s="135"/>
-      <c r="O117" s="135"/>
-      <c r="S117" s="135"/>
+      <c r="C117" s="132"/>
+      <c r="E117" s="132"/>
+      <c r="F117" s="132"/>
+      <c r="H117" s="131"/>
+      <c r="L117" s="133"/>
+      <c r="M117" s="133"/>
+      <c r="N117" s="133"/>
+      <c r="O117" s="133"/>
+      <c r="S117" s="133"/>
     </row>
     <row r="118" spans="2:19" ht="15.75" customHeight="1">
       <c r="B118" s="1"/>
-      <c r="C118" s="133"/>
-      <c r="E118" s="133"/>
-      <c r="F118" s="133"/>
-      <c r="H118" s="134"/>
-      <c r="L118" s="135"/>
-      <c r="M118" s="135"/>
-      <c r="N118" s="135"/>
-      <c r="O118" s="135"/>
-      <c r="S118" s="135"/>
+      <c r="C118" s="132"/>
+      <c r="E118" s="132"/>
+      <c r="F118" s="132"/>
+      <c r="H118" s="131"/>
+      <c r="L118" s="133"/>
+      <c r="M118" s="133"/>
+      <c r="N118" s="133"/>
+      <c r="O118" s="133"/>
+      <c r="S118" s="133"/>
     </row>
     <row r="119" spans="2:19" ht="15.75" customHeight="1">
       <c r="B119" s="1"/>
-      <c r="C119" s="133"/>
-      <c r="E119" s="133"/>
-      <c r="F119" s="133"/>
-      <c r="H119" s="134"/>
-      <c r="L119" s="135"/>
-      <c r="M119" s="135"/>
-      <c r="N119" s="135"/>
-      <c r="O119" s="135"/>
-      <c r="S119" s="135"/>
+      <c r="C119" s="132"/>
+      <c r="E119" s="132"/>
+      <c r="F119" s="132"/>
+      <c r="H119" s="131"/>
+      <c r="L119" s="133"/>
+      <c r="M119" s="133"/>
+      <c r="N119" s="133"/>
+      <c r="O119" s="133"/>
+      <c r="S119" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H98:L98"/>
+    <mergeCell ref="H99:L99"/>
     <mergeCell ref="O35:R35"/>
-    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="H84:L84"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H58:L58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/efetivo/dados_efetivo/efetivo.xlsx
+++ b/efetivo/dados_efetivo/efetivo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDB0DC8-2C14-4A54-BB2D-67107EE4EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91904798-4200-4EBE-82CC-4ED57892B8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="235">
   <si>
     <t>EQUIPE DE ESTRUTURA - (Setembro)</t>
   </si>
@@ -426,234 +426,231 @@
     <t>Jose Carlos de Souza Gomes Filho</t>
   </si>
   <si>
-    <t>Hermogenes Luiz dos Santos</t>
+    <t>Luan Henrique Cadernal Pacheco</t>
   </si>
   <si>
     <t>Jose Rogerio dos Santos</t>
   </si>
   <si>
-    <t>Luan Henrique Cadernal Pacheco</t>
+    <t>Gilberson da Costa Conceiçao</t>
   </si>
   <si>
     <t>Carlos Magno Alves Fonseca</t>
   </si>
   <si>
-    <t>Gilberson da Costa Conceiçao</t>
+    <t>ANDAIME</t>
   </si>
   <si>
     <t>Samuel Vitor Pacifico</t>
   </si>
   <si>
-    <t>ANDAIME</t>
+    <t>Elton Raimundo Ferreira de Santana</t>
+  </si>
+  <si>
+    <t>Encarregado de Andaime III</t>
   </si>
   <si>
     <t>Matheus Henrique Lopes</t>
   </si>
   <si>
-    <t>Elton Raimundo Ferreira de Santana</t>
-  </si>
-  <si>
-    <t>Encarregado de Andaime III</t>
+    <t>Jadson Andrade de Souza</t>
+  </si>
+  <si>
+    <t>Encarregado de Andaime I</t>
   </si>
   <si>
     <t>Dayvson Andre Pereira da Silva</t>
   </si>
   <si>
-    <t>Jadson Andrade de Souza</t>
-  </si>
-  <si>
-    <t>Encarregado de Andaime I</t>
+    <t>Eronides Fernandes Pereira</t>
+  </si>
+  <si>
+    <t>Montador de Andaime IV</t>
   </si>
   <si>
     <t>David Henrique da Luz Lopes</t>
   </si>
   <si>
-    <t>Eronides Fernandes Pereira</t>
-  </si>
-  <si>
-    <t>Montador de Andaime IV</t>
+    <t>Dilso Onei Cachoeira</t>
   </si>
   <si>
     <t>Anderson Matheus Cruz de Oliveira</t>
   </si>
   <si>
-    <t>Dilso Onei Cachoeira</t>
+    <t>Wanderson Bravo Xavier</t>
+  </si>
+  <si>
+    <t>Montador de Andaime III</t>
   </si>
   <si>
     <t>Thales de Moura Soares</t>
   </si>
   <si>
-    <t>Wanderson Bravo Xavier</t>
-  </si>
-  <si>
-    <t>Montador de Andaime III</t>
+    <t>Mateus dos Santos Andrade</t>
+  </si>
+  <si>
+    <t>Montador de Andaime II</t>
   </si>
   <si>
     <t>Marcos Vincius Barros Silva</t>
   </si>
   <si>
-    <t>Mateus dos Santos Andrade</t>
-  </si>
-  <si>
-    <t>Montador de Andaime II</t>
+    <t>João Felipe Sena dos Santos</t>
   </si>
   <si>
     <t>Saulo Rocha Rodrigues Machado</t>
   </si>
   <si>
-    <t>João Felipe Sena dos Santos</t>
+    <t>Augusto Carlos da Silva Junior</t>
+  </si>
+  <si>
+    <t>Montador de Andaime I</t>
   </si>
   <si>
     <t>Edny Cursino Pinheiro</t>
   </si>
   <si>
-    <t>Augusto Carlos da Silva Junior</t>
-  </si>
-  <si>
-    <t>Montador de Andaime I</t>
+    <t>Valdir Santos de Santana</t>
   </si>
   <si>
     <t>Ivan Teixeira dos Santos</t>
   </si>
   <si>
-    <t>Valdir Santos de Santana</t>
+    <t>Ronicley Santos Santana</t>
   </si>
   <si>
     <t>Pedro Mota Santos</t>
   </si>
   <si>
-    <t>Ronicley Santos Santana</t>
+    <t>Alef Romário Ramos Silva</t>
   </si>
   <si>
     <t>Fabricio Sales de Melo</t>
   </si>
   <si>
-    <t>Alef Romário Ramos Silva</t>
+    <t>Moises Santana Vasconcelos</t>
   </si>
   <si>
     <t>Gilson Silva do Nascimento</t>
   </si>
   <si>
-    <t>Moises Santana Vasconcelos</t>
+    <t>Sidnei Francisco do Nascimento</t>
   </si>
   <si>
     <t>Joao Guilherme Barbosa de Oliveira</t>
   </si>
   <si>
-    <t>Sidnei Francisco do Nascimento</t>
+    <t>Sidcley Francisco do Nascimento</t>
   </si>
   <si>
     <t>Kelven Silva Batista</t>
   </si>
   <si>
-    <t>Sidcley Francisco do Nascimento</t>
+    <t>Jose Roberto Menezes Tavares</t>
   </si>
   <si>
     <t>Kauhe Anilton Ribeiro de Jesus</t>
   </si>
   <si>
-    <t>Jose Roberto Menezes Tavares</t>
+    <t>Janderson Menezes de Souza</t>
   </si>
   <si>
     <t>Wander Kleiton Pinheiro Santos</t>
   </si>
   <si>
-    <t>Janderson Menezes de Souza</t>
+    <t>Sergio Nogueira de Araujo</t>
   </si>
   <si>
     <t>Carlos Henrique de Souza Nascimento</t>
   </si>
   <si>
-    <t>Sergio Nogueira de Araujo</t>
+    <t>Iran Carlos Serra das Virgens</t>
   </si>
   <si>
     <t>Carlos Venancio Pereira dos Santos</t>
   </si>
   <si>
-    <t>Iran Carlos Serra das Virgens</t>
+    <t>Moaci Bispo Marques</t>
   </si>
   <si>
     <t>Kassio Neves de Oliveira</t>
   </si>
   <si>
-    <t>Moaci Bispo Marques</t>
+    <t>Wellington Bispo Costa</t>
   </si>
   <si>
     <t>Kaua Santos</t>
   </si>
   <si>
-    <t>Wellington Bispo Costa</t>
+    <t>Welton Pacheco dos Santos</t>
   </si>
   <si>
     <t>Kaue Barros Oliveira</t>
   </si>
   <si>
-    <t>Welton Pacheco dos Santos</t>
+    <t>Paulo Sergio dos Santos Junior</t>
   </si>
   <si>
     <t>Kayky Vitor Oliveira de Sousa</t>
   </si>
   <si>
-    <t>Paulo Sergio dos Santos Junior</t>
+    <t>Jonatans Ubiratan Cabral dos Santos</t>
   </si>
   <si>
     <t>Oton Francez Estumano</t>
   </si>
   <si>
-    <t>Jonatans Ubiratan Cabral dos Santos</t>
+    <t>Marcelo Pereira da Silva</t>
   </si>
   <si>
     <t>Igor Augusto Lopes Maiberg</t>
   </si>
   <si>
-    <t>Marcelo Pereira da Silva</t>
+    <t>Michael Taizon Felix dos Santos</t>
   </si>
   <si>
     <t>Marcelo Pedro dos Santos</t>
   </si>
   <si>
-    <t>Michael Taizon Felix dos Santos</t>
+    <t>APOIO</t>
   </si>
   <si>
     <t>Adalberto da Silva Duarte</t>
   </si>
   <si>
-    <t>APOIO</t>
+    <t>Gustavo Carvalho</t>
+  </si>
+  <si>
+    <t>Estagiario</t>
   </si>
   <si>
     <t>Davi Sergio dos Santos Correia</t>
   </si>
   <si>
-    <t>Gustavo Carvalho</t>
-  </si>
-  <si>
-    <t>Estagiario</t>
+    <t>Leonardo Adilson Reinert</t>
   </si>
   <si>
     <t>Felipe Serpa de Souza</t>
   </si>
   <si>
-    <t>Leonardo Adilson Reinert</t>
+    <t>Richard Ferreira</t>
   </si>
   <si>
     <t>Fernando Luis da Silva</t>
   </si>
   <si>
-    <t>Richard Ferreira</t>
+    <t>Valter da Silva Lins Filho</t>
   </si>
   <si>
     <t>Marlom Wille Verissimo</t>
   </si>
   <si>
-    <t>Valter da Silva Lins Filho</t>
+    <t>Joelson Ricardo Rocha Alves Filho</t>
   </si>
   <si>
     <t>Michael Reis Lopes</t>
   </si>
   <si>
-    <t>Joelson Ricardo Rocha Alves Filho</t>
-  </si>
-  <si>
     <t>Sidney de Jesus Serrão</t>
   </si>
   <si>
@@ -663,79 +660,79 @@
     <t>Jean</t>
   </si>
   <si>
+    <t>Integração</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
     <t>Maxwell da Silva Lima</t>
   </si>
   <si>
-    <t>Integração</t>
-  </si>
-  <si>
-    <t>Andre</t>
+    <t>Noturno</t>
+  </si>
+  <si>
+    <t>Josias</t>
   </si>
   <si>
     <t>Renison Fernandes Santos Bezerra</t>
   </si>
   <si>
-    <t>Noturno</t>
-  </si>
-  <si>
-    <t>Josias</t>
+    <t>Trabalho Alternativo/Paiol</t>
+  </si>
+  <si>
+    <t>Marlon</t>
   </si>
   <si>
     <t>Vilson Vinicius Marcondes de Alencar</t>
   </si>
   <si>
-    <t>Trabalho Alternativo/Paiol</t>
-  </si>
-  <si>
-    <t>Marlon</t>
+    <t>INSS</t>
   </si>
   <si>
     <t>Darllan Lima dos Santos</t>
   </si>
   <si>
-    <t>INSS</t>
+    <t>Emprestado Processamento</t>
   </si>
   <si>
     <t>Guilherme Krieser da Silva</t>
   </si>
   <si>
-    <t>Emprestado Processamento</t>
-  </si>
-  <si>
     <t>Lucas Menezes Duarte</t>
   </si>
   <si>
     <t>Matheus Eduardo de Almeida</t>
   </si>
   <si>
+    <t>3º TURMA CEFAP</t>
+  </si>
+  <si>
     <t>Mauricio Cardoso Maciel</t>
   </si>
   <si>
-    <t>3º TURMA CEFAP</t>
+    <t>Edipo Adrian Damasceno Santos</t>
   </si>
   <si>
     <t>Michel Tavares de Oliveira</t>
   </si>
   <si>
-    <t>Edipo Adrian Damasceno Santos</t>
+    <t>Eubson Moreira de Oliveira</t>
   </si>
   <si>
     <t>Samuel Vitor Tavares Oliveira</t>
   </si>
   <si>
-    <t>Eubson Moreira de Oliveira</t>
+    <t>Adilson Fernando da Silva</t>
   </si>
   <si>
     <t>George Lucas Valasques do Sacramento</t>
   </si>
   <si>
-    <t>Adilson Fernando da Silva</t>
+    <t>Jean Cezar Rodrigues Cardoso</t>
   </si>
   <si>
     <t>Josivaldo Clarindo Rosas</t>
-  </si>
-  <si>
-    <t>Jean Cezar Rodrigues Cardoso</t>
   </si>
   <si>
     <t>Mateus de Jesus Siqueira</t>
@@ -786,7 +783,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +852,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF757070"/>
+        <bgColor rgb="FF757070"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFC000"/>
       </patternFill>
@@ -1295,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1462,9 +1465,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1472,6 +1472,9 @@
     <xf numFmtId="14" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1501,14 +1504,14 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,41 +1533,47 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1595,6 +1604,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,14 +1663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,9 +1746,6 @@
     <xf numFmtId="14" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1764,9 +1776,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1785,6 +1794,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,7 +1812,7 @@
     <xf numFmtId="14" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1815,10 +1830,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2149,8 +2164,8 @@
   </sheetPr>
   <dimension ref="B1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35:T82"/>
+    <sheetView tabSelected="1" topLeftCell="H78" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35:T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -2179,52 +2194,52 @@
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" s="1"/>
-      <c r="C1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="131"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="S1" s="133"/>
+      <c r="C1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="117"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="S1" s="137"/>
     </row>
     <row r="2" spans="2:19">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="135"/>
-      <c r="O2" s="133"/>
-      <c r="S2" s="133"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="139"/>
+      <c r="O2" s="137"/>
+      <c r="S2" s="137"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140" t="s">
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="141"/>
-      <c r="O3" s="133"/>
-      <c r="S3" s="133"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="145"/>
+      <c r="O3" s="137"/>
+      <c r="S3" s="137"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="2">
@@ -2260,8 +2275,8 @@
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="133"/>
-      <c r="S4" s="133"/>
+      <c r="O4" s="137"/>
+      <c r="S4" s="137"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="10">
@@ -2297,7 +2312,7 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="S5" s="133"/>
+      <c r="S5" s="137"/>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="10">
@@ -2333,7 +2348,7 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="S6" s="133"/>
+      <c r="S6" s="137"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="10">
@@ -2369,7 +2384,7 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="S7" s="133"/>
+      <c r="S7" s="137"/>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="10">
@@ -2405,7 +2420,7 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="S8" s="133"/>
+      <c r="S8" s="137"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="14">
@@ -2441,26 +2456,26 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="S9" s="133"/>
+      <c r="S9" s="137"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="142">
+      <c r="B10" s="146">
         <v>1</v>
       </c>
-      <c r="C10" s="143">
+      <c r="C10" s="147">
         <v>2609</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="144" t="s">
+      <c r="E10" s="148" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="17">
         <v>41407</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="145">
+      <c r="H10" s="149">
         <v>1</v>
       </c>
       <c r="I10" s="18">
@@ -2477,26 +2492,26 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="S10" s="133"/>
+      <c r="S10" s="137"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="105">
         <v>6615</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="147">
+      <c r="F11" s="151">
         <v>45488</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="102">
+      <c r="H11" s="104">
         <v>2</v>
       </c>
       <c r="I11" s="22">
@@ -2513,26 +2528,26 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="S11" s="133"/>
+      <c r="S11" s="137"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="148">
+      <c r="C12" s="152">
         <v>6596</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="149">
+      <c r="F12" s="153">
         <v>45474</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="145">
+      <c r="H12" s="149">
         <v>3</v>
       </c>
       <c r="I12" s="22">
@@ -2549,7 +2564,7 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="S12" s="133"/>
+      <c r="S12" s="137"/>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="2">
@@ -2568,7 +2583,7 @@
         <v>44655</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="102">
+      <c r="H13" s="104">
         <v>4</v>
       </c>
       <c r="I13" s="22">
@@ -2585,7 +2600,7 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="S13" s="133"/>
+      <c r="S13" s="137"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" customHeight="1">
       <c r="B14" s="10">
@@ -2604,7 +2619,7 @@
         <v>43563</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="145">
+      <c r="H14" s="149">
         <v>5</v>
       </c>
       <c r="I14" s="22">
@@ -2621,7 +2636,7 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="S14" s="133"/>
+      <c r="S14" s="137"/>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="10">
@@ -2640,7 +2655,7 @@
         <v>43843</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="102">
+      <c r="H15" s="104">
         <v>6</v>
       </c>
       <c r="I15" s="22">
@@ -2657,7 +2672,7 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="S15" s="133"/>
+      <c r="S15" s="137"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="10">
@@ -2676,7 +2691,7 @@
         <v>44599</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="145">
+      <c r="H16" s="149">
         <v>7</v>
       </c>
       <c r="I16" s="11">
@@ -2693,7 +2708,7 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="S16" s="133"/>
+      <c r="S16" s="137"/>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="10">
@@ -2712,7 +2727,7 @@
         <v>44396</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="102">
+      <c r="H17" s="104">
         <v>8</v>
       </c>
       <c r="I17" s="22">
@@ -2729,7 +2744,7 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="S17" s="133"/>
+      <c r="S17" s="137"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="10">
@@ -2748,7 +2763,7 @@
         <v>43516</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="145">
+      <c r="H18" s="149">
         <v>9</v>
       </c>
       <c r="I18" s="22">
@@ -2765,7 +2780,7 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="S18" s="133"/>
+      <c r="S18" s="137"/>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="25">
@@ -2784,7 +2799,7 @@
         <v>45705</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="102">
+      <c r="H19" s="104">
         <v>10</v>
       </c>
       <c r="I19" s="22">
@@ -2801,10 +2816,10 @@
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="S19" s="133"/>
+      <c r="S19" s="137"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="150">
+      <c r="B20" s="154">
         <v>1</v>
       </c>
       <c r="C20" s="3">
@@ -2820,7 +2835,7 @@
         <v>42919</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="145">
+      <c r="H20" s="149">
         <v>11</v>
       </c>
       <c r="I20" s="22">
@@ -2837,7 +2852,7 @@
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="S20" s="133"/>
+      <c r="S20" s="137"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" customHeight="1">
       <c r="B21" s="14">
@@ -2856,7 +2871,7 @@
         <v>42919</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="102">
+      <c r="H21" s="104">
         <v>12</v>
       </c>
       <c r="I21" s="22">
@@ -2873,7 +2888,7 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="S21" s="133"/>
+      <c r="S21" s="137"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" customHeight="1">
       <c r="B22" s="2">
@@ -2891,8 +2906,8 @@
       <c r="F22" s="5">
         <v>43563</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="145">
+      <c r="G22" s="136"/>
+      <c r="H22" s="149">
         <v>13</v>
       </c>
       <c r="I22" s="22">
@@ -2909,7 +2924,7 @@
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="S22" s="133"/>
+      <c r="S22" s="137"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" customHeight="1">
       <c r="B23" s="10">
@@ -2928,7 +2943,7 @@
         <v>43510</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="102">
+      <c r="H23" s="104">
         <v>14</v>
       </c>
       <c r="I23" s="22">
@@ -2944,9 +2959,9 @@
         <v>45362</v>
       </c>
       <c r="M23" s="9"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="S23" s="133"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="S23" s="137"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" customHeight="1">
       <c r="B24" s="10">
@@ -2965,7 +2980,7 @@
         <v>44410</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="145">
+      <c r="H24" s="149">
         <v>15</v>
       </c>
       <c r="I24" s="22">
@@ -2982,7 +2997,7 @@
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="S24" s="133"/>
+      <c r="S24" s="137"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" customHeight="1">
       <c r="B25" s="10">
@@ -3001,10 +3016,10 @@
         <v>44466</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="102">
+      <c r="H25" s="104">
         <v>16</v>
       </c>
-      <c r="I25" s="151">
+      <c r="I25" s="155">
         <v>6534</v>
       </c>
       <c r="J25" s="46" t="s">
@@ -3018,7 +3033,7 @@
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="S25" s="133"/>
+      <c r="S25" s="137"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" customHeight="1">
       <c r="B26" s="10">
@@ -3037,16 +3052,16 @@
         <v>44571</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="145">
+      <c r="H26" s="149">
         <v>17</v>
       </c>
       <c r="I26" s="22">
         <v>6583</v>
       </c>
-      <c r="J26" s="88" t="s">
+      <c r="J26" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="88" t="s">
+      <c r="K26" s="90" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="23">
@@ -3054,7 +3069,7 @@
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="S26" s="133"/>
+      <c r="S26" s="137"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" customHeight="1">
       <c r="B27" s="10">
@@ -3073,7 +3088,7 @@
         <v>44571</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="102">
+      <c r="H27" s="104">
         <v>18</v>
       </c>
       <c r="I27" s="35">
@@ -3085,12 +3100,12 @@
       <c r="K27" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="152">
+      <c r="L27" s="156">
         <v>45523</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="S27" s="133"/>
+      <c r="S27" s="137"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1">
       <c r="B28" s="10">
@@ -3109,7 +3124,7 @@
         <v>44578</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="145">
+      <c r="H28" s="149">
         <v>19</v>
       </c>
       <c r="I28" s="33">
@@ -3126,8 +3141,8 @@
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="133"/>
-      <c r="S28" s="133"/>
+      <c r="O28" s="137"/>
+      <c r="S28" s="137"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" customHeight="1">
       <c r="B29" s="10">
@@ -3146,13 +3161,13 @@
         <v>44622</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="102">
+      <c r="H29" s="104">
         <v>20</v>
       </c>
       <c r="I29" s="33">
         <v>6744</v>
       </c>
-      <c r="J29" s="88" t="s">
+      <c r="J29" s="90" t="s">
         <v>72</v>
       </c>
       <c r="K29" s="46" t="s">
@@ -3163,8 +3178,8 @@
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="133"/>
-      <c r="S29" s="133"/>
+      <c r="O29" s="137"/>
+      <c r="S29" s="137"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1">
       <c r="B30" s="10">
@@ -3183,7 +3198,7 @@
         <v>45369</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="145">
+      <c r="H30" s="149">
         <v>21</v>
       </c>
       <c r="I30" s="33">
@@ -3200,8 +3215,8 @@
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="133"/>
-      <c r="S30" s="133"/>
+      <c r="O30" s="137"/>
+      <c r="S30" s="137"/>
     </row>
     <row r="31" spans="2:19" ht="15.75" customHeight="1">
       <c r="B31" s="10">
@@ -3220,7 +3235,7 @@
         <v>45481</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="102">
+      <c r="H31" s="104">
         <v>22</v>
       </c>
       <c r="I31" s="33">
@@ -3237,8 +3252,8 @@
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="133"/>
-      <c r="S31" s="133"/>
+      <c r="O31" s="137"/>
+      <c r="S31" s="137"/>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1">
       <c r="B32" s="10">
@@ -3257,7 +3272,7 @@
         <v>45495</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="145">
+      <c r="H32" s="149">
         <v>23</v>
       </c>
       <c r="I32" s="33">
@@ -3274,8 +3289,8 @@
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="133"/>
-      <c r="S32" s="133"/>
+      <c r="O32" s="137"/>
+      <c r="S32" s="137"/>
     </row>
     <row r="33" spans="2:21" ht="15.75" customHeight="1">
       <c r="B33" s="10">
@@ -3294,7 +3309,7 @@
         <v>45383</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="102">
+      <c r="H33" s="104">
         <v>24</v>
       </c>
       <c r="I33" s="33">
@@ -3311,8 +3326,8 @@
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="133"/>
-      <c r="S33" s="133"/>
+      <c r="O33" s="137"/>
+      <c r="S33" s="137"/>
     </row>
     <row r="34" spans="2:21" ht="15.75" customHeight="1">
       <c r="B34" s="10">
@@ -3331,7 +3346,7 @@
         <v>45698</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="145">
+      <c r="H34" s="149">
         <v>25</v>
       </c>
       <c r="I34" s="11">
@@ -3343,17 +3358,17 @@
       <c r="K34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="153">
+      <c r="L34" s="157">
         <v>45733</v>
       </c>
       <c r="M34" s="9"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="154"/>
-      <c r="T34" s="130"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="158"/>
+      <c r="T34" s="118"/>
     </row>
     <row r="35" spans="2:21" ht="15.75" customHeight="1">
       <c r="B35" s="10">
@@ -3372,7 +3387,7 @@
         <v>45327</v>
       </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="102">
+      <c r="H35" s="104">
         <v>26</v>
       </c>
       <c r="I35" s="52">
@@ -3384,18 +3399,18 @@
       <c r="K35" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="155">
+      <c r="L35" s="159">
         <v>45733</v>
       </c>
-      <c r="M35" s="128"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="157"/>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="157"/>
-      <c r="S35" s="158"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="130"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="161"/>
+      <c r="S35" s="162"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="118"/>
     </row>
     <row r="36" spans="2:21" ht="15.75" customHeight="1">
       <c r="B36" s="10">
@@ -3414,7 +3429,7 @@
         <v>45336</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="145">
+      <c r="H36" s="149">
         <v>27</v>
       </c>
       <c r="I36" s="33">
@@ -3429,15 +3444,15 @@
       <c r="L36" s="68">
         <v>45748</v>
       </c>
-      <c r="M36" s="129"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="127"/>
-      <c r="U36" s="130"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="135"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="135"/>
+      <c r="U36" s="118"/>
     </row>
     <row r="37" spans="2:21" ht="15.75" customHeight="1">
       <c r="B37" s="10">
@@ -3456,7 +3471,7 @@
         <v>45551</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="102">
+      <c r="H37" s="104">
         <v>28</v>
       </c>
       <c r="I37" s="33">
@@ -3471,15 +3486,15 @@
       <c r="L37" s="68">
         <v>45748</v>
       </c>
-      <c r="M37" s="129"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="130"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="135"/>
+      <c r="U37" s="118"/>
     </row>
     <row r="38" spans="2:21" ht="15.75" customHeight="1">
       <c r="B38" s="10">
@@ -3498,7 +3513,7 @@
         <v>45614</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="145">
+      <c r="H38" s="149">
         <v>29</v>
       </c>
       <c r="I38" s="35">
@@ -3513,15 +3528,15 @@
       <c r="L38" s="44">
         <v>45769</v>
       </c>
-      <c r="M38" s="129"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="127"/>
-      <c r="U38" s="130"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="135"/>
+      <c r="U38" s="118"/>
     </row>
     <row r="39" spans="2:21" ht="15.75" customHeight="1">
       <c r="B39" s="10">
@@ -3530,7 +3545,7 @@
       <c r="C39" s="33">
         <v>6551</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="90" t="s">
         <v>92</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -3540,7 +3555,7 @@
         <v>45439</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="102">
+      <c r="H39" s="104">
         <v>30</v>
       </c>
       <c r="I39" s="45">
@@ -3555,15 +3570,15 @@
       <c r="L39" s="68">
         <v>45789</v>
       </c>
-      <c r="M39" s="129"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="126"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="130"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="130"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="135"/>
+      <c r="U39" s="118"/>
     </row>
     <row r="40" spans="2:21" ht="15" customHeight="1">
       <c r="B40" s="10">
@@ -3582,10 +3597,10 @@
         <v>45684</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="145">
+      <c r="H40" s="149">
         <v>31</v>
       </c>
-      <c r="I40" s="109">
+      <c r="I40" s="111">
         <v>7209</v>
       </c>
       <c r="J40" s="46" t="s">
@@ -3597,15 +3612,15 @@
       <c r="L40" s="68">
         <v>45803</v>
       </c>
-      <c r="M40" s="129"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="126"/>
-      <c r="T40" s="127"/>
-      <c r="U40" s="130"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="135"/>
+      <c r="U40" s="118"/>
     </row>
     <row r="41" spans="2:21" ht="16.5" customHeight="1">
       <c r="B41" s="10">
@@ -3614,20 +3629,20 @@
       <c r="C41" s="48">
         <v>6621</v>
       </c>
-      <c r="D41" s="159" t="s">
+      <c r="D41" s="163" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="160">
+      <c r="F41" s="164">
         <v>45488</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="102">
+      <c r="H41" s="104">
         <v>32</v>
       </c>
-      <c r="I41" s="109">
+      <c r="I41" s="111">
         <v>7218</v>
       </c>
       <c r="J41" s="46" t="s">
@@ -3639,15 +3654,15 @@
       <c r="L41" s="68">
         <v>45804</v>
       </c>
-      <c r="M41" s="129"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="130"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="124"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="135"/>
+      <c r="U41" s="118"/>
     </row>
     <row r="42" spans="2:21" ht="15.75" customHeight="1">
       <c r="B42" s="10">
@@ -3666,7 +3681,7 @@
         <v>45726</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="145">
+      <c r="H42" s="149">
         <v>33</v>
       </c>
       <c r="I42" s="52">
@@ -3678,18 +3693,18 @@
       <c r="K42" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="155">
+      <c r="L42" s="159">
         <v>45810</v>
       </c>
-      <c r="M42" s="129"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="115"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="158"/>
-      <c r="U42" s="130"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="123"/>
+      <c r="R42" s="130"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="162"/>
+      <c r="U42" s="118"/>
     </row>
     <row r="43" spans="2:21" ht="15.75" customHeight="1">
       <c r="B43" s="10">
@@ -3708,30 +3723,30 @@
         <v>45769</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="102">
+      <c r="H43" s="104">
         <v>34</v>
       </c>
-      <c r="I43" s="161">
+      <c r="I43" s="165">
         <v>7151</v>
       </c>
-      <c r="J43" s="162" t="s">
+      <c r="J43" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="163" t="s">
+      <c r="K43" s="167" t="s">
         <v>102</v>
       </c>
       <c r="L43" s="51">
         <v>45775</v>
       </c>
-      <c r="M43" s="129"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="127"/>
-      <c r="U43" s="130"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="135"/>
+      <c r="U43" s="118"/>
     </row>
     <row r="44" spans="2:21" ht="15.75" customHeight="1">
       <c r="B44" s="10">
@@ -3750,30 +3765,30 @@
         <v>45782</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="145">
+      <c r="H44" s="149">
         <v>35</v>
       </c>
-      <c r="I44" s="161">
+      <c r="I44" s="165">
         <v>7066</v>
       </c>
-      <c r="J44" s="162" t="s">
+      <c r="J44" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="K44" s="162" t="s">
+      <c r="K44" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="L44" s="164">
+      <c r="L44" s="168">
         <v>45748</v>
       </c>
-      <c r="M44" s="129"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="115"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="126"/>
-      <c r="T44" s="127"/>
-      <c r="U44" s="130"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="123"/>
+      <c r="Q44" s="123"/>
+      <c r="R44" s="130"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="135"/>
+      <c r="U44" s="118"/>
     </row>
     <row r="45" spans="2:21" ht="15.75" customHeight="1">
       <c r="B45" s="10">
@@ -3792,7 +3807,7 @@
         <v>45789</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="102">
+      <c r="H45" s="104">
         <v>36</v>
       </c>
       <c r="I45" s="33">
@@ -3807,15 +3822,15 @@
       <c r="L45" s="85">
         <v>45887</v>
       </c>
-      <c r="M45" s="165"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="126"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="130"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="131"/>
+      <c r="Q45" s="131"/>
+      <c r="R45" s="130"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="118"/>
     </row>
     <row r="46" spans="2:21" ht="15.75" customHeight="1">
       <c r="B46" s="10">
@@ -3824,7 +3839,7 @@
       <c r="C46" s="33">
         <v>7303</v>
       </c>
-      <c r="D46" s="88" t="s">
+      <c r="D46" s="90" t="s">
         <v>108</v>
       </c>
       <c r="E46" s="79" t="s">
@@ -3834,7 +3849,7 @@
         <v>45845</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="145">
+      <c r="H46" s="149">
         <v>37</v>
       </c>
       <c r="I46" s="35">
@@ -3849,15 +3864,15 @@
       <c r="L46" s="44">
         <v>45908</v>
       </c>
-      <c r="M46" s="128"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="127"/>
-      <c r="U46" s="130"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="131"/>
+      <c r="Q46" s="131"/>
+      <c r="R46" s="130"/>
+      <c r="S46" s="134"/>
+      <c r="T46" s="135"/>
+      <c r="U46" s="118"/>
     </row>
     <row r="47" spans="2:21" ht="15.75" customHeight="1">
       <c r="B47" s="10">
@@ -3876,7 +3891,7 @@
         <v>45684</v>
       </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="102">
+      <c r="H47" s="104">
         <v>38</v>
       </c>
       <c r="I47" s="33">
@@ -3891,15 +3906,15 @@
       <c r="L47" s="68">
         <v>45908</v>
       </c>
-      <c r="M47" s="128"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="119"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="158"/>
-      <c r="U47" s="130"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="133"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="134"/>
+      <c r="T47" s="162"/>
+      <c r="U47" s="118"/>
     </row>
     <row r="48" spans="2:21" ht="15.75" customHeight="1">
       <c r="B48" s="10">
@@ -3917,20 +3932,20 @@
       <c r="F48" s="53">
         <v>45523</v>
       </c>
-      <c r="H48" s="166"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="168"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="171"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="126"/>
-      <c r="T48" s="158"/>
-      <c r="U48" s="130"/>
+      <c r="L48" s="172"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="134"/>
+      <c r="T48" s="162"/>
+      <c r="U48" s="118"/>
     </row>
     <row r="49" spans="2:21" ht="15.75" customHeight="1">
       <c r="B49" s="10">
@@ -3948,22 +3963,22 @@
       <c r="F49" s="36">
         <v>45663</v>
       </c>
-      <c r="H49" s="170" t="s">
+      <c r="H49" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="172"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="126"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="130"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="175"/>
+      <c r="M49" s="115"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="134"/>
+      <c r="T49" s="162"/>
+      <c r="U49" s="118"/>
     </row>
     <row r="50" spans="2:21" ht="15.75" customHeight="1">
       <c r="B50" s="10">
@@ -3981,8 +3996,8 @@
       <c r="F50" s="34">
         <v>45691</v>
       </c>
-      <c r="G50" s="132"/>
-      <c r="H50" s="102">
+      <c r="G50" s="136"/>
+      <c r="H50" s="104">
         <v>1</v>
       </c>
       <c r="I50" s="11">
@@ -3997,15 +4012,15 @@
       <c r="L50" s="24">
         <v>41227</v>
       </c>
-      <c r="M50" s="128"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="126"/>
-      <c r="T50" s="158"/>
-      <c r="U50" s="130"/>
+      <c r="M50" s="115"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="130"/>
+      <c r="S50" s="134"/>
+      <c r="T50" s="162"/>
+      <c r="U50" s="118"/>
     </row>
     <row r="51" spans="2:21" ht="15.75" customHeight="1">
       <c r="B51" s="10">
@@ -4014,7 +4029,7 @@
       <c r="C51" s="22">
         <v>6955</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="90" t="s">
         <v>118</v>
       </c>
       <c r="E51" s="47" t="s">
@@ -4023,8 +4038,8 @@
       <c r="F51" s="34">
         <v>45705</v>
       </c>
-      <c r="G51" s="132"/>
-      <c r="H51" s="102">
+      <c r="G51" s="136"/>
+      <c r="H51" s="104">
         <v>2</v>
       </c>
       <c r="I51" s="22">
@@ -4039,15 +4054,15 @@
       <c r="L51" s="23">
         <v>44004</v>
       </c>
-      <c r="M51" s="128"/>
-      <c r="N51" s="112"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="125"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="121"/>
-      <c r="T51" s="158"/>
-      <c r="U51" s="130"/>
+      <c r="M51" s="115"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="125"/>
+      <c r="R51" s="127"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="162"/>
+      <c r="U51" s="118"/>
     </row>
     <row r="52" spans="2:21" ht="15.75" customHeight="1">
       <c r="B52" s="10">
@@ -4065,8 +4080,8 @@
       <c r="F52" s="34">
         <v>45726</v>
       </c>
-      <c r="G52" s="132"/>
-      <c r="H52" s="102">
+      <c r="G52" s="136"/>
+      <c r="H52" s="104">
         <v>3</v>
       </c>
       <c r="I52" s="11">
@@ -4081,15 +4096,15 @@
       <c r="L52" s="24">
         <v>44571</v>
       </c>
-      <c r="M52" s="165"/>
-      <c r="N52" s="112"/>
-      <c r="O52" s="112"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="117"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="121"/>
-      <c r="T52" s="158"/>
-      <c r="U52" s="130"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="125"/>
+      <c r="R52" s="127"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="162"/>
+      <c r="U52" s="118"/>
     </row>
     <row r="53" spans="2:21" ht="15.75" customHeight="1">
       <c r="B53" s="10">
@@ -4107,8 +4122,8 @@
       <c r="F53" s="34">
         <v>45726</v>
       </c>
-      <c r="G53" s="132"/>
-      <c r="H53" s="102">
+      <c r="G53" s="136"/>
+      <c r="H53" s="104">
         <v>4</v>
       </c>
       <c r="I53" s="22">
@@ -4123,15 +4138,15 @@
       <c r="L53" s="23">
         <v>45320</v>
       </c>
-      <c r="M53" s="128"/>
-      <c r="N53" s="112"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="111"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="158"/>
-      <c r="U53" s="130"/>
+      <c r="M53" s="115"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="121"/>
+      <c r="Q53" s="121"/>
+      <c r="R53" s="119"/>
+      <c r="S53" s="134"/>
+      <c r="T53" s="162"/>
+      <c r="U53" s="118"/>
     </row>
     <row r="54" spans="2:21" ht="15.75" customHeight="1">
       <c r="B54" s="10">
@@ -4149,8 +4164,8 @@
       <c r="F54" s="34">
         <v>45733</v>
       </c>
-      <c r="G54" s="132"/>
-      <c r="H54" s="102">
+      <c r="G54" s="136"/>
+      <c r="H54" s="104">
         <v>5</v>
       </c>
       <c r="I54" s="33">
@@ -4165,15 +4180,15 @@
       <c r="L54" s="68">
         <v>45336</v>
       </c>
-      <c r="M54" s="128"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="113"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="126"/>
-      <c r="T54" s="127"/>
-      <c r="U54" s="130"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="133"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="134"/>
+      <c r="T54" s="135"/>
+      <c r="U54" s="118"/>
     </row>
     <row r="55" spans="2:21" ht="15.75" customHeight="1">
       <c r="B55" s="10">
@@ -4191,31 +4206,31 @@
       <c r="F55" s="34">
         <v>45733</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="102">
+      <c r="G55" s="136"/>
+      <c r="H55" s="104">
         <v>6</v>
       </c>
-      <c r="I55" s="22">
-        <v>6543</v>
-      </c>
-      <c r="J55" s="79" t="s">
+      <c r="I55" s="35">
+        <v>7346</v>
+      </c>
+      <c r="J55" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="K55" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="L55" s="23">
-        <v>45432</v>
-      </c>
-      <c r="M55" s="128"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="112"/>
-      <c r="P55" s="123"/>
-      <c r="Q55" s="123"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="127"/>
-      <c r="U55" s="130"/>
+      <c r="K55" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L55" s="176">
+        <v>45859</v>
+      </c>
+      <c r="M55" s="115"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="134"/>
+      <c r="T55" s="135"/>
+      <c r="U55" s="118"/>
     </row>
     <row r="56" spans="2:21" ht="15.75" customHeight="1">
       <c r="B56" s="25">
@@ -4233,12 +4248,12 @@
       <c r="F56" s="29">
         <v>45705</v>
       </c>
-      <c r="G56" s="132"/>
-      <c r="H56" s="102">
+      <c r="G56" s="136"/>
+      <c r="H56" s="104">
         <v>7</v>
       </c>
       <c r="I56" s="35">
-        <v>7346</v>
+        <v>7349</v>
       </c>
       <c r="J56" s="41" t="s">
         <v>132</v>
@@ -4246,18 +4261,18 @@
       <c r="K56" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L56" s="173">
+      <c r="L56" s="176">
         <v>45859</v>
       </c>
-      <c r="M56" s="128"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="127"/>
-      <c r="U56" s="130"/>
+      <c r="M56" s="115"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="128"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="134"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="118"/>
     </row>
     <row r="57" spans="2:21" ht="15.75" customHeight="1">
       <c r="B57" s="2">
@@ -4275,31 +4290,23 @@
       <c r="F57" s="5">
         <v>45691</v>
       </c>
-      <c r="G57" s="132"/>
-      <c r="H57" s="102">
-        <v>8</v>
-      </c>
-      <c r="I57" s="35">
-        <v>7349</v>
-      </c>
-      <c r="J57" s="41" t="s">
+      <c r="G57" s="136"/>
+      <c r="H57" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="K57" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="L57" s="173">
-        <v>45859</v>
-      </c>
-      <c r="M57" s="128"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="115"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="126"/>
-      <c r="T57" s="158"/>
-      <c r="U57" s="130"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="141"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="115"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="123"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="134"/>
+      <c r="T57" s="162"/>
+      <c r="U57" s="118"/>
     </row>
     <row r="58" spans="2:21" ht="15.75" customHeight="1">
       <c r="B58" s="10">
@@ -4314,26 +4321,34 @@
       <c r="E58" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="108">
+      <c r="F58" s="110">
         <v>45769</v>
       </c>
-      <c r="G58" s="132"/>
-      <c r="H58" s="174" t="s">
+      <c r="G58" s="136"/>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="60">
+        <v>4175</v>
+      </c>
+      <c r="J58" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="I58" s="137"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="137"/>
-      <c r="L58" s="138"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="112"/>
-      <c r="O58" s="124"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="126"/>
-      <c r="T58" s="127"/>
-      <c r="U58" s="130"/>
+      <c r="K58" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="L58" s="62">
+        <v>42037</v>
+      </c>
+      <c r="M58" s="115"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="133"/>
+      <c r="Q58" s="133"/>
+      <c r="R58" s="130"/>
+      <c r="S58" s="134"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="118"/>
     </row>
     <row r="59" spans="2:21" ht="15.75" customHeight="1">
       <c r="B59" s="10">
@@ -4342,8 +4357,8 @@
       <c r="C59" s="52">
         <v>7024</v>
       </c>
-      <c r="D59" s="60" t="s">
-        <v>137</v>
+      <c r="D59" s="63" t="s">
+        <v>138</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>105</v>
@@ -4351,31 +4366,31 @@
       <c r="F59" s="34">
         <v>45733</v>
       </c>
-      <c r="G59" s="132"/>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="61">
-        <v>4175</v>
-      </c>
-      <c r="J59" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="K59" s="62" t="s">
+      <c r="G59" s="136"/>
+      <c r="H59" s="14">
+        <v>2</v>
+      </c>
+      <c r="I59" s="64">
+        <v>4124</v>
+      </c>
+      <c r="J59" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="L59" s="63">
-        <v>42037</v>
-      </c>
-      <c r="M59" s="128"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="126"/>
-      <c r="T59" s="127"/>
-      <c r="U59" s="130"/>
+      <c r="K59" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="L59" s="66">
+        <v>42030</v>
+      </c>
+      <c r="M59" s="115"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="128"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="134"/>
+      <c r="T59" s="135"/>
+      <c r="U59" s="118"/>
     </row>
     <row r="60" spans="2:21" ht="15.75" customHeight="1">
       <c r="B60" s="10">
@@ -4384,8 +4399,8 @@
       <c r="C60" s="52">
         <v>7035</v>
       </c>
-      <c r="D60" s="60" t="s">
-        <v>140</v>
+      <c r="D60" s="63" t="s">
+        <v>141</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>105</v>
@@ -4393,79 +4408,79 @@
       <c r="F60" s="34">
         <v>45733</v>
       </c>
-      <c r="G60" s="132"/>
-      <c r="H60" s="14">
-        <v>2</v>
-      </c>
-      <c r="I60" s="64">
-        <v>4124</v>
-      </c>
-      <c r="J60" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="K60" s="65" t="s">
+      <c r="G60" s="136"/>
+      <c r="H60" s="149">
+        <v>1</v>
+      </c>
+      <c r="I60" s="178">
+        <v>574</v>
+      </c>
+      <c r="J60" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="L60" s="66">
-        <v>42030</v>
-      </c>
-      <c r="M60" s="128"/>
-      <c r="N60" s="112"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="120"/>
-      <c r="Q60" s="113"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="126"/>
-      <c r="T60" s="158"/>
-      <c r="U60" s="130"/>
+      <c r="K60" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="L60" s="179">
+        <v>40064</v>
+      </c>
+      <c r="M60" s="115"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="128"/>
+      <c r="Q60" s="121"/>
+      <c r="R60" s="127"/>
+      <c r="S60" s="134"/>
+      <c r="T60" s="162"/>
+      <c r="U60" s="118"/>
     </row>
     <row r="61" spans="2:21" ht="15" customHeight="1">
       <c r="B61" s="10">
         <v>5</v>
       </c>
-      <c r="C61" s="109">
+      <c r="C61" s="111">
         <v>7214</v>
       </c>
       <c r="D61" s="67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E61" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="108">
+      <c r="F61" s="110">
         <v>45803</v>
       </c>
-      <c r="G61" s="132"/>
-      <c r="H61" s="145">
-        <v>1</v>
-      </c>
-      <c r="I61" s="175">
-        <v>574</v>
-      </c>
-      <c r="J61" s="144" t="s">
-        <v>144</v>
-      </c>
-      <c r="K61" s="144" t="s">
+      <c r="G61" s="136"/>
+      <c r="H61" s="104">
+        <v>2</v>
+      </c>
+      <c r="I61" s="22">
+        <v>1053</v>
+      </c>
+      <c r="J61" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="L61" s="176">
-        <v>40064</v>
-      </c>
-      <c r="M61" s="154"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="122"/>
-      <c r="S61" s="126"/>
-      <c r="T61" s="127"/>
-      <c r="U61" s="130"/>
+      <c r="K61" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="L61" s="23">
+        <v>40667</v>
+      </c>
+      <c r="M61" s="158"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="130"/>
+      <c r="S61" s="134"/>
+      <c r="T61" s="135"/>
+      <c r="U61" s="118"/>
     </row>
     <row r="62" spans="2:21" ht="15.75" customHeight="1">
       <c r="B62" s="10">
         <v>6</v>
       </c>
-      <c r="C62" s="109">
+      <c r="C62" s="111">
         <v>7215</v>
       </c>
       <c r="D62" s="67" t="s">
@@ -4474,34 +4489,34 @@
       <c r="E62" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="108">
+      <c r="F62" s="110">
         <v>45803</v>
       </c>
-      <c r="G62" s="132"/>
-      <c r="H62" s="102">
-        <v>2</v>
+      <c r="G62" s="136"/>
+      <c r="H62" s="104">
+        <v>3</v>
       </c>
       <c r="I62" s="22">
-        <v>1053</v>
+        <v>5453</v>
       </c>
       <c r="J62" s="79" t="s">
         <v>147</v>
       </c>
       <c r="K62" s="79" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L62" s="23">
-        <v>40667</v>
-      </c>
-      <c r="M62" s="129"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="112"/>
-      <c r="P62" s="120"/>
-      <c r="Q62" s="120"/>
-      <c r="R62" s="122"/>
-      <c r="S62" s="126"/>
-      <c r="T62" s="127"/>
-      <c r="U62" s="130"/>
+        <v>43558</v>
+      </c>
+      <c r="M62" s="116"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="128"/>
+      <c r="Q62" s="128"/>
+      <c r="R62" s="130"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="135"/>
+      <c r="U62" s="118"/>
     </row>
     <row r="63" spans="2:21" ht="15.75" customHeight="1">
       <c r="B63" s="10">
@@ -4511,39 +4526,39 @@
         <v>7217</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="173">
+      <c r="F63" s="176">
         <v>45803</v>
       </c>
-      <c r="G63" s="132"/>
-      <c r="H63" s="102">
-        <v>3</v>
-      </c>
-      <c r="I63" s="22">
-        <v>5453</v>
-      </c>
-      <c r="J63" s="79" t="s">
-        <v>149</v>
+      <c r="G63" s="136"/>
+      <c r="H63" s="104">
+        <v>4</v>
+      </c>
+      <c r="I63" s="180">
+        <v>5873</v>
+      </c>
+      <c r="J63" s="114" t="s">
+        <v>150</v>
       </c>
       <c r="K63" s="79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L63" s="23">
-        <v>43558</v>
-      </c>
-      <c r="M63" s="128"/>
-      <c r="N63" s="112"/>
-      <c r="O63" s="118"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="122"/>
-      <c r="S63" s="126"/>
-      <c r="T63" s="127"/>
-      <c r="U63" s="130"/>
+        <v>44440</v>
+      </c>
+      <c r="M63" s="115"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="126"/>
+      <c r="P63" s="121"/>
+      <c r="Q63" s="125"/>
+      <c r="R63" s="130"/>
+      <c r="S63" s="134"/>
+      <c r="T63" s="135"/>
+      <c r="U63" s="118"/>
     </row>
     <row r="64" spans="2:21" ht="15.75" customHeight="1">
       <c r="B64" s="10">
@@ -4553,7 +4568,7 @@
         <v>7226</v>
       </c>
       <c r="D64" s="70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E64" s="71" t="s">
         <v>102</v>
@@ -4561,31 +4576,31 @@
       <c r="F64" s="72">
         <v>45810</v>
       </c>
-      <c r="G64" s="132"/>
-      <c r="H64" s="102">
-        <v>4</v>
-      </c>
-      <c r="I64" s="177">
-        <v>5873</v>
-      </c>
-      <c r="J64" s="178" t="s">
-        <v>152</v>
+      <c r="G64" s="136"/>
+      <c r="H64" s="104">
+        <v>5</v>
+      </c>
+      <c r="I64" s="22">
+        <v>6122</v>
+      </c>
+      <c r="J64" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="K64" s="79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L64" s="23">
-        <v>44440</v>
-      </c>
-      <c r="M64" s="128"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="113"/>
-      <c r="Q64" s="113"/>
-      <c r="R64" s="111"/>
-      <c r="S64" s="126"/>
-      <c r="T64" s="127"/>
-      <c r="U64" s="130"/>
+        <v>44655</v>
+      </c>
+      <c r="M64" s="115"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="126"/>
+      <c r="P64" s="121"/>
+      <c r="Q64" s="121"/>
+      <c r="R64" s="119"/>
+      <c r="S64" s="134"/>
+      <c r="T64" s="135"/>
+      <c r="U64" s="118"/>
     </row>
     <row r="65" spans="2:21" ht="15" customHeight="1">
       <c r="B65" s="10">
@@ -4600,34 +4615,34 @@
       <c r="E65" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="108">
+      <c r="F65" s="110">
         <v>45817</v>
       </c>
-      <c r="G65" s="132"/>
-      <c r="H65" s="102">
-        <v>5</v>
-      </c>
-      <c r="I65" s="22">
-        <v>6122</v>
+      <c r="G65" s="136"/>
+      <c r="H65" s="104">
+        <v>6</v>
+      </c>
+      <c r="I65" s="74">
+        <v>6547</v>
       </c>
       <c r="J65" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="L65" s="23">
-        <v>44655</v>
-      </c>
-      <c r="M65" s="128"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="112"/>
-      <c r="P65" s="123"/>
-      <c r="Q65" s="123"/>
-      <c r="R65" s="122"/>
-      <c r="S65" s="126"/>
-      <c r="T65" s="127"/>
-      <c r="U65" s="130"/>
+      <c r="K65" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L65" s="68">
+        <v>45432</v>
+      </c>
+      <c r="M65" s="115"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="120"/>
+      <c r="P65" s="131"/>
+      <c r="Q65" s="131"/>
+      <c r="R65" s="130"/>
+      <c r="S65" s="134"/>
+      <c r="T65" s="135"/>
+      <c r="U65" s="118"/>
     </row>
     <row r="66" spans="2:21" ht="15" customHeight="1">
       <c r="B66" s="10">
@@ -4637,81 +4652,81 @@
         <v>7264</v>
       </c>
       <c r="D66" s="73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E66" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="108">
+      <c r="F66" s="110">
         <v>45824</v>
       </c>
-      <c r="G66" s="132"/>
-      <c r="H66" s="102">
-        <v>6</v>
-      </c>
-      <c r="I66" s="74">
-        <v>6547</v>
-      </c>
-      <c r="J66" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="K66" s="40" t="s">
+      <c r="G66" s="136"/>
+      <c r="H66" s="104">
+        <v>7</v>
+      </c>
+      <c r="I66" s="181">
+        <v>6559</v>
+      </c>
+      <c r="J66" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="L66" s="68">
-        <v>45432</v>
-      </c>
-      <c r="M66" s="154"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="112"/>
-      <c r="P66" s="116"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="122"/>
-      <c r="S66" s="126"/>
-      <c r="T66" s="127"/>
-      <c r="U66" s="130"/>
+      <c r="K66" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="L66" s="76">
+        <v>45446</v>
+      </c>
+      <c r="M66" s="158"/>
+      <c r="N66" s="120"/>
+      <c r="O66" s="120"/>
+      <c r="P66" s="124"/>
+      <c r="Q66" s="125"/>
+      <c r="R66" s="130"/>
+      <c r="S66" s="134"/>
+      <c r="T66" s="135"/>
+      <c r="U66" s="118"/>
     </row>
     <row r="67" spans="2:21" ht="15" customHeight="1">
       <c r="B67" s="10">
         <v>11</v>
       </c>
-      <c r="C67" s="75">
+      <c r="C67" s="77">
         <v>7273</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="78" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="108">
+      <c r="F67" s="110">
         <v>45831</v>
       </c>
-      <c r="G67" s="132"/>
-      <c r="H67" s="102">
-        <v>7</v>
-      </c>
-      <c r="I67" s="179">
-        <v>6559</v>
-      </c>
-      <c r="J67" s="77" t="s">
+      <c r="G67" s="136"/>
+      <c r="H67" s="104">
+        <v>8</v>
+      </c>
+      <c r="I67" s="33">
+        <v>6659</v>
+      </c>
+      <c r="J67" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="K67" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="L67" s="78">
-        <v>45446</v>
-      </c>
-      <c r="M67" s="154"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="112"/>
-      <c r="P67" s="125"/>
-      <c r="Q67" s="113"/>
-      <c r="R67" s="119"/>
-      <c r="S67" s="126"/>
-      <c r="T67" s="127"/>
-      <c r="U67" s="130"/>
+      <c r="K67" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="L67" s="23">
+        <v>45523</v>
+      </c>
+      <c r="M67" s="158"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="133"/>
+      <c r="Q67" s="121"/>
+      <c r="R67" s="127"/>
+      <c r="S67" s="134"/>
+      <c r="T67" s="135"/>
+      <c r="U67" s="118"/>
     </row>
     <row r="68" spans="2:21" ht="15.75" customHeight="1">
       <c r="B68" s="10">
@@ -4720,39 +4735,39 @@
       <c r="C68" s="22">
         <v>7274</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="78" t="s">
         <v>161</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="108">
+      <c r="F68" s="110">
         <v>45831</v>
       </c>
-      <c r="H68" s="102">
-        <v>8</v>
+      <c r="H68" s="104">
+        <v>9</v>
       </c>
       <c r="I68" s="33">
-        <v>6659</v>
-      </c>
-      <c r="J68" s="39" t="s">
+        <v>6695</v>
+      </c>
+      <c r="J68" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="K68" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="L68" s="23">
-        <v>45523</v>
-      </c>
-      <c r="M68" s="154"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="124"/>
-      <c r="P68" s="113"/>
-      <c r="Q68" s="120"/>
-      <c r="R68" s="111"/>
-      <c r="S68" s="126"/>
-      <c r="T68" s="127"/>
-      <c r="U68" s="130"/>
+      <c r="K68" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L68" s="68">
+        <v>45544</v>
+      </c>
+      <c r="M68" s="158"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="132"/>
+      <c r="P68" s="121"/>
+      <c r="Q68" s="128"/>
+      <c r="R68" s="119"/>
+      <c r="S68" s="134"/>
+      <c r="T68" s="135"/>
+      <c r="U68" s="118"/>
     </row>
     <row r="69" spans="2:21" ht="15.75" customHeight="1">
       <c r="B69" s="10">
@@ -4761,39 +4776,39 @@
       <c r="C69" s="33">
         <v>7301</v>
       </c>
-      <c r="D69" s="76" t="s">
+      <c r="D69" s="78" t="s">
         <v>163</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="108">
+      <c r="F69" s="110">
         <v>45839</v>
       </c>
-      <c r="H69" s="102">
-        <v>9</v>
+      <c r="H69" s="104">
+        <v>10</v>
       </c>
       <c r="I69" s="33">
-        <v>6695</v>
-      </c>
-      <c r="J69" s="40" t="s">
+        <v>6856</v>
+      </c>
+      <c r="J69" s="39" t="s">
         <v>164</v>
       </c>
       <c r="K69" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="L69" s="68">
-        <v>45544</v>
-      </c>
-      <c r="M69" s="154"/>
-      <c r="N69" s="158"/>
-      <c r="O69" s="112"/>
-      <c r="P69" s="125"/>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="119"/>
-      <c r="S69" s="126"/>
-      <c r="T69" s="127"/>
-      <c r="U69" s="130"/>
+        <v>156</v>
+      </c>
+      <c r="L69" s="23">
+        <v>45677</v>
+      </c>
+      <c r="M69" s="158"/>
+      <c r="N69" s="162"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="133"/>
+      <c r="Q69" s="121"/>
+      <c r="R69" s="127"/>
+      <c r="S69" s="134"/>
+      <c r="T69" s="135"/>
+      <c r="U69" s="118"/>
     </row>
     <row r="70" spans="2:21" ht="15.75" customHeight="1">
       <c r="B70" s="10">
@@ -4802,39 +4817,39 @@
       <c r="C70" s="33">
         <v>7286</v>
       </c>
-      <c r="D70" s="76" t="s">
+      <c r="D70" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E70" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="108">
+      <c r="F70" s="110">
         <v>45839</v>
       </c>
-      <c r="H70" s="102">
-        <v>10</v>
+      <c r="H70" s="104">
+        <v>11</v>
       </c>
       <c r="I70" s="33">
-        <v>6856</v>
+        <v>6857</v>
       </c>
       <c r="J70" s="39" t="s">
         <v>166</v>
       </c>
       <c r="K70" s="40" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L70" s="23">
         <v>45677</v>
       </c>
-      <c r="M70" s="154"/>
-      <c r="N70" s="158"/>
-      <c r="O70" s="112"/>
-      <c r="P70" s="125"/>
-      <c r="Q70" s="113"/>
-      <c r="R70" s="119"/>
-      <c r="S70" s="126"/>
-      <c r="T70" s="127"/>
-      <c r="U70" s="130"/>
+      <c r="M70" s="158"/>
+      <c r="N70" s="162"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="133"/>
+      <c r="Q70" s="121"/>
+      <c r="R70" s="127"/>
+      <c r="S70" s="134"/>
+      <c r="T70" s="135"/>
+      <c r="U70" s="118"/>
     </row>
     <row r="71" spans="2:21" ht="15.75" customHeight="1">
       <c r="B71" s="10">
@@ -4849,33 +4864,33 @@
       <c r="E71" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F71" s="108">
+      <c r="F71" s="110">
         <v>45839</v>
       </c>
-      <c r="H71" s="102">
-        <v>11</v>
+      <c r="H71" s="104">
+        <v>12</v>
       </c>
       <c r="I71" s="33">
-        <v>6857</v>
+        <v>6858</v>
       </c>
       <c r="J71" s="39" t="s">
         <v>168</v>
       </c>
       <c r="K71" s="40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L71" s="23">
         <v>45677</v>
       </c>
-      <c r="M71" s="154"/>
-      <c r="N71" s="158"/>
-      <c r="O71" s="112"/>
-      <c r="P71" s="123"/>
-      <c r="Q71" s="123"/>
-      <c r="R71" s="122"/>
-      <c r="S71" s="126"/>
-      <c r="T71" s="127"/>
-      <c r="U71" s="130"/>
+      <c r="M71" s="158"/>
+      <c r="N71" s="162"/>
+      <c r="O71" s="120"/>
+      <c r="P71" s="131"/>
+      <c r="Q71" s="131"/>
+      <c r="R71" s="130"/>
+      <c r="S71" s="134"/>
+      <c r="T71" s="135"/>
+      <c r="U71" s="118"/>
     </row>
     <row r="72" spans="2:21" ht="15.75" customHeight="1">
       <c r="B72" s="10">
@@ -4890,33 +4905,33 @@
       <c r="E72" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="108">
+      <c r="F72" s="110">
         <v>45839</v>
       </c>
-      <c r="H72" s="102">
-        <v>12</v>
-      </c>
-      <c r="I72" s="33">
-        <v>6858</v>
+      <c r="H72" s="104">
+        <v>13</v>
+      </c>
+      <c r="I72" s="81">
+        <v>6932</v>
       </c>
       <c r="J72" s="39" t="s">
         <v>170</v>
       </c>
       <c r="K72" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L72" s="23">
-        <v>45677</v>
-      </c>
-      <c r="M72" s="154"/>
-      <c r="N72" s="158"/>
-      <c r="O72" s="112"/>
-      <c r="P72" s="125"/>
-      <c r="Q72" s="115"/>
-      <c r="R72" s="122"/>
-      <c r="S72" s="126"/>
-      <c r="T72" s="127"/>
-      <c r="U72" s="130"/>
+        <v>45667</v>
+      </c>
+      <c r="M72" s="158"/>
+      <c r="N72" s="162"/>
+      <c r="O72" s="120"/>
+      <c r="P72" s="133"/>
+      <c r="Q72" s="123"/>
+      <c r="R72" s="130"/>
+      <c r="S72" s="134"/>
+      <c r="T72" s="135"/>
+      <c r="U72" s="118"/>
     </row>
     <row r="73" spans="2:21" ht="15.75" customHeight="1">
       <c r="B73" s="10">
@@ -4931,39 +4946,39 @@
       <c r="E73" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F73" s="108">
+      <c r="F73" s="110">
         <v>45845</v>
       </c>
-      <c r="H73" s="102">
-        <v>13</v>
-      </c>
-      <c r="I73" s="81">
-        <v>6932</v>
-      </c>
-      <c r="J73" s="39" t="s">
+      <c r="H73" s="104">
+        <v>14</v>
+      </c>
+      <c r="I73" s="22">
+        <v>6958</v>
+      </c>
+      <c r="J73" s="90" t="s">
         <v>172</v>
       </c>
       <c r="K73" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="L73" s="23">
-        <v>45667</v>
-      </c>
-      <c r="M73" s="154"/>
-      <c r="N73" s="158"/>
-      <c r="O73" s="112"/>
-      <c r="P73" s="125"/>
-      <c r="Q73" s="113"/>
-      <c r="R73" s="119"/>
-      <c r="S73" s="126"/>
-      <c r="T73" s="127"/>
-      <c r="U73" s="130"/>
+        <v>148</v>
+      </c>
+      <c r="L73" s="82">
+        <v>45705</v>
+      </c>
+      <c r="M73" s="158"/>
+      <c r="N73" s="162"/>
+      <c r="O73" s="120"/>
+      <c r="P73" s="133"/>
+      <c r="Q73" s="121"/>
+      <c r="R73" s="127"/>
+      <c r="S73" s="134"/>
+      <c r="T73" s="135"/>
+      <c r="U73" s="118"/>
     </row>
     <row r="74" spans="2:21" ht="15.75" customHeight="1">
       <c r="B74" s="10">
         <v>18</v>
       </c>
-      <c r="C74" s="180">
+      <c r="C74" s="182">
         <v>7328</v>
       </c>
       <c r="D74" s="73" t="s">
@@ -4972,33 +4987,33 @@
       <c r="E74" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F74" s="108">
+      <c r="F74" s="110">
         <v>45852</v>
       </c>
-      <c r="H74" s="102">
-        <v>14</v>
-      </c>
-      <c r="I74" s="22">
-        <v>6958</v>
-      </c>
-      <c r="J74" s="88" t="s">
+      <c r="H74" s="104">
+        <v>15</v>
+      </c>
+      <c r="I74" s="52">
+        <v>6977</v>
+      </c>
+      <c r="J74" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="K74" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="L74" s="82">
-        <v>45705</v>
-      </c>
-      <c r="M74" s="154"/>
-      <c r="N74" s="158"/>
-      <c r="O74" s="112"/>
-      <c r="P74" s="123"/>
-      <c r="Q74" s="117"/>
-      <c r="R74" s="122"/>
-      <c r="S74" s="126"/>
-      <c r="T74" s="127"/>
-      <c r="U74" s="130"/>
+      <c r="K74" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L74" s="23">
+        <v>45712</v>
+      </c>
+      <c r="M74" s="158"/>
+      <c r="N74" s="162"/>
+      <c r="O74" s="120"/>
+      <c r="P74" s="131"/>
+      <c r="Q74" s="125"/>
+      <c r="R74" s="130"/>
+      <c r="S74" s="134"/>
+      <c r="T74" s="135"/>
+      <c r="U74" s="118"/>
     </row>
     <row r="75" spans="2:21" ht="15.75" customHeight="1">
       <c r="B75" s="10">
@@ -5007,39 +5022,39 @@
       <c r="C75" s="33">
         <v>7338</v>
       </c>
-      <c r="D75" s="88" t="s">
+      <c r="D75" s="90" t="s">
         <v>175</v>
       </c>
       <c r="E75" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F75" s="108">
+      <c r="F75" s="110">
         <v>45859</v>
       </c>
-      <c r="H75" s="102">
-        <v>15</v>
+      <c r="H75" s="104">
+        <v>16</v>
       </c>
       <c r="I75" s="52">
-        <v>6977</v>
+        <v>7015</v>
       </c>
       <c r="J75" s="46" t="s">
         <v>176</v>
       </c>
       <c r="K75" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="L75" s="23">
-        <v>45712</v>
-      </c>
-      <c r="M75" s="154"/>
-      <c r="N75" s="158"/>
-      <c r="O75" s="112"/>
-      <c r="P75" s="123"/>
-      <c r="Q75" s="120"/>
-      <c r="R75" s="119"/>
-      <c r="S75" s="126"/>
-      <c r="T75" s="127"/>
-      <c r="U75" s="130"/>
+        <v>156</v>
+      </c>
+      <c r="L75" s="82">
+        <v>45726</v>
+      </c>
+      <c r="M75" s="158"/>
+      <c r="N75" s="162"/>
+      <c r="O75" s="120"/>
+      <c r="P75" s="131"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="127"/>
+      <c r="S75" s="134"/>
+      <c r="T75" s="135"/>
+      <c r="U75" s="118"/>
     </row>
     <row r="76" spans="2:21" ht="15.75" customHeight="1">
       <c r="B76" s="10">
@@ -5048,81 +5063,81 @@
       <c r="C76" s="33">
         <v>7331</v>
       </c>
-      <c r="D76" s="88" t="s">
+      <c r="D76" s="90" t="s">
         <v>177</v>
       </c>
       <c r="E76" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F76" s="108">
+      <c r="F76" s="110">
         <v>45859</v>
       </c>
-      <c r="H76" s="102">
-        <v>16</v>
+      <c r="H76" s="104">
+        <v>17</v>
       </c>
       <c r="I76" s="52">
-        <v>7015</v>
+        <v>7128</v>
       </c>
       <c r="J76" s="46" t="s">
         <v>178</v>
       </c>
       <c r="K76" s="46" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L76" s="82">
-        <v>45726</v>
-      </c>
-      <c r="M76" s="154"/>
-      <c r="N76" s="158"/>
-      <c r="O76" s="112"/>
-      <c r="P76" s="116"/>
-      <c r="Q76" s="117"/>
-      <c r="R76" s="122"/>
-      <c r="S76" s="126"/>
-      <c r="T76" s="127"/>
-      <c r="U76" s="130"/>
+        <v>45769</v>
+      </c>
+      <c r="M76" s="158"/>
+      <c r="N76" s="162"/>
+      <c r="O76" s="120"/>
+      <c r="P76" s="124"/>
+      <c r="Q76" s="125"/>
+      <c r="R76" s="130"/>
+      <c r="S76" s="134"/>
+      <c r="T76" s="135"/>
+      <c r="U76" s="118"/>
     </row>
     <row r="77" spans="2:21" ht="15.75" customHeight="1">
       <c r="B77" s="10">
         <v>21</v>
       </c>
-      <c r="C77" s="181">
+      <c r="C77" s="183">
         <v>7335</v>
       </c>
-      <c r="D77" s="182" t="s">
+      <c r="D77" s="184" t="s">
         <v>179</v>
       </c>
       <c r="E77" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="F77" s="183">
+      <c r="F77" s="185">
         <v>45859</v>
       </c>
-      <c r="G77" s="132"/>
-      <c r="H77" s="102">
-        <v>17</v>
+      <c r="G77" s="136"/>
+      <c r="H77" s="104">
+        <v>18</v>
       </c>
       <c r="I77" s="52">
-        <v>7128</v>
+        <v>7130</v>
       </c>
       <c r="J77" s="46" t="s">
         <v>180</v>
       </c>
       <c r="K77" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L77" s="82">
         <v>45769</v>
       </c>
-      <c r="M77" s="154"/>
-      <c r="N77" s="158"/>
-      <c r="O77" s="112"/>
-      <c r="P77" s="125"/>
-      <c r="Q77" s="115"/>
-      <c r="R77" s="122"/>
-      <c r="S77" s="126"/>
-      <c r="T77" s="127"/>
-      <c r="U77" s="130"/>
+      <c r="M77" s="158"/>
+      <c r="N77" s="162"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="133"/>
+      <c r="Q77" s="123"/>
+      <c r="R77" s="130"/>
+      <c r="S77" s="134"/>
+      <c r="T77" s="135"/>
+      <c r="U77" s="118"/>
     </row>
     <row r="78" spans="2:21" ht="15.75" customHeight="1">
       <c r="B78" s="10">
@@ -5131,40 +5146,40 @@
       <c r="C78" s="33">
         <v>7337</v>
       </c>
-      <c r="D78" s="88" t="s">
+      <c r="D78" s="90" t="s">
         <v>181</v>
       </c>
       <c r="E78" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F78" s="108">
+      <c r="F78" s="110">
         <v>45859</v>
       </c>
-      <c r="G78" s="132"/>
-      <c r="H78" s="102">
-        <v>18</v>
+      <c r="G78" s="136"/>
+      <c r="H78" s="104">
+        <v>19</v>
       </c>
       <c r="I78" s="52">
-        <v>7130</v>
-      </c>
-      <c r="J78" s="46" t="s">
+        <v>7299</v>
+      </c>
+      <c r="J78" s="79" t="s">
         <v>182</v>
       </c>
       <c r="K78" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L78" s="82">
-        <v>45769</v>
-      </c>
-      <c r="M78" s="154"/>
-      <c r="N78" s="158"/>
-      <c r="O78" s="112"/>
-      <c r="P78" s="125"/>
-      <c r="Q78" s="115"/>
-      <c r="R78" s="122"/>
-      <c r="S78" s="126"/>
-      <c r="T78" s="127"/>
-      <c r="U78" s="130"/>
+        <v>45839</v>
+      </c>
+      <c r="M78" s="158"/>
+      <c r="N78" s="162"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="133"/>
+      <c r="Q78" s="123"/>
+      <c r="R78" s="130"/>
+      <c r="S78" s="134"/>
+      <c r="T78" s="135"/>
+      <c r="U78" s="118"/>
     </row>
     <row r="79" spans="2:21" ht="15.75" customHeight="1">
       <c r="B79" s="10">
@@ -5179,34 +5194,34 @@
       <c r="E79" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F79" s="108">
+      <c r="F79" s="110">
         <v>45859</v>
       </c>
-      <c r="G79" s="132"/>
-      <c r="H79" s="102">
-        <v>19</v>
-      </c>
-      <c r="I79" s="52">
-        <v>7299</v>
+      <c r="G79" s="136"/>
+      <c r="H79" s="104">
+        <v>20</v>
+      </c>
+      <c r="I79" s="22">
+        <v>7345</v>
       </c>
       <c r="J79" s="79" t="s">
         <v>184</v>
       </c>
       <c r="K79" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="L79" s="82">
-        <v>45839</v>
-      </c>
-      <c r="M79" s="154"/>
-      <c r="N79" s="158"/>
-      <c r="O79" s="124"/>
-      <c r="P79" s="120"/>
-      <c r="Q79" s="113"/>
-      <c r="R79" s="119"/>
-      <c r="S79" s="126"/>
-      <c r="T79" s="127"/>
-      <c r="U79" s="130"/>
+        <v>105</v>
+      </c>
+      <c r="L79" s="83">
+        <v>45859</v>
+      </c>
+      <c r="M79" s="158"/>
+      <c r="N79" s="162"/>
+      <c r="O79" s="132"/>
+      <c r="P79" s="128"/>
+      <c r="Q79" s="121"/>
+      <c r="R79" s="127"/>
+      <c r="S79" s="134"/>
+      <c r="T79" s="135"/>
+      <c r="U79" s="118"/>
     </row>
     <row r="80" spans="2:21" ht="15.75" customHeight="1">
       <c r="B80" s="10">
@@ -5221,40 +5236,40 @@
       <c r="E80" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F80" s="108">
+      <c r="F80" s="110">
         <v>45859</v>
       </c>
-      <c r="G80" s="132"/>
-      <c r="H80" s="102">
-        <v>20</v>
-      </c>
-      <c r="I80" s="22">
-        <v>7345</v>
+      <c r="G80" s="136"/>
+      <c r="H80" s="104">
+        <v>21</v>
+      </c>
+      <c r="I80" s="33">
+        <v>7412</v>
       </c>
       <c r="J80" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="K80" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="L80" s="83">
-        <v>45859</v>
-      </c>
-      <c r="M80" s="154"/>
-      <c r="N80" s="158"/>
-      <c r="O80" s="124"/>
-      <c r="P80" s="120"/>
-      <c r="Q80" s="113"/>
-      <c r="R80" s="119"/>
-      <c r="S80" s="126"/>
-      <c r="T80" s="127"/>
-      <c r="U80" s="130"/>
+      <c r="K80" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="L80" s="85">
+        <v>45887</v>
+      </c>
+      <c r="M80" s="158"/>
+      <c r="N80" s="162"/>
+      <c r="O80" s="132"/>
+      <c r="P80" s="128"/>
+      <c r="Q80" s="121"/>
+      <c r="R80" s="127"/>
+      <c r="S80" s="134"/>
+      <c r="T80" s="135"/>
+      <c r="U80" s="118"/>
     </row>
     <row r="81" spans="2:21" ht="15.75" customHeight="1">
       <c r="B81" s="10">
         <v>25</v>
       </c>
-      <c r="C81" s="180">
+      <c r="C81" s="182">
         <v>7336</v>
       </c>
       <c r="D81" s="87" t="s">
@@ -5263,34 +5278,34 @@
       <c r="E81" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F81" s="108">
+      <c r="F81" s="110">
         <v>45859</v>
       </c>
-      <c r="G81" s="132"/>
-      <c r="H81" s="102">
-        <v>21</v>
+      <c r="G81" s="136"/>
+      <c r="H81" s="104">
+        <v>22</v>
       </c>
       <c r="I81" s="33">
-        <v>7412</v>
+        <v>7446</v>
       </c>
       <c r="J81" s="79" t="s">
         <v>188</v>
       </c>
       <c r="K81" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="L81" s="85">
-        <v>45887</v>
-      </c>
-      <c r="M81" s="154"/>
-      <c r="N81" s="158"/>
-      <c r="O81" s="112"/>
-      <c r="P81" s="123"/>
-      <c r="Q81" s="123"/>
-      <c r="R81" s="122"/>
-      <c r="S81" s="126"/>
-      <c r="T81" s="127"/>
-      <c r="U81" s="130"/>
+        <v>143</v>
+      </c>
+      <c r="L81" s="83">
+        <v>45901</v>
+      </c>
+      <c r="M81" s="158"/>
+      <c r="N81" s="162"/>
+      <c r="O81" s="120"/>
+      <c r="P81" s="131"/>
+      <c r="Q81" s="131"/>
+      <c r="R81" s="130"/>
+      <c r="S81" s="134"/>
+      <c r="T81" s="135"/>
+      <c r="U81" s="118"/>
     </row>
     <row r="82" spans="2:21" ht="15.75" customHeight="1">
       <c r="B82" s="10">
@@ -5305,34 +5320,34 @@
       <c r="E82" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F82" s="108">
+      <c r="F82" s="110">
         <v>45866</v>
       </c>
-      <c r="G82" s="132"/>
-      <c r="H82" s="102">
-        <v>22</v>
+      <c r="G82" s="136"/>
+      <c r="H82" s="104">
+        <v>23</v>
       </c>
       <c r="I82" s="33">
-        <v>7446</v>
+        <v>7450</v>
       </c>
       <c r="J82" s="79" t="s">
         <v>190</v>
       </c>
       <c r="K82" s="79" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L82" s="83">
         <v>45901</v>
       </c>
-      <c r="M82" s="154"/>
-      <c r="N82" s="158"/>
-      <c r="O82" s="118"/>
-      <c r="P82" s="113"/>
-      <c r="Q82" s="113"/>
-      <c r="R82" s="122"/>
-      <c r="S82" s="126"/>
-      <c r="T82" s="127"/>
-      <c r="U82" s="130"/>
+      <c r="M82" s="158"/>
+      <c r="N82" s="162"/>
+      <c r="O82" s="126"/>
+      <c r="P82" s="121"/>
+      <c r="Q82" s="121"/>
+      <c r="R82" s="130"/>
+      <c r="S82" s="134"/>
+      <c r="T82" s="135"/>
+      <c r="U82" s="118"/>
     </row>
     <row r="83" spans="2:21" ht="15.75" customHeight="1">
       <c r="B83" s="10">
@@ -5347,60 +5362,65 @@
       <c r="E83" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F83" s="108">
+      <c r="F83" s="110">
         <v>45866</v>
       </c>
-      <c r="H83" s="102">
-        <v>23</v>
-      </c>
-      <c r="I83" s="33">
-        <v>7450</v>
-      </c>
-      <c r="J83" s="79" t="s">
+      <c r="H83" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="K83" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="L83" s="83">
-        <v>45901</v>
-      </c>
-      <c r="M83" s="133"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="130"/>
-      <c r="Q83" s="131"/>
-      <c r="R83" s="130"/>
-      <c r="S83" s="154"/>
-      <c r="T83" s="130"/>
+      <c r="I83" s="174"/>
+      <c r="J83" s="174"/>
+      <c r="K83" s="174"/>
+      <c r="L83" s="175"/>
+      <c r="M83" s="158"/>
+      <c r="N83" s="187"/>
+      <c r="O83" s="132"/>
+      <c r="P83" s="128"/>
+      <c r="Q83" s="128"/>
+      <c r="R83" s="119"/>
+      <c r="S83" s="134"/>
+      <c r="T83" s="135"/>
+      <c r="U83" s="118"/>
     </row>
     <row r="84" spans="2:21" ht="15.75" customHeight="1">
       <c r="B84" s="10">
         <v>28</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="88">
         <v>7392</v>
       </c>
-      <c r="D84" s="87" t="s">
+      <c r="D84" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="F84" s="108">
+      <c r="F84" s="188">
         <v>45873</v>
       </c>
-      <c r="H84" s="184" t="s">
+      <c r="H84" s="189">
+        <v>1</v>
+      </c>
+      <c r="I84" s="189">
+        <v>6968</v>
+      </c>
+      <c r="J84" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="I84" s="171"/>
-      <c r="J84" s="171"/>
-      <c r="K84" s="171"/>
-      <c r="L84" s="172"/>
-      <c r="M84" s="133"/>
-      <c r="N84" s="133"/>
-      <c r="O84" s="133"/>
-      <c r="S84" s="133"/>
+      <c r="K84" s="191" t="s">
+        <v>195</v>
+      </c>
+      <c r="L84" s="192">
+        <v>45712</v>
+      </c>
+      <c r="M84" s="137"/>
+      <c r="N84" s="158"/>
+      <c r="O84" s="158"/>
+      <c r="P84" s="118"/>
+      <c r="Q84" s="118"/>
+      <c r="R84" s="118"/>
+      <c r="S84" s="158"/>
+      <c r="T84" s="118"/>
     </row>
     <row r="85" spans="2:21" ht="15.75" customHeight="1">
       <c r="B85" s="10">
@@ -5409,40 +5429,40 @@
       <c r="C85" s="33">
         <v>7383</v>
       </c>
-      <c r="D85" s="88" t="s">
-        <v>195</v>
+      <c r="D85" s="90" t="s">
+        <v>196</v>
       </c>
       <c r="E85" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="108">
+      <c r="F85" s="110">
         <v>45873</v>
       </c>
-      <c r="H85" s="185">
+      <c r="H85" s="91">
         <v>1</v>
       </c>
-      <c r="I85" s="185">
-        <v>6968</v>
-      </c>
-      <c r="J85" s="186" t="s">
-        <v>196</v>
-      </c>
-      <c r="K85" s="187" t="s">
+      <c r="I85" s="91">
+        <v>6784</v>
+      </c>
+      <c r="J85" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="L85" s="188">
-        <v>45712</v>
-      </c>
-      <c r="M85" s="133"/>
-      <c r="N85" s="133"/>
-      <c r="O85" s="133"/>
-      <c r="S85" s="133"/>
+      <c r="K85" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="L85" s="94">
+        <v>45614</v>
+      </c>
+      <c r="M85" s="137"/>
+      <c r="N85" s="137"/>
+      <c r="O85" s="137"/>
+      <c r="S85" s="137"/>
     </row>
     <row r="86" spans="2:21" ht="15.75" customHeight="1">
       <c r="B86" s="10">
         <v>30</v>
       </c>
-      <c r="C86" s="99">
+      <c r="C86" s="102">
         <v>7409</v>
       </c>
       <c r="D86" s="79" t="s">
@@ -5451,34 +5471,34 @@
       <c r="E86" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F86" s="108">
+      <c r="F86" s="110">
         <v>45887</v>
       </c>
-      <c r="H86" s="89">
-        <v>1</v>
-      </c>
-      <c r="I86" s="89">
-        <v>6784</v>
-      </c>
-      <c r="J86" s="90" t="s">
+      <c r="H86" s="91">
+        <v>2</v>
+      </c>
+      <c r="I86" s="91">
+        <v>7456</v>
+      </c>
+      <c r="J86" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="K86" s="91" t="s">
+      <c r="K86" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="L86" s="92">
-        <v>45614</v>
-      </c>
-      <c r="M86" s="133"/>
-      <c r="N86" s="133"/>
-      <c r="O86" s="133"/>
-      <c r="S86" s="133"/>
+      <c r="L86" s="94">
+        <v>45901</v>
+      </c>
+      <c r="M86" s="137"/>
+      <c r="N86" s="137"/>
+      <c r="O86" s="137"/>
+      <c r="S86" s="137"/>
     </row>
     <row r="87" spans="2:21" ht="15.75" customHeight="1">
       <c r="B87" s="10">
         <v>31</v>
       </c>
-      <c r="C87" s="99">
+      <c r="C87" s="102">
         <v>7418</v>
       </c>
       <c r="D87" s="79" t="s">
@@ -5487,34 +5507,34 @@
       <c r="E87" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F87" s="108">
+      <c r="F87" s="110">
         <v>45887</v>
       </c>
-      <c r="H87" s="89">
-        <v>2</v>
-      </c>
-      <c r="I87" s="89">
-        <v>7456</v>
-      </c>
-      <c r="J87" s="93" t="s">
+      <c r="H87" s="91">
+        <v>3</v>
+      </c>
+      <c r="I87" s="91">
+        <v>6966</v>
+      </c>
+      <c r="J87" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="K87" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="L87" s="92">
-        <v>45901</v>
-      </c>
-      <c r="M87" s="133"/>
-      <c r="N87" s="133"/>
-      <c r="O87" s="133"/>
-      <c r="S87" s="133"/>
+      <c r="K87" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="L87" s="94">
+        <v>45712</v>
+      </c>
+      <c r="M87" s="137"/>
+      <c r="N87" s="137"/>
+      <c r="O87" s="137"/>
+      <c r="S87" s="137"/>
     </row>
     <row r="88" spans="2:21" ht="15.75" customHeight="1">
       <c r="B88" s="10">
         <v>32</v>
       </c>
-      <c r="C88" s="99">
+      <c r="C88" s="102">
         <v>7422</v>
       </c>
       <c r="D88" s="80" t="s">
@@ -5523,34 +5543,34 @@
       <c r="E88" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F88" s="108">
+      <c r="F88" s="110">
         <v>45887</v>
       </c>
-      <c r="H88" s="89">
-        <v>3</v>
-      </c>
-      <c r="I88" s="89">
-        <v>6966</v>
-      </c>
-      <c r="J88" s="95" t="s">
+      <c r="H88" s="193">
+        <v>1</v>
+      </c>
+      <c r="I88" s="98">
+        <v>6059</v>
+      </c>
+      <c r="J88" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="K88" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="L88" s="92">
-        <v>45712</v>
-      </c>
-      <c r="M88" s="133"/>
-      <c r="N88" s="133"/>
-      <c r="O88" s="133"/>
-      <c r="S88" s="133"/>
+      <c r="K88" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="L88" s="100">
+        <v>44613</v>
+      </c>
+      <c r="M88" s="137"/>
+      <c r="N88" s="137"/>
+      <c r="O88" s="137"/>
+      <c r="S88" s="137"/>
     </row>
     <row r="89" spans="2:21" ht="15.75" customHeight="1">
       <c r="B89" s="10">
         <v>33</v>
       </c>
-      <c r="C89" s="99">
+      <c r="C89" s="102">
         <v>7413</v>
       </c>
       <c r="D89" s="80" t="s">
@@ -5559,57 +5579,51 @@
       <c r="E89" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="108">
+      <c r="F89" s="110">
         <v>45887</v>
       </c>
-      <c r="H89" s="189">
-        <v>1</v>
-      </c>
-      <c r="I89" s="96">
-        <v>6059</v>
-      </c>
-      <c r="J89" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="K89" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="L89" s="98">
-        <v>44613</v>
-      </c>
-      <c r="M89" s="133"/>
-      <c r="N89" s="133"/>
-      <c r="O89" s="133"/>
-      <c r="S89" s="133"/>
+      <c r="H89" s="117"/>
+      <c r="L89" s="137"/>
+      <c r="M89" s="137"/>
+      <c r="N89" s="137"/>
+      <c r="O89" s="137"/>
+      <c r="S89" s="137"/>
     </row>
     <row r="90" spans="2:21" ht="15.75" customHeight="1">
       <c r="B90" s="10">
         <v>34</v>
       </c>
-      <c r="C90" s="99">
+      <c r="C90" s="102">
         <v>7416</v>
       </c>
       <c r="D90" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F90" s="108">
+      <c r="F90" s="110">
         <v>45887</v>
       </c>
-      <c r="H90" s="131"/>
-      <c r="L90" s="133"/>
-      <c r="M90" s="133"/>
-      <c r="N90" s="133"/>
-      <c r="O90" s="133"/>
-      <c r="S90" s="133"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="194"/>
+      <c r="J90" s="195" t="s">
+        <v>206</v>
+      </c>
+      <c r="K90" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="L90" s="137"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="137"/>
+      <c r="O90" s="137"/>
+      <c r="S90" s="137"/>
     </row>
     <row r="91" spans="2:21" ht="15.75" customHeight="1">
       <c r="B91" s="10">
         <v>35</v>
       </c>
-      <c r="C91" s="99">
+      <c r="C91" s="102">
         <v>7418</v>
       </c>
       <c r="D91" s="79" t="s">
@@ -5618,112 +5632,110 @@
       <c r="E91" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F91" s="108">
+      <c r="F91" s="110">
         <v>45894</v>
       </c>
-      <c r="H91" s="133"/>
-      <c r="I91" s="190"/>
-      <c r="J91" s="191" t="s">
-        <v>207</v>
-      </c>
-      <c r="K91" s="100" t="s">
+      <c r="H91" s="137"/>
+      <c r="I91" s="196"/>
+      <c r="J91" s="195" t="s">
         <v>208</v>
       </c>
-      <c r="L91" s="133"/>
-      <c r="M91" s="133"/>
-      <c r="N91" s="133"/>
-      <c r="O91" s="133"/>
-      <c r="S91" s="133"/>
+      <c r="K91" s="197" t="s">
+        <v>209</v>
+      </c>
+      <c r="L91" s="137"/>
+      <c r="M91" s="137"/>
+      <c r="N91" s="137"/>
+      <c r="O91" s="137"/>
+      <c r="S91" s="137"/>
     </row>
     <row r="92" spans="2:21" ht="15.75" customHeight="1">
       <c r="B92" s="10">
         <v>36</v>
       </c>
-      <c r="C92" s="99">
+      <c r="C92" s="102">
         <v>7432</v>
       </c>
       <c r="D92" s="79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F92" s="108">
+      <c r="F92" s="110">
         <v>45894</v>
       </c>
-      <c r="H92" s="133"/>
-      <c r="I92" s="192"/>
-      <c r="J92" s="191" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92" s="193" t="s">
+      <c r="H92" s="137"/>
+      <c r="I92" s="198"/>
+      <c r="J92" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="L92" s="133"/>
-      <c r="M92" s="133"/>
-      <c r="N92" s="133"/>
-      <c r="O92" s="133"/>
-      <c r="S92" s="133"/>
+      <c r="K92" s="199" t="s">
+        <v>212</v>
+      </c>
+      <c r="L92" s="137"/>
+      <c r="M92" s="137"/>
+      <c r="N92" s="137"/>
+      <c r="O92" s="137"/>
+      <c r="S92" s="137"/>
     </row>
     <row r="93" spans="2:21" ht="15.75" customHeight="1">
       <c r="B93" s="10">
         <v>37</v>
       </c>
-      <c r="C93" s="99">
+      <c r="C93" s="102">
         <v>7435</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E93" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F93" s="108">
+      <c r="F93" s="110">
         <v>45894</v>
       </c>
-      <c r="H93" s="133"/>
-      <c r="I93" s="194"/>
-      <c r="J93" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="K93" s="195" t="s">
+      <c r="H93" s="137"/>
+      <c r="I93" s="200"/>
+      <c r="J93" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="L93" s="133"/>
-      <c r="M93" s="133"/>
-      <c r="N93" s="133"/>
-      <c r="O93" s="133"/>
-      <c r="S93" s="133"/>
+      <c r="K93" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L93" s="137"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="137"/>
+      <c r="O93" s="137"/>
+      <c r="S93" s="137"/>
     </row>
     <row r="94" spans="2:21" ht="15.75" customHeight="1">
       <c r="B94" s="10">
         <v>38</v>
       </c>
-      <c r="C94" s="99">
+      <c r="C94" s="102">
         <v>7434</v>
       </c>
       <c r="D94" s="79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E94" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F94" s="108">
+      <c r="F94" s="110">
         <v>45894</v>
       </c>
-      <c r="H94" s="133"/>
-      <c r="I94" s="196"/>
-      <c r="J94" s="191" t="s">
-        <v>216</v>
-      </c>
-      <c r="K94" s="1" t="s">
+      <c r="H94" s="137"/>
+      <c r="I94" s="201"/>
+      <c r="J94" s="195" t="s">
         <v>217</v>
       </c>
-      <c r="L94" s="133"/>
-      <c r="M94" s="133"/>
-      <c r="N94" s="133"/>
-      <c r="O94" s="133"/>
-      <c r="S94" s="133"/>
+      <c r="K94" s="137"/>
+      <c r="L94" s="137"/>
+      <c r="M94" s="137"/>
+      <c r="N94" s="137"/>
+      <c r="O94" s="137"/>
+      <c r="S94" s="137"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="10">
@@ -5732,26 +5744,26 @@
       <c r="C95" s="33">
         <v>7460</v>
       </c>
-      <c r="D95" s="88" t="s">
+      <c r="D95" s="90" t="s">
         <v>218</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F95" s="108">
+      <c r="F95" s="110">
         <v>45901</v>
       </c>
-      <c r="H95" s="133"/>
-      <c r="I95" s="197"/>
-      <c r="J95" s="191" t="s">
+      <c r="H95" s="137"/>
+      <c r="I95" s="202"/>
+      <c r="J95" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="K95" s="133"/>
-      <c r="L95" s="133"/>
-      <c r="M95" s="133"/>
-      <c r="N95" s="133"/>
-      <c r="O95" s="133"/>
-      <c r="S95" s="133"/>
+      <c r="K95" s="137"/>
+      <c r="L95" s="137"/>
+      <c r="M95" s="137"/>
+      <c r="N95" s="137"/>
+      <c r="O95" s="137"/>
+      <c r="S95" s="137"/>
     </row>
     <row r="96" spans="2:21" ht="15.75" customHeight="1">
       <c r="B96" s="10">
@@ -5766,20 +5778,16 @@
       <c r="E96" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F96" s="108">
+      <c r="F96" s="110">
         <v>45901</v>
       </c>
-      <c r="H96" s="133"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="K96" s="133"/>
-      <c r="L96" s="133"/>
-      <c r="M96" s="133"/>
-      <c r="N96" s="133"/>
-      <c r="O96" s="133"/>
-      <c r="S96" s="133"/>
+      <c r="H96" s="137"/>
+      <c r="K96" s="137"/>
+      <c r="L96" s="137"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="137"/>
+      <c r="O96" s="137"/>
+      <c r="S96" s="137"/>
     </row>
     <row r="97" spans="2:19" ht="15.75" customHeight="1">
       <c r="B97" s="10">
@@ -5789,21 +5797,23 @@
         <v>7438</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E97" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="F97" s="173">
+      <c r="F97" s="176">
         <v>45901</v>
       </c>
-      <c r="H97" s="133"/>
-      <c r="K97" s="133"/>
-      <c r="L97" s="133"/>
-      <c r="M97" s="133"/>
-      <c r="N97" s="133"/>
-      <c r="O97" s="133"/>
-      <c r="S97" s="133"/>
+      <c r="H97" s="137"/>
+      <c r="I97" s="137"/>
+      <c r="J97" s="137"/>
+      <c r="K97" s="137"/>
+      <c r="L97" s="137"/>
+      <c r="M97" s="137"/>
+      <c r="N97" s="137"/>
+      <c r="O97" s="137"/>
+      <c r="S97" s="137"/>
     </row>
     <row r="98" spans="2:19" ht="15.75" customHeight="1">
       <c r="B98" s="10">
@@ -5813,23 +5823,25 @@
         <v>7452</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E98" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="173">
+      <c r="F98" s="176">
         <v>45901</v>
       </c>
-      <c r="H98" s="133"/>
-      <c r="I98" s="133"/>
-      <c r="J98" s="133"/>
-      <c r="K98" s="133"/>
-      <c r="L98" s="133"/>
-      <c r="M98" s="133"/>
-      <c r="N98" s="133"/>
-      <c r="O98" s="133"/>
-      <c r="S98" s="133"/>
+      <c r="H98" s="203" t="s">
+        <v>223</v>
+      </c>
+      <c r="I98" s="174"/>
+      <c r="J98" s="174"/>
+      <c r="K98" s="174"/>
+      <c r="L98" s="175"/>
+      <c r="M98" s="137"/>
+      <c r="N98" s="137"/>
+      <c r="O98" s="137"/>
+      <c r="S98" s="137"/>
     </row>
     <row r="99" spans="2:19" ht="15.75" customHeight="1">
       <c r="B99" s="10">
@@ -5838,26 +5850,34 @@
       <c r="C99" s="33">
         <v>7458</v>
       </c>
-      <c r="D99" s="101" t="s">
+      <c r="D99" s="103" t="s">
         <v>224</v>
       </c>
       <c r="E99" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F99" s="108">
+      <c r="F99" s="110">
         <v>45901</v>
       </c>
-      <c r="H99" s="199" t="s">
+      <c r="H99" s="104">
+        <v>1</v>
+      </c>
+      <c r="I99" s="33">
+        <v>7180</v>
+      </c>
+      <c r="J99" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="I99" s="171"/>
-      <c r="J99" s="171"/>
-      <c r="K99" s="171"/>
-      <c r="L99" s="172"/>
-      <c r="M99" s="133"/>
-      <c r="N99" s="133"/>
-      <c r="O99" s="133"/>
-      <c r="S99" s="133"/>
+      <c r="K99" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L99" s="83">
+        <v>45789</v>
+      </c>
+      <c r="M99" s="137"/>
+      <c r="N99" s="137"/>
+      <c r="O99" s="137"/>
+      <c r="S99" s="137"/>
     </row>
     <row r="100" spans="2:19" ht="15.75" customHeight="1">
       <c r="B100" s="10">
@@ -5866,94 +5886,94 @@
       <c r="C100" s="33">
         <v>7451</v>
       </c>
-      <c r="D100" s="88" t="s">
+      <c r="D100" s="90" t="s">
         <v>226</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F100" s="108">
+      <c r="F100" s="110">
         <v>45901</v>
       </c>
-      <c r="H100" s="102">
-        <v>1</v>
+      <c r="H100" s="104">
+        <v>2</v>
       </c>
       <c r="I100" s="33">
-        <v>7180</v>
-      </c>
-      <c r="J100" s="88" t="s">
+        <v>7170</v>
+      </c>
+      <c r="J100" s="39" t="s">
         <v>227</v>
       </c>
       <c r="K100" s="40" t="s">
         <v>102</v>
       </c>
       <c r="L100" s="83">
-        <v>45789</v>
-      </c>
-      <c r="M100" s="133"/>
-      <c r="N100" s="133"/>
-      <c r="O100" s="133"/>
-      <c r="S100" s="133"/>
+        <v>45782</v>
+      </c>
+      <c r="M100" s="137"/>
+      <c r="N100" s="137"/>
+      <c r="O100" s="137"/>
+      <c r="S100" s="137"/>
     </row>
     <row r="101" spans="2:19" ht="15.75" customHeight="1">
       <c r="B101" s="10">
         <v>45</v>
       </c>
-      <c r="C101" s="103">
+      <c r="C101" s="105">
         <v>7445</v>
       </c>
-      <c r="D101" s="104" t="s">
+      <c r="D101" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="E101" s="105" t="s">
+      <c r="E101" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F101" s="200">
+      <c r="F101" s="204">
         <v>45901</v>
       </c>
-      <c r="H101" s="102">
-        <v>2</v>
+      <c r="H101" s="104">
+        <v>3</v>
       </c>
       <c r="I101" s="33">
-        <v>7170</v>
-      </c>
-      <c r="J101" s="39" t="s">
+        <v>7176</v>
+      </c>
+      <c r="J101" s="90" t="s">
         <v>229</v>
       </c>
       <c r="K101" s="40" t="s">
         <v>102</v>
       </c>
       <c r="L101" s="83">
-        <v>45782</v>
-      </c>
-      <c r="M101" s="133"/>
-      <c r="N101" s="133"/>
-      <c r="O101" s="133"/>
-      <c r="S101" s="133"/>
+        <v>45789</v>
+      </c>
+      <c r="M101" s="137"/>
+      <c r="N101" s="137"/>
+      <c r="O101" s="137"/>
+      <c r="S101" s="137"/>
     </row>
     <row r="102" spans="2:19" ht="15.75" customHeight="1">
       <c r="B102" s="10">
         <v>46</v>
       </c>
-      <c r="C102" s="180">
+      <c r="C102" s="182">
         <v>7476</v>
       </c>
-      <c r="D102" s="201" t="s">
+      <c r="D102" s="205" t="s">
         <v>230</v>
       </c>
-      <c r="E102" s="106" t="s">
+      <c r="E102" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="F102" s="202">
+      <c r="F102" s="206">
         <v>45915</v>
       </c>
-      <c r="H102" s="102">
-        <v>3</v>
+      <c r="H102" s="104">
+        <v>4</v>
       </c>
       <c r="I102" s="33">
-        <v>7176</v>
-      </c>
-      <c r="J102" s="88" t="s">
+        <v>7175</v>
+      </c>
+      <c r="J102" s="90" t="s">
         <v>231</v>
       </c>
       <c r="K102" s="40" t="s">
@@ -5962,273 +5982,260 @@
       <c r="L102" s="83">
         <v>45789</v>
       </c>
-      <c r="M102" s="133"/>
-      <c r="N102" s="133"/>
-      <c r="O102" s="133"/>
-      <c r="S102" s="133"/>
+      <c r="M102" s="137"/>
+      <c r="N102" s="137"/>
+      <c r="O102" s="137"/>
+      <c r="S102" s="137"/>
     </row>
     <row r="103" spans="2:19" ht="15.75" customHeight="1">
       <c r="B103" s="10">
         <v>47</v>
       </c>
-      <c r="C103" s="203">
+      <c r="C103" s="207">
         <v>7486</v>
       </c>
-      <c r="D103" s="204" t="s">
+      <c r="D103" s="208" t="s">
         <v>232</v>
       </c>
-      <c r="E103" s="107" t="s">
+      <c r="E103" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="F103" s="205">
+      <c r="F103" s="209">
         <v>45915</v>
       </c>
-      <c r="H103" s="102">
-        <v>4</v>
-      </c>
-      <c r="I103" s="33">
-        <v>7175</v>
-      </c>
-      <c r="J103" s="88" t="s">
+      <c r="H103" s="104">
+        <v>5</v>
+      </c>
+      <c r="I103" s="22">
+        <v>7019</v>
+      </c>
+      <c r="J103" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="K103" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="L103" s="83">
-        <v>45789</v>
-      </c>
-      <c r="M103" s="133"/>
-      <c r="N103" s="133"/>
-      <c r="O103" s="133"/>
-      <c r="S103" s="133"/>
+      <c r="K103" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="L103" s="68">
+        <v>45733</v>
+      </c>
+      <c r="M103" s="137"/>
+      <c r="N103" s="137"/>
+      <c r="O103" s="137"/>
+      <c r="S103" s="137"/>
     </row>
     <row r="104" spans="2:19" ht="15.75" customHeight="1">
       <c r="B104" s="1"/>
-      <c r="C104" s="132"/>
-      <c r="E104" s="132"/>
-      <c r="F104" s="132"/>
-      <c r="H104" s="102">
-        <v>5</v>
-      </c>
-      <c r="I104" s="22">
-        <v>7019</v>
-      </c>
-      <c r="J104" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="K104" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="L104" s="68">
-        <v>45733</v>
-      </c>
-      <c r="M104" s="133"/>
-      <c r="N104" s="133"/>
-      <c r="O104" s="133"/>
-      <c r="S104" s="133"/>
+      <c r="C104" s="136"/>
+      <c r="E104" s="136"/>
+      <c r="F104" s="136"/>
+      <c r="H104" s="1"/>
+      <c r="L104" s="137"/>
+      <c r="M104" s="137"/>
+      <c r="N104" s="137"/>
+      <c r="O104" s="137"/>
+      <c r="S104" s="137"/>
     </row>
     <row r="105" spans="2:19" ht="15.75" customHeight="1">
       <c r="B105" s="1"/>
-      <c r="C105" s="132"/>
-      <c r="E105" s="132"/>
-      <c r="F105" s="132"/>
+      <c r="C105" s="136"/>
+      <c r="E105" s="136"/>
+      <c r="F105" s="136"/>
       <c r="H105" s="1"/>
-      <c r="L105" s="133"/>
-      <c r="M105" s="133"/>
-      <c r="N105" s="133"/>
-      <c r="O105" s="133"/>
-      <c r="S105" s="133"/>
+      <c r="I105" s="22">
+        <v>7271</v>
+      </c>
+      <c r="J105" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="K105" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="L105" s="110">
+        <v>45824</v>
+      </c>
+      <c r="M105" s="137"/>
+      <c r="N105" s="137"/>
+      <c r="O105" s="137"/>
+      <c r="S105" s="137"/>
     </row>
     <row r="106" spans="2:19" ht="15.75" customHeight="1">
       <c r="B106" s="1"/>
-      <c r="C106" s="132"/>
-      <c r="E106" s="132"/>
-      <c r="F106" s="132"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="22">
-        <v>7271</v>
-      </c>
-      <c r="J106" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="K106" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="L106" s="108">
-        <v>45824</v>
-      </c>
-      <c r="M106" s="133"/>
-      <c r="N106" s="133"/>
-      <c r="O106" s="133"/>
-      <c r="S106" s="133"/>
+      <c r="C106" s="136"/>
+      <c r="E106" s="136"/>
+      <c r="F106" s="136"/>
+      <c r="H106" s="117"/>
+      <c r="L106" s="137"/>
+      <c r="M106" s="137"/>
+      <c r="N106" s="137"/>
+      <c r="O106" s="137"/>
+      <c r="S106" s="137"/>
     </row>
     <row r="107" spans="2:19" ht="15.75" customHeight="1">
       <c r="B107" s="1"/>
-      <c r="C107" s="132"/>
-      <c r="E107" s="132"/>
-      <c r="F107" s="132"/>
-      <c r="H107" s="131"/>
-      <c r="L107" s="133"/>
-      <c r="M107" s="133"/>
-      <c r="N107" s="133"/>
-      <c r="O107" s="133"/>
-      <c r="S107" s="133"/>
+      <c r="C107" s="136"/>
+      <c r="E107" s="136"/>
+      <c r="F107" s="136"/>
+      <c r="H107" s="117"/>
+      <c r="L107" s="137"/>
+      <c r="M107" s="137"/>
+      <c r="N107" s="137"/>
+      <c r="O107" s="137"/>
+      <c r="S107" s="137"/>
     </row>
     <row r="108" spans="2:19" ht="15.75" customHeight="1">
       <c r="B108" s="1"/>
-      <c r="C108" s="132"/>
-      <c r="E108" s="132"/>
-      <c r="F108" s="132"/>
-      <c r="H108" s="131"/>
-      <c r="L108" s="133"/>
-      <c r="M108" s="133"/>
-      <c r="N108" s="133"/>
-      <c r="O108" s="133"/>
-      <c r="S108" s="133"/>
+      <c r="C108" s="136"/>
+      <c r="E108" s="136"/>
+      <c r="F108" s="136"/>
+      <c r="H108" s="117"/>
+      <c r="L108" s="137"/>
+      <c r="M108" s="137"/>
+      <c r="N108" s="137"/>
+      <c r="O108" s="137"/>
+      <c r="S108" s="137"/>
     </row>
     <row r="109" spans="2:19" ht="15.75" customHeight="1">
       <c r="B109" s="1"/>
-      <c r="C109" s="132"/>
-      <c r="E109" s="132"/>
-      <c r="F109" s="132"/>
-      <c r="H109" s="131"/>
-      <c r="L109" s="133"/>
-      <c r="M109" s="133"/>
-      <c r="N109" s="133"/>
-      <c r="O109" s="133"/>
-      <c r="S109" s="133"/>
+      <c r="C109" s="136"/>
+      <c r="E109" s="136"/>
+      <c r="F109" s="136"/>
+      <c r="H109" s="117"/>
+      <c r="L109" s="137"/>
+      <c r="M109" s="137"/>
+      <c r="N109" s="137"/>
+      <c r="O109" s="137"/>
+      <c r="S109" s="137"/>
     </row>
     <row r="110" spans="2:19" ht="15.75" customHeight="1">
       <c r="B110" s="1"/>
-      <c r="C110" s="132"/>
-      <c r="E110" s="132"/>
-      <c r="F110" s="132"/>
-      <c r="H110" s="131"/>
-      <c r="L110" s="133"/>
-      <c r="M110" s="133"/>
-      <c r="N110" s="133"/>
-      <c r="O110" s="133"/>
-      <c r="S110" s="133"/>
+      <c r="C110" s="136"/>
+      <c r="E110" s="136"/>
+      <c r="F110" s="136"/>
+      <c r="H110" s="117"/>
+      <c r="L110" s="137"/>
+      <c r="M110" s="137"/>
+      <c r="N110" s="137"/>
+      <c r="O110" s="137"/>
+      <c r="S110" s="137"/>
     </row>
     <row r="111" spans="2:19" ht="15.75" customHeight="1">
       <c r="B111" s="1"/>
-      <c r="C111" s="132"/>
-      <c r="E111" s="132"/>
-      <c r="F111" s="132"/>
-      <c r="H111" s="131"/>
-      <c r="L111" s="133"/>
-      <c r="M111" s="133"/>
-      <c r="N111" s="133"/>
-      <c r="O111" s="133"/>
-      <c r="S111" s="133"/>
+      <c r="C111" s="136"/>
+      <c r="E111" s="136"/>
+      <c r="F111" s="136"/>
+      <c r="H111" s="117"/>
+      <c r="L111" s="137"/>
+      <c r="M111" s="137"/>
+      <c r="N111" s="137"/>
+      <c r="O111" s="137"/>
+      <c r="S111" s="137"/>
     </row>
     <row r="112" spans="2:19" ht="15.75" customHeight="1">
       <c r="B112" s="1"/>
-      <c r="C112" s="132"/>
-      <c r="E112" s="132"/>
-      <c r="F112" s="132"/>
-      <c r="H112" s="131"/>
-      <c r="L112" s="133"/>
-      <c r="M112" s="133"/>
-      <c r="N112" s="133"/>
-      <c r="O112" s="133"/>
-      <c r="S112" s="133"/>
+      <c r="C112" s="136"/>
+      <c r="E112" s="136"/>
+      <c r="F112" s="136"/>
+      <c r="H112" s="117"/>
+      <c r="L112" s="137"/>
+      <c r="M112" s="137"/>
+      <c r="N112" s="137"/>
+      <c r="O112" s="137"/>
+      <c r="S112" s="137"/>
     </row>
     <row r="113" spans="2:19" ht="15.75" customHeight="1">
       <c r="B113" s="1"/>
-      <c r="C113" s="132"/>
-      <c r="E113" s="132"/>
-      <c r="F113" s="132"/>
-      <c r="H113" s="131"/>
-      <c r="L113" s="133"/>
-      <c r="M113" s="133"/>
-      <c r="N113" s="133"/>
-      <c r="O113" s="133"/>
-      <c r="S113" s="133"/>
+      <c r="C113" s="136"/>
+      <c r="E113" s="136"/>
+      <c r="F113" s="136"/>
+      <c r="H113" s="117"/>
+      <c r="L113" s="137"/>
+      <c r="M113" s="137"/>
+      <c r="N113" s="137"/>
+      <c r="O113" s="137"/>
+      <c r="S113" s="137"/>
     </row>
     <row r="114" spans="2:19" ht="15.75" customHeight="1">
       <c r="B114" s="1"/>
-      <c r="C114" s="132"/>
-      <c r="E114" s="132"/>
-      <c r="F114" s="132"/>
-      <c r="H114" s="131"/>
-      <c r="L114" s="133"/>
-      <c r="M114" s="133"/>
-      <c r="N114" s="133"/>
-      <c r="O114" s="133"/>
-      <c r="S114" s="133"/>
+      <c r="C114" s="136"/>
+      <c r="E114" s="136"/>
+      <c r="F114" s="136"/>
+      <c r="H114" s="117"/>
+      <c r="L114" s="137"/>
+      <c r="M114" s="137"/>
+      <c r="N114" s="137"/>
+      <c r="O114" s="137"/>
+      <c r="S114" s="137"/>
     </row>
     <row r="115" spans="2:19" ht="15.75" customHeight="1">
       <c r="B115" s="1"/>
-      <c r="C115" s="132"/>
-      <c r="E115" s="132"/>
-      <c r="F115" s="132"/>
-      <c r="H115" s="131"/>
-      <c r="L115" s="133"/>
-      <c r="M115" s="133"/>
-      <c r="N115" s="133"/>
-      <c r="O115" s="133"/>
-      <c r="S115" s="133"/>
+      <c r="C115" s="136"/>
+      <c r="E115" s="136"/>
+      <c r="F115" s="136"/>
+      <c r="H115" s="117"/>
+      <c r="L115" s="137"/>
+      <c r="M115" s="137"/>
+      <c r="N115" s="137"/>
+      <c r="O115" s="137"/>
+      <c r="S115" s="137"/>
     </row>
     <row r="116" spans="2:19" ht="15.75" customHeight="1">
       <c r="B116" s="1"/>
-      <c r="C116" s="132"/>
-      <c r="E116" s="132"/>
-      <c r="F116" s="132"/>
-      <c r="H116" s="131"/>
-      <c r="L116" s="133"/>
-      <c r="M116" s="133"/>
-      <c r="N116" s="133"/>
-      <c r="O116" s="133"/>
-      <c r="S116" s="133"/>
+      <c r="C116" s="136"/>
+      <c r="E116" s="136"/>
+      <c r="F116" s="136"/>
+      <c r="H116" s="117"/>
+      <c r="L116" s="137"/>
+      <c r="M116" s="137"/>
+      <c r="N116" s="137"/>
+      <c r="O116" s="137"/>
+      <c r="S116" s="137"/>
     </row>
     <row r="117" spans="2:19" ht="15.75" customHeight="1">
       <c r="B117" s="1"/>
-      <c r="C117" s="132"/>
-      <c r="E117" s="132"/>
-      <c r="F117" s="132"/>
-      <c r="H117" s="131"/>
-      <c r="L117" s="133"/>
-      <c r="M117" s="133"/>
-      <c r="N117" s="133"/>
-      <c r="O117" s="133"/>
-      <c r="S117" s="133"/>
+      <c r="C117" s="136"/>
+      <c r="E117" s="136"/>
+      <c r="F117" s="136"/>
+      <c r="H117" s="117"/>
+      <c r="L117" s="137"/>
+      <c r="M117" s="137"/>
+      <c r="N117" s="137"/>
+      <c r="O117" s="137"/>
+      <c r="S117" s="137"/>
     </row>
     <row r="118" spans="2:19" ht="15.75" customHeight="1">
       <c r="B118" s="1"/>
-      <c r="C118" s="132"/>
-      <c r="E118" s="132"/>
-      <c r="F118" s="132"/>
-      <c r="H118" s="131"/>
-      <c r="L118" s="133"/>
-      <c r="M118" s="133"/>
-      <c r="N118" s="133"/>
-      <c r="O118" s="133"/>
-      <c r="S118" s="133"/>
+      <c r="C118" s="136"/>
+      <c r="E118" s="136"/>
+      <c r="F118" s="136"/>
+      <c r="H118" s="117"/>
+      <c r="L118" s="137"/>
+      <c r="M118" s="137"/>
+      <c r="N118" s="137"/>
+      <c r="O118" s="137"/>
+      <c r="S118" s="137"/>
     </row>
     <row r="119" spans="2:19" ht="15.75" customHeight="1">
       <c r="B119" s="1"/>
-      <c r="C119" s="132"/>
-      <c r="E119" s="132"/>
-      <c r="F119" s="132"/>
-      <c r="H119" s="131"/>
-      <c r="L119" s="133"/>
-      <c r="M119" s="133"/>
-      <c r="N119" s="133"/>
-      <c r="O119" s="133"/>
-      <c r="S119" s="133"/>
+      <c r="C119" s="136"/>
+      <c r="E119" s="136"/>
+      <c r="F119" s="136"/>
+      <c r="H119" s="117"/>
+      <c r="L119" s="137"/>
+      <c r="M119" s="137"/>
+      <c r="N119" s="137"/>
+      <c r="O119" s="137"/>
+      <c r="S119" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H99:L99"/>
+    <mergeCell ref="H98:L98"/>
     <mergeCell ref="O35:R35"/>
-    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="H83:L83"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H57:L57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
